--- a/src/main/resources/static/files/out_student.xlsx
+++ b/src/main/resources/static/files/out_student.xlsx
@@ -4064,1504 +4064,1504 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$2a$10$m3vqc6cx3dTVqGKUypMDFucI4Uqq1ArrXHrEo30x17Ic7apcH.z42</t>
-  </si>
-  <si>
-    <t>$2a$10$9HlUrBUsw0llnyyZ8OLQMOSIaoNUcaTOqD6jPLPKp3epXS19U0Pbu</t>
-  </si>
-  <si>
-    <t>$2a$10$q8oEF52VoYZZIICjfXTE5uBezFW0zIWRMTksoXkf2Aah2QF6bZRg6</t>
-  </si>
-  <si>
-    <t>$2a$10$6yFOl4OaEoAfSl.zfcAKt.SPd3oQX/EBN3AY05LH0kmKdUZZPfLVm</t>
-  </si>
-  <si>
-    <t>$2a$10$zmJNhVn/3ULNkJf401vdrOHjvF2.FN3MKWpFJVbq76q39Y/hGOcFC</t>
-  </si>
-  <si>
-    <t>$2a$10$JJtsHx5Dx9GQieCoc2d/RedI7s304TPYGWxnosRsQWwreo6ChYJa2</t>
-  </si>
-  <si>
-    <t>$2a$10$qs33Dk11J/nf3fk9i6osoeFAAsMHR.TIRPTbc4FK8UM48gkZUNQga</t>
-  </si>
-  <si>
-    <t>$2a$10$PRIpw19TEoUvkruqgbuiceE.ceLk5V4ucaWRwdILWdHEwcFUj71b6</t>
-  </si>
-  <si>
-    <t>$2a$10$BSkjZAovWHVAfU/s4JfUX.U.zYjOOls2txvdQ6ihu3JsoYBAp9Dpa</t>
-  </si>
-  <si>
-    <t>$2a$10$KONwkrMYT8sCLwYCZWAqM.pXd2D7TY0Cs1OyzJ.hFIL241B1P1iXm</t>
-  </si>
-  <si>
-    <t>$2a$10$YfAtGQWhBn0WCk7irNXBBebJEV87v6geqTSET5tzPX8yw9LPfTEZa</t>
-  </si>
-  <si>
-    <t>$2a$10$eHbUyN0QyiYytZ4qGZ5cq.3aDCQ/91zxF6xkLgTCZKq576fZYZk6m</t>
-  </si>
-  <si>
-    <t>$2a$10$ZzUDOqQhHZk00xPhzDWXAuK9PRbroR0/9W5v1QcJfgHcuFftPOG/C</t>
-  </si>
-  <si>
-    <t>$2a$10$3H0jnXAWHJVovbcZR9CalubSMGpONFVcLQLQNu1GhAC4NghPyV9da</t>
-  </si>
-  <si>
-    <t>$2a$10$/0pa4XQ.dFSTPGs7roW5peSJv6bKidP8xTJuNXDdqYENnp67CX34m</t>
-  </si>
-  <si>
-    <t>$2a$10$v/sCd9uLOzCR.dE1OyhJ1u7MSgBo/7LFsyvb8mBMIy.2dKsPYrcLO</t>
-  </si>
-  <si>
-    <t>$2a$10$/gKVUBIvXfDZ3y0I3rA.8eKOJSQjaSsmWcE4XsNVW07KiTvJ5023u</t>
-  </si>
-  <si>
-    <t>$2a$10$dErDlBMHoa/pX15dSxJ8v.nloGKBNW/G9rvJ2mSs/HqCGdaZyzfpe</t>
-  </si>
-  <si>
-    <t>$2a$10$fPGdlAovAb.PetxCfFZAuOQvHAdS9dUw4GXSM15DA51RZIejBOYva</t>
-  </si>
-  <si>
-    <t>$2a$10$67yv0IA1u4tFPjZACuz4aOusWlyXF2kgvU7DpAmoQL6CBVWk/Tc7y</t>
-  </si>
-  <si>
-    <t>$2a$10$zxPT4wZA2dhJLTrwrlBYreu.H0azix2l0AIswFl0a/WHDOp7nRnUq</t>
-  </si>
-  <si>
-    <t>$2a$10$mV5lGJDvSvLeNPwVK17WqukrnYKRLUcwjvvBBtO5heTBlQykjzZd6</t>
-  </si>
-  <si>
-    <t>$2a$10$Jz7M5Am7mMVVQW4jf2NBd.OyICjKGL0qLSwhmLTUVuubr3C4zWJuq</t>
-  </si>
-  <si>
-    <t>$2a$10$TtWsFg9XGsA9i.AXVdzuXO7Sgom540VciB97fgUgVNsClbU/aC.bW</t>
-  </si>
-  <si>
-    <t>$2a$10$Fo68RmmhBWnPClXAqQ2DY.FFsSuCufV0Nfdx//UpGPiwnOdJQ.LPe</t>
-  </si>
-  <si>
-    <t>$2a$10$.0nJvpNZg3IXKSQqmsuBPuuWi1rRgg22I9d62LUxGmX7Q0QmUlcaC</t>
-  </si>
-  <si>
-    <t>$2a$10$TkzcHYWqh5vW3jURCxB33e4l.3M5Fu1ampepsxAfWnj9E//A9QkmS</t>
-  </si>
-  <si>
-    <t>$2a$10$UdeLao27MCRR7XB93tXC3uwwoi03x5oTh/praysvUr3Jsjk.2dr2C</t>
-  </si>
-  <si>
-    <t>$2a$10$liGGWQndyPueB./269AMjeWl9hhlAy3zjdv09aOBNTlJCAthL06cC</t>
-  </si>
-  <si>
-    <t>$2a$10$SEkdW3HKhm8QowuJjfjqy.mOeUICbY0z1bWUvpTPgiwSmlMCHNfJ.</t>
-  </si>
-  <si>
-    <t>$2a$10$oDxmRsCiDdKTTI9tKSIp5O29Ic6BuokIM9t6Esw2z0SSSat49VgHC</t>
-  </si>
-  <si>
-    <t>$2a$10$F4HJ6bfIJA1F1bWidIkUjOL/Mtg6tPdMxTWZV8NwLCnIlr6Ererl.</t>
-  </si>
-  <si>
-    <t>$2a$10$1F35TqubUWliH22.Uk0B2uJHnRiXwad32xa3yBh.lfvxdq50AwFFO</t>
-  </si>
-  <si>
-    <t>$2a$10$psFKfpB6WfiLiQ.I6k.mQeqeajvlZcM2ysAeDPae2Ibg2CAd69L0W</t>
-  </si>
-  <si>
-    <t>$2a$10$Um/yUhSSBymqUX1L/qjUoOIA7K0y9pUWi6dvwmskF.VNVpkrf4mGC</t>
-  </si>
-  <si>
-    <t>$2a$10$VSei03HrU9BbtTNsvNZqu.RfMETrlUicu20GssrYa1mmoqJlZaz8S</t>
-  </si>
-  <si>
-    <t>$2a$10$hGponsvbGnHJW/ndij1MHOQ/l1rU2b865Pulx6D0MztnoyER.xFkm</t>
-  </si>
-  <si>
-    <t>$2a$10$VNa4osPpiHUBCTeZFiU8iuc5mdLQ75CWCGy0yQj05LpORRJHY7atu</t>
-  </si>
-  <si>
-    <t>$2a$10$DwHNnK8daquixOLVf64rJOHijRP1AXZjuZ5y9.WJJLeqvlnK9gFuW</t>
-  </si>
-  <si>
-    <t>$2a$10$3MNPsN9Pj2TLa4JquoBdbO2AZistXzk8puwIYxE3TGbUUwi658582</t>
-  </si>
-  <si>
-    <t>$2a$10$ojq2lgYFJ4CFn/T7sTK.kOCcjPJPb93HcKmH0rUc82TJSrFTapW5S</t>
-  </si>
-  <si>
-    <t>$2a$10$/zEuiB0LnNgK/U3kVB7BDumvLsLtol406TA8tnRz7ik5YPYF84WAu</t>
-  </si>
-  <si>
-    <t>$2a$10$GcIHwvRkAQaVSE55VLp5z.uyS0v5796U7YX5dRQZ9Hp2wr2ChXnVK</t>
-  </si>
-  <si>
-    <t>$2a$10$MSgPuFjpod1XpPUzmv7IYuvNEQn5ED4kRpLVTVExxB3wrM9VTJDgK</t>
-  </si>
-  <si>
-    <t>$2a$10$yNOvX4UC4Axyx8QINEvaTOOG/mX2Qd5d5XDdK/gdXUrcP.GYscei.</t>
-  </si>
-  <si>
-    <t>$2a$10$zVi66opma5UFJNC8FLo0HO.z7yiO7aUEEW3bo5bEOQ3bJ5LhoOinG</t>
-  </si>
-  <si>
-    <t>$2a$10$5CNn4Td3.Hnn3VFfShx1H.MA0Kt3hyL1GlHsECq7cJMA1JVxPI4zK</t>
-  </si>
-  <si>
-    <t>$2a$10$nciIxwMR8xs2n/Zrt9x5zO7zicTl5KDzedEttUwXRqapg/Z/4UrZC</t>
-  </si>
-  <si>
-    <t>$2a$10$yAvBxyXe6k6Ha.eopkPW.OtTaJT9NkZB3WJcIUhOKv7F9BgEEQ.Oy</t>
-  </si>
-  <si>
-    <t>$2a$10$RJ6bMcJrMdR6k6AgvdjiVuoyMJwjolCUmT8C7xGV/aPvR1KdU97JC</t>
-  </si>
-  <si>
-    <t>$2a$10$qMauw/TxG7XN25/FOeVeGuTOQgRyejrifKM6QE.DYqqQ/ekfTINcC</t>
-  </si>
-  <si>
-    <t>$2a$10$xY2WQhdodsbfrfyUVbynuuOqk4K.uzbS.Q3swZ7UiOHC8UmYMjYqC</t>
-  </si>
-  <si>
-    <t>$2a$10$C53yi8/N/J9ePSKy93obNOwlSAbb08nVibKQGNqrWN8jjoJhpye36</t>
-  </si>
-  <si>
-    <t>$2a$10$WKcA3xIkhBUocWFTTctjSOgf8dRXMOcz8rgJIoLfMF5H3ZZDaYF4O</t>
-  </si>
-  <si>
-    <t>$2a$10$A0GRK9uopvxzi1dE.lFs2O3LMEBHy/R/GKKT7mAG9bjA8Iv26.doy</t>
-  </si>
-  <si>
-    <t>$2a$10$3ztiaVNylgolfIJLA.HnWuzIAZqyR7T.wa2so3TgpO6w0QBEAWmQy</t>
-  </si>
-  <si>
-    <t>$2a$10$yKSRB2NcDu2P1onLegTOeuy9GwuzHGxqAdIyS6pMt/aqUb8iQ.KuG</t>
-  </si>
-  <si>
-    <t>$2a$10$hhaSeqPyHi3yzK9wR6C3iuFoxq9KMucGc0VN5U4CO4Zj4tKxnDvIS</t>
-  </si>
-  <si>
-    <t>$2a$10$KUEIEk4f/LFRop0pF/yG8OOuHpNiO6WkpEOYRjoPevfFTFYscS2qS</t>
-  </si>
-  <si>
-    <t>$2a$10$PdCCe654MUrqaGbufvdv8.cp1ZNCfnYxQjdomoS2O9Fwp6N3HIMGy</t>
-  </si>
-  <si>
-    <t>$2a$10$8NWLCtMFYHbS25V5.7REZey4QFUZeVoKd49OeBkGg/YCd33MHhiem</t>
-  </si>
-  <si>
-    <t>$2a$10$R2CGhlov1bYmuTtZAP7l6.ChSgOTESVf06B5YiQP1gtAYF9eyVKd6</t>
-  </si>
-  <si>
-    <t>$2a$10$vM9MKrBIF2xRwiIi6WprH.AvK7H3nJ9hLchLD4PBZuGZOo0sc2m1S</t>
-  </si>
-  <si>
-    <t>$2a$10$c5UwBjmlbC./CiE3q01.h.uYyCU3mGQzztOm2871yEDnX7XcSMUra</t>
-  </si>
-  <si>
-    <t>$2a$10$kz2QUrX34yW5Qq1gx7pq4uOlkRD0rolYZ0RczxEpm70QBE5lGpi8K</t>
-  </si>
-  <si>
-    <t>$2a$10$dlmmJnA/VwaWcP15p7x76.BPAn46SFWgh2L0b56Ro1KQ0nnJ/OpvO</t>
-  </si>
-  <si>
-    <t>$2a$10$4VH6U9ELY9uMKiQQDZ5qhOYz1ZTPysJVVsAqwrlDvZN2gFAOUl7iG</t>
-  </si>
-  <si>
-    <t>$2a$10$y1Z7Ld4llE0ehyTQ4vL.v.w5.0AQx7tnvMziD8./iNatO34C6bOGm</t>
-  </si>
-  <si>
-    <t>$2a$10$T1xbq7OrrYZCSRlBXsjbROI7Xj/SsydBSAPGDSpLtDvshOdSeY542</t>
-  </si>
-  <si>
-    <t>$2a$10$SgKbAPkXWq/SwDxy/NYhE.tOtOc.SnOsv0L9csPTFxJhNgpDh4Z0m</t>
-  </si>
-  <si>
-    <t>$2a$10$oCzf/kO/2RKcu9uuHvqSY.miY.iruCXwYAECswyFNgvpUJocp3Yoy</t>
-  </si>
-  <si>
-    <t>$2a$10$V66PEjYK5I0i.RytgM0mOu9EhCpSH04wJbQBfVhnuFy.sM.b2GMIe</t>
-  </si>
-  <si>
-    <t>$2a$10$a219eZpN5xzLTi2OejhVz.6/AWZcp74Dx5cnBJz284qO7ISLgbSWe</t>
-  </si>
-  <si>
-    <t>$2a$10$pGa1PDCMG3KbP1UFAAjghunMUKW04VqWs/Pa47y4F.T5at.YrDmq2</t>
-  </si>
-  <si>
-    <t>$2a$10$wbXzXP8.PK49vaPW4DC.0.jp8m2uq/YpswFj/cFdveqmIFyNn9Qe.</t>
-  </si>
-  <si>
-    <t>$2a$10$1XX/um70rfcbe21guzFVyeQs3KPrLblgGjdBoln8zD/p/5KufyeEa</t>
-  </si>
-  <si>
-    <t>$2a$10$wxa9v8svOoQY8uInMbSYl.M0W2tsApUy8Del7jSfZhYxwZqTkkDl.</t>
-  </si>
-  <si>
-    <t>$2a$10$Kyx7jUhR5z0rk84OX6rhnuJ0r2h4HFqbtUYlwb1a5OjO8r72cEPzO</t>
-  </si>
-  <si>
-    <t>$2a$10$TEV3mz49nfcEfUn.60uKOetqJnSdeKGECTaOdRxe6bBm8xAcItLfC</t>
-  </si>
-  <si>
-    <t>$2a$10$x6W5AtU3xyoBGW7HJp3h1.iMWELFMxy/2ikXA.JdZL3lNXUY.gdMa</t>
-  </si>
-  <si>
-    <t>$2a$10$D8Eko0G05QoGrE/Cn9P8Muxgm1lDIUmujAOTHKAs2c4VRgOzvq/f.</t>
-  </si>
-  <si>
-    <t>$2a$10$.P1.Eg2BxUSnXNJthDjvPOMl7SEZqW1xC9zDlvxJ1KF/9vBF/Jbdi</t>
-  </si>
-  <si>
-    <t>$2a$10$BEqdiw9SAz.w5aXuyjHMNOWwv8KwO/qxuoe2JIlT5HFvAG5b1WY4O</t>
-  </si>
-  <si>
-    <t>$2a$10$AQpEPIM17ojFb4M0JznZ8ugpGc5WheForUG63T0ucRfdRWtKY7QsC</t>
-  </si>
-  <si>
-    <t>$2a$10$Mc2LVVl0fcCV76AhwQ7HsuH1HL3e7cMN3BHjHMGKac1Qhk0hDayA.</t>
-  </si>
-  <si>
-    <t>$2a$10$e9q2s/esxqREDzyx0JSDKekWXDHV5mPeH2HMMCS5lHubWXyJZ2xV.</t>
-  </si>
-  <si>
-    <t>$2a$10$G4g0or8ssvUY6mecwICfM.qDjRMKwvjiQtELQ4l74Sj78gtRr4egu</t>
-  </si>
-  <si>
-    <t>$2a$10$aUJBswgI/3RyX4C5ILlLMOC5j9axLw8JhsfFA0QOf7ZpRfgW.AzFy</t>
-  </si>
-  <si>
-    <t>$2a$10$BOuyJiXSWGP/9jx2LX774.eWfIWgoZUnFeUf8j3H0Li4jzI6NGDm2</t>
-  </si>
-  <si>
-    <t>$2a$10$ru7IiSgFTORf8OzV.zhyHOjiM6pD.KSk0Fr.5reny4kVPOU2UI69y</t>
-  </si>
-  <si>
-    <t>$2a$10$4ZlOGxotdJK5/SfRPGRMqOs8YF102a6F.8HNN1FNGu7kp2rbTls3u</t>
-  </si>
-  <si>
-    <t>$2a$10$9/NQG3Kt3PgQImVpFls8guprD0Rbof.TygtTQh2PQGrG1wAjN4fT2</t>
-  </si>
-  <si>
-    <t>$2a$10$PmUpQyXvYy3kswmu/.TiA.OeIQJoQgLg541ZWmPqhlouysloxYvB6</t>
-  </si>
-  <si>
-    <t>$2a$10$GUsSGQV9TMDJrUYkj6EvQualnNEVsoG9zVwlDWAq8atznRmPSR/J2</t>
-  </si>
-  <si>
-    <t>$2a$10$Fc6tNR1qBgpZ.x9m2t063uemFAZJ/GXkvDQRlmFZAnihX5NJcCwva</t>
-  </si>
-  <si>
-    <t>$2a$10$eJZqpxzADBUuq/nmV5WjGeFu8I1e49pNgH.UZherclck0haCAOtD6</t>
-  </si>
-  <si>
-    <t>$2a$10$kYDbSsB4ghMgtPpKygcKD.717oY85NgQkVAGpIpVo8N7ShYYpgQRG</t>
-  </si>
-  <si>
-    <t>$2a$10$RRoj7IAFVd5I3lNON2O7EetkToZZGaZiEOdBwL744M0MKEorCslwW</t>
-  </si>
-  <si>
-    <t>$2a$10$dFm.ihLWQFAgg2t3TzX80e.l/KvEaNLHw47Vaa5FrrGbjXvPQhUX.</t>
-  </si>
-  <si>
-    <t>$2a$10$bm2EZ5TlQ2v0b9rOl3WO7u12Q0mShCqd0lOkAL8hOKTfVoUgW.0km</t>
-  </si>
-  <si>
-    <t>$2a$10$OZrjxXbFIVkXf6hFiiF9SeNzYZoZMRikcUfCJxAGiSl5Uutkq3F6e</t>
-  </si>
-  <si>
-    <t>$2a$10$IyDEO104bDE4jHKPU/hkKOAb54QRb0IrKqVL0ZQMt7WDmlkZ9y79e</t>
-  </si>
-  <si>
-    <t>$2a$10$VuNARjdk/aPyBVpunK/1..tqZeU6qRFQ0AosA4ljyfGX2Kl53YPoa</t>
-  </si>
-  <si>
-    <t>$2a$10$JjqRqMXdeiJbTHTFN2sgLujB7wvRLzxpr6R/7abp889yVVrNboRJi</t>
-  </si>
-  <si>
-    <t>$2a$10$7YMS0Pifgf01ywYJK9e3auF8JAHeQJLylUIG7N91lVkPO16JHnRy2</t>
-  </si>
-  <si>
-    <t>$2a$10$78oxjUFUXYFsEEaDd33/Nef3pRfp5aJRPDIsdvL9gyaaCXFHS4Cvq</t>
-  </si>
-  <si>
-    <t>$2a$10$JyJMy6RKgezg.BMjAAneH.ghaPjswGxbbcgLZKycVqxg7G.Z4Mrcy</t>
-  </si>
-  <si>
-    <t>$2a$10$daihJHT0pCm42p09dbRqyu5eLseKcBa/3PIi6MUdgZIQomUk8TYQG</t>
-  </si>
-  <si>
-    <t>$2a$10$G5bwsn0hfEBO8QPh5s68N.bAsESHcAWP4e0CQBkIgT/XFmJJu8YzK</t>
-  </si>
-  <si>
-    <t>$2a$10$ypLW9Iah.cSpRt6KC0o0UOhpXrOihZxWHPSpr3EHJu0vGrgcM4YwC</t>
-  </si>
-  <si>
-    <t>$2a$10$9et7RlM.Yd2vxT.vOMKKbe2nEe1GC.FtC5KGghRe1KxmlkCP1ZM3G</t>
-  </si>
-  <si>
-    <t>$2a$10$FeEVk3Dvjpovmmv0KbNRVejqvkiqECsJ5KIiuQYK3a4filpIyNH9a</t>
-  </si>
-  <si>
-    <t>$2a$10$KhmHZ8HTEmcb8pK27qWrH.SWWHN7qKwSp4eEZZUDpIpWA4Nu0.Djy</t>
-  </si>
-  <si>
-    <t>$2a$10$nxmAmHLMWIs7nNtGQgoXruIDI93TEPy7AHz.MgY7X7bhE04Y.RqbK</t>
-  </si>
-  <si>
-    <t>$2a$10$lq8abWuSERlbAc87X96vruLGO1T73bHbBZF/XethJ0O/3LY8V9gS.</t>
-  </si>
-  <si>
-    <t>$2a$10$NubQPPoydhOhWDE22KgwEOKxPbiumq9rK4qIRvvrBH753sdOPaki2</t>
-  </si>
-  <si>
-    <t>$2a$10$cuBgC6ZQzNI/..CC7tnlK.Sp4Ngn/xpRsmY7wQUelHOceArgY56CK</t>
-  </si>
-  <si>
-    <t>$2a$10$YRtJRBBQm91.lgMg6Px2Z.4R36.R4SqQ.IgSgBdacSNn3Fto4O4jm</t>
-  </si>
-  <si>
-    <t>$2a$10$45S8AZmh5P2J/dhLtxFtxe5iLjsvnHDulK8QYruQuqPoCffkFcvd2</t>
-  </si>
-  <si>
-    <t>$2a$10$2FQSAnUDyq5KEAKJDaXY5ux2LIYFmk1IslRbiZe23Eu.iC4iREqUC</t>
-  </si>
-  <si>
-    <t>$2a$10$cg8Gr8ZERk8ymedGh2pt4OcoNovXlHflgAma6iUsNRKNJTuH8E.EK</t>
-  </si>
-  <si>
-    <t>$2a$10$3/MqrwzzUH/Fe.e.I8TqgOTWEARF2U7n5yH3QE1kJ.t0FApZQdJJy</t>
-  </si>
-  <si>
-    <t>$2a$10$/CsszvjbDGkRnTjo6yA5WOk9NbHpujd8TbXA3k0np/TQIklyqMQAm</t>
-  </si>
-  <si>
-    <t>$2a$10$AJTCdhaiF7AMv.v1Wf6.PO9HPUgVKK8UROja9p59JdR7iD1S7rmL2</t>
-  </si>
-  <si>
-    <t>$2a$10$kerDOz/UkVrTDTKJE6rad.N8eVoMN1XHcnu2XoKbd0/hwaHrlSR1u</t>
-  </si>
-  <si>
-    <t>$2a$10$WUrIrULMMu6v8xrIOJYT7.jZPa02UzdS0kp1rWBy9liNyZRGNt/Pa</t>
-  </si>
-  <si>
-    <t>$2a$10$As0e5d7rweNl8/myc.BAq.Sd.UE/X.FC/JRYBtHouVj/YycmDNPxe</t>
-  </si>
-  <si>
-    <t>$2a$10$doxJ9GEMxnCvOuFIY81xUO.TogVU8Wev8jFSYAHoxp6wBrk/f0TWS</t>
-  </si>
-  <si>
-    <t>$2a$10$aU10Kv8AG9PdrDpN.xGpLO4YrfUu9ODHDS531Tpfs5RYIx6LFDkHy</t>
-  </si>
-  <si>
-    <t>$2a$10$G0FNIOi.ZB8aNSrU4TtmwuF24bjJF23qf9P4qOjzFp6PrbEKiRJNK</t>
-  </si>
-  <si>
-    <t>$2a$10$.LyT4.ITLaiUAi7uLZnZ7.n62mexDZpOsnhUSYYsGgFkU6PnLTNZG</t>
-  </si>
-  <si>
-    <t>$2a$10$SviscgNTWZ9pssN0ZNvU7Oij/EEZreQkYLXWuXIBpDXqMF54RAUfG</t>
-  </si>
-  <si>
-    <t>$2a$10$g4U.FOGpaTZ/wwTHYf86Oua481nBlo5BkkezWose02jyzassS1jqW</t>
-  </si>
-  <si>
-    <t>$2a$10$6IJ6FTb7/xM5usQ9Wx/XdeVRHkoRdgNd3Y7Hre8xQEP4NGdMc0cIq</t>
-  </si>
-  <si>
-    <t>$2a$10$FM/6/bB58vAch0U4aO8YPOlaKIwcI8S07xWHRxabvZ693k.UBlce6</t>
-  </si>
-  <si>
-    <t>$2a$10$3K9mZIfckiGAYYVlQVZ7weZr7/m78vtE.JvFcj5WYMsha8K9dNAdG</t>
-  </si>
-  <si>
-    <t>$2a$10$ro3sefvx1peMGDp/qgepJuG2tJiLyyvM/bq9wm3xgeetN3If7pqz.</t>
-  </si>
-  <si>
-    <t>$2a$10$0Ht0kfW7h./DsenOKOpn/ubsvuQZJiZXG6pEFYhH9cV7Fl2L142ey</t>
-  </si>
-  <si>
-    <t>$2a$10$CiktLUnh.B40MENWKBfoP.Lix6EMsv2Cgr.G9cUXNGAf8hmDoSVUm</t>
-  </si>
-  <si>
-    <t>$2a$10$6/LFGDx0ltuyY8ci0jNlKecm.rXOGMouB61z78COvav5rLQcK65L2</t>
-  </si>
-  <si>
-    <t>$2a$10$S9EjrCtrySqbzGlo210G9emDLOKAvCtFF/bkDBjnpyh7psA7tSBwK</t>
-  </si>
-  <si>
-    <t>$2a$10$wHoHArbhyEJZgVfA450ZZ.dtWfaEaIGMY1wF/PEbAa/gCUfUxKcwy</t>
-  </si>
-  <si>
-    <t>$2a$10$LuzKjBZI7dndjeZ0zgIgX.XFDcR56gDuhBCSqQVSme9xSjgcPmSLW</t>
-  </si>
-  <si>
-    <t>$2a$10$YAkDFXoChayy6Ohp9Pzj5OQ5bdfLn1RKjfErNrKIcBxp6InTnhXYa</t>
-  </si>
-  <si>
-    <t>$2a$10$uD9MexgQnkIDL4q/Km3EwO8fC./XiYvQ8rF3KgLLiFsPq2RBfUCPy</t>
-  </si>
-  <si>
-    <t>$2a$10$RNxNp1EcVWjSmp.TjrAFs.LuUyNcgBs3mfkWa9uWqca.IbDb9FGR6</t>
-  </si>
-  <si>
-    <t>$2a$10$CuKsmSfod3wiACq7cDa7oOmrsZxoRQhHNTPmTFAxgap4xtuFTK8l6</t>
-  </si>
-  <si>
-    <t>$2a$10$VeTx1GPxFdZnXzyHQTlVKePMi5vsc2oCoqMUF3c.JiHk.JejL2x9S</t>
-  </si>
-  <si>
-    <t>$2a$10$hGoI42G.dbt8.ASqRyF7keFnii2dTbcGOpjcubzZfUnqmScXx/WQG</t>
-  </si>
-  <si>
-    <t>$2a$10$LgIpmz79LgtJ.xP6IjWJt.NhrkBvJsCCZfMtnf3HqTaWXUmNgBuDq</t>
-  </si>
-  <si>
-    <t>$2a$10$NuCbl5/sGAt6HJ0142U.uedo6WZwOi9eb3GiS3uXrAVrumUjp2epa</t>
-  </si>
-  <si>
-    <t>$2a$10$W7dLVLH9LvKz9yrKONgrhuBof1ITeGm2SJgyxfYABVSFpmVsnhhue</t>
-  </si>
-  <si>
-    <t>$2a$10$tDhvOLUXm1S7T5rHlnxBEOkowLAb5HDmTvXoNBgTuUiPfZzEwp5jC</t>
-  </si>
-  <si>
-    <t>$2a$10$mXJFApp.7JhBKLKtTEqW8uDcgiEGkAv12plXNcXEaFB.PHVfjd.ju</t>
-  </si>
-  <si>
-    <t>$2a$10$nbaOsWFMSWgKap7tU0PJD.nfD.kyP6V3z6vw4/gVuNDJTIqyxWVwC</t>
-  </si>
-  <si>
-    <t>$2a$10$jyxDe8kOmajICDG9F5rd5.1Y4triMYYJR5M6FI7GIeEnNOmutqlgS</t>
-  </si>
-  <si>
-    <t>$2a$10$GiZAq1pETIRHvthEsZ82/.qQGOw5ZgAe3c7H9lIEmg.mmhPbsEeNC</t>
-  </si>
-  <si>
-    <t>$2a$10$sgJtGjWb9bsip0SCOAash.v/0TJRYAT7PN8rufYKlaxhtUFqc9tOG</t>
-  </si>
-  <si>
-    <t>$2a$10$xcLWF/0QrFPNYgymYIX42upIrJLqfoBbuq99XNx.Yrd6AvwZ4zlIW</t>
-  </si>
-  <si>
-    <t>$2a$10$TJvIhxpyUxVtb/uqPhyjFOlU2L9G4EufxC5BPPxwNlthaViVUyWU6</t>
-  </si>
-  <si>
-    <t>$2a$10$ZpwFb.tWRvktx6pcXQPWNO2JnJpk2YRfwXWm7Uzyu6y5UjM0RSjru</t>
-  </si>
-  <si>
-    <t>$2a$10$Yk6mWzRM5ZCyKfw4rMXA2OKLe6DRZCJIYelVzOam8qA7nclJLm146</t>
-  </si>
-  <si>
-    <t>$2a$10$n9JbF0Z0kYge7qTViPMxtejiHVPXPeB6lAHYgCAuQ0NK1djedWMGS</t>
-  </si>
-  <si>
-    <t>$2a$10$F.BTg.jtCevYZ09swCnSu.prM6mrsnzSTBzPW3WLVNawOBkdt8qcu</t>
-  </si>
-  <si>
-    <t>$2a$10$bT3QtRJwMKi2pyxUkJ2CzujCKMVOkAunNh4qknpvEWwZf3OLrZ2Ge</t>
-  </si>
-  <si>
-    <t>$2a$10$LCWyX8Up/PwAo7tXcU7bpeZpNkCLJ5seL8s5Dfm8yAqkvGVE/gPaK</t>
-  </si>
-  <si>
-    <t>$2a$10$nux/fan9Vn7W0Xt2xRDYGeWn7KcLZO90Tk1qg/E.DlllQ6QX/qCuO</t>
-  </si>
-  <si>
-    <t>$2a$10$neA/Goa3m80loIkUdV/7OeHvLH4rRXSHokHkY0E.i992d3LG9gcdK</t>
-  </si>
-  <si>
-    <t>$2a$10$5B8/xejWxGWxBWpoxnnKtes.VtRPjXwUoD9oG4cD7xE5MHEX6bBKa</t>
-  </si>
-  <si>
-    <t>$2a$10$.PM0ZPijQWarvsvsWJtFtODeLIvGB/CecG/OEby6vKo0DRpsRzWmC</t>
-  </si>
-  <si>
-    <t>$2a$10$TlnXkRaXLb/h7iX6HilzA.9uIbgVlDGxjgKig2k8YqDJ8iuiYWnQC</t>
-  </si>
-  <si>
-    <t>$2a$10$7K1KzpPBd2B3/zwCX172W.0TpvqDKvh03uBodblltXMjh9RtoaMV.</t>
-  </si>
-  <si>
-    <t>$2a$10$mlF5Ia.t2OtqpIlpeMD2sO/BliYRLkyrIPWSRDw2eqZMpHnGqCwHO</t>
-  </si>
-  <si>
-    <t>$2a$10$sO3Qsq89Vnmct6/0H3lGF.3KYeB8SIP3RvmUbUr0Dq5Cv4yb/2h7m</t>
-  </si>
-  <si>
-    <t>$2a$10$TQEppplUTVDUE0orHmgAEuRaes6quFOsiWzVUvVSqM7HOpKysa63S</t>
-  </si>
-  <si>
-    <t>$2a$10$wXxyc6IMATz82fPFCOBP.u8jrdt0SZP1vWRGpSwWivt1i00Od2fbK</t>
-  </si>
-  <si>
-    <t>$2a$10$QzuVDsrzO8r3A2aM8yCSze7E7X9jCueXuxBa0EBcgVTOX/p7U1n4K</t>
-  </si>
-  <si>
-    <t>$2a$10$O3vChzOLdc99kudIU/zFxORKqtrFETqnXZ6ylYJqU3w54lZ9nRiau</t>
-  </si>
-  <si>
-    <t>$2a$10$24XLb8O1TRDTrADIcUL86eWlaZE6Y88LQa4kSfv.dJ0a/Ke.VYgzG</t>
-  </si>
-  <si>
-    <t>$2a$10$OFGNDyPbypUR3x3bDpOOQupr1lhI/2e092i7e/gmxvzDWWKpg5FWq</t>
-  </si>
-  <si>
-    <t>$2a$10$WfbfizTsnwnoo6bnHuc6UuAvgqaaC3YXcnL3mpos7QIyj1gfMf6A.</t>
-  </si>
-  <si>
-    <t>$2a$10$LUZRIGR8VKDusLqL7SVD0O/lVMACsRaDVFZyxAOAG/9sXbGEpRIJe</t>
-  </si>
-  <si>
-    <t>$2a$10$GZmb98dVg077Jx///d7BH.Gs1QQSZ96VlNiwMhTYMHMVkuG0xODdq</t>
-  </si>
-  <si>
-    <t>$2a$10$sMBJya5lxGw3oC/PZIL/a.y8Mmqs8EngzPt7CCaG/Yg3yQzaZQ1TG</t>
-  </si>
-  <si>
-    <t>$2a$10$gjNVPTxd04txHEGjMeWskOys4WgoJZCP.5d3MbxqpqKhsFIU6iu5e</t>
-  </si>
-  <si>
-    <t>$2a$10$SbYjk/VFyxt0O0VMjF08NukkRrIC6pbnHRI2lA.fYBREMPqWaSQ46</t>
-  </si>
-  <si>
-    <t>$2a$10$tgTSlYwJVat4auEfrE51NeqLm68Z5McQ47X0fN3S4iHCCv1dCJxqu</t>
-  </si>
-  <si>
-    <t>$2a$10$CeHWUVoywwwnfg4UlEitw.LQizz4ggHPq/4zEVHIiASUxTPwSu7WW</t>
-  </si>
-  <si>
-    <t>$2a$10$7eDKQ2fHHwS2.BUg64/prOzdWpAliBbUJf6Wi8cMapkZRLVS9IwoG</t>
-  </si>
-  <si>
-    <t>$2a$10$1JcFJq8mr8dsqym3yf1S2ea/yyY379wrTwZ9CbD/740kyqL6legPG</t>
-  </si>
-  <si>
-    <t>$2a$10$zWXGxtPJCd1UBwRCJl3uT.bHFYC3QKlo8vlkIbZe0ZdcVVS70DoOm</t>
-  </si>
-  <si>
-    <t>$2a$10$H3rtj7RHSYntDKzGTSz9X.kzIyn.J2uady3xCbwmAPdj.ub9hvDmG</t>
-  </si>
-  <si>
-    <t>$2a$10$pErhEfIjbwDc1Pmu1e7X6er9SSJcWsFXS/zbhjrnXx6IpKqdWhrG6</t>
-  </si>
-  <si>
-    <t>$2a$10$Y7.LytInZkZkja0eKBToU.Lmul5Wwfh3jO0c3fyEvC2yFnG979NMe</t>
-  </si>
-  <si>
-    <t>$2a$10$w8ZAcexMGy6B8PsbKi9vqOxT/Egebazl2e1vdyRsG94111vRPi4km</t>
-  </si>
-  <si>
-    <t>$2a$10$VfkJ.Efj5F0Epk3UuD6WdOZGaCD8PP6kaYL0R6F4hA2rxwD98VO9u</t>
-  </si>
-  <si>
-    <t>$2a$10$RA0X6sUZn8RVFoEoG3jQoOssmuPrTxeXBX3c2R3n0aZWLnPXltHHC</t>
-  </si>
-  <si>
-    <t>$2a$10$hIFbuiZYX7RkGQbdOvAfZu5XOl7yGVmKnB7yfuqC4G5tV7lzcRVHO</t>
-  </si>
-  <si>
-    <t>$2a$10$urp9o0eZOaMLS1OrImAF5OmuoJgr1w87qqyiMilLVv0LNHNmnft22</t>
-  </si>
-  <si>
-    <t>$2a$10$kEKmmhPF1xmF9g1BLITEpe7sXk5aONZYT1QIqh/KE6x.oRM731ttu</t>
-  </si>
-  <si>
-    <t>$2a$10$DSnZugi0vMUbdFYzoeT6TOKZ/8h1cO.X2zoW//6HWNINs2Hkuhsm6</t>
-  </si>
-  <si>
-    <t>$2a$10$kN1LQwIxHzLqvLzDIdF0LePdAH43Pe5T/IkDafZXnCRNpjh/a7RgC</t>
-  </si>
-  <si>
-    <t>$2a$10$Ll9jqM76opk/oWgtHhV/MO/LBIvjT2sp1vrAnnprTQIUYC6Zmr8Ae</t>
-  </si>
-  <si>
-    <t>$2a$10$gXs9hgceMj4DEWs7tPk9zu1TBVN7ZfMSm7ZP2Lk6EXnAvNwU8CAKW</t>
-  </si>
-  <si>
-    <t>$2a$10$jGDKrXbl0q0QPppFrB9gUetSuRjdOyKyV.Zgg69xdGDBlMioRnhai</t>
-  </si>
-  <si>
-    <t>$2a$10$C4QguQZ/YUAngaDsujslw.h2297LG4lQ9FM0ejdWA5SE4FsVZBWPy</t>
-  </si>
-  <si>
-    <t>$2a$10$JNk2g2kmciRTLiQ232HIWOFPsWZT1/YrtDsFFPVMiqWENYT4psen.</t>
-  </si>
-  <si>
-    <t>$2a$10$Pt9w7Liye.GBzE0KmFEHnOV5R9pmDq3hNMaoMEzge6cDdQCUmji1S</t>
-  </si>
-  <si>
-    <t>$2a$10$NZY8uh8./F2GMfOBWzAuI.GOuf6gg76/CohgXpQN6C9z381O6AJrG</t>
-  </si>
-  <si>
-    <t>$2a$10$ZzM0Y9Vm8MI26eBgmzhseOoO8uIfru5ag5buZZfW037NNPaJnKive</t>
-  </si>
-  <si>
-    <t>$2a$10$k8P..nYHS4FWzuN.N.Ki0OS3Mb601gAon2UvUfWabu6lZENpL0Kqa</t>
-  </si>
-  <si>
-    <t>$2a$10$usfrFj6rY7guZIfZwRkbJ.UUzOkJxGN8yx2MtrHOFuCv4Rav6Dxl2</t>
-  </si>
-  <si>
-    <t>$2a$10$lJhTJ9shdb24BkNW/1X5FuUx.pOo1EcDH6U/Rm1TIUi0tTNqEdrYG</t>
-  </si>
-  <si>
-    <t>$2a$10$bT80SDk.DAls2u4.S4bzi.8K.vI1Wx5c/fr/e9M5qzFJx64NCokLS</t>
-  </si>
-  <si>
-    <t>$2a$10$eRfa3ykNIlxXyfB4jF3mB.g2qSLhHFUXKnQS/3d3Iqhy29bTAaLEG</t>
-  </si>
-  <si>
-    <t>$2a$10$ZAUGWvBFNMfu3PSKiJjwe.ZIpso9C9uzcQxihXUIy/6JfxfpCtqWy</t>
-  </si>
-  <si>
-    <t>$2a$10$pO7h5wQtYMUOU0./NYNSy.lxaxNlTDKALo0txXNJpGD7AJT9OEB/a</t>
-  </si>
-  <si>
-    <t>$2a$10$fbpveQiT2bbmhLkCYUgr5eZIwKMSNdils0.zYAjmZgCgOXWPB2.eW</t>
-  </si>
-  <si>
-    <t>$2a$10$oCDS3cr1E5zz4r3Yusj/Ru114ZRXoCSkSTRjDDEJN49zMNbB.gMwm</t>
-  </si>
-  <si>
-    <t>$2a$10$CXqAf23CWDBqiaEM4PtWGOwJkj6SXu2kbWiva4sn2Mxax0MhwDoMa</t>
-  </si>
-  <si>
-    <t>$2a$10$MzE5L4zWqlFauu0pFZXA3uNEXuRa0IoTy6NR9CjWXFyPCAX.aC7bu</t>
-  </si>
-  <si>
-    <t>$2a$10$fZNsZ7RvBr84YkQ/aTfjZuleoKION.HgpnC1J.YcMNFfClL2ZB0Eu</t>
-  </si>
-  <si>
-    <t>$2a$10$h4FzrxnvDVS9PI2qD7EYeenZ.qOzqvBe9a.pP2kxcxZafc0eCUdVq</t>
-  </si>
-  <si>
-    <t>$2a$10$J4PklMUs7gcAKLgiN6zNxed61x3ZaE7e7knktT31.TjLg7ewayVo2</t>
-  </si>
-  <si>
-    <t>$2a$10$qg8mk69PVa8WKiX8VvxbButvnophgsWZ7av21whkFV2KgdAqN5H12</t>
-  </si>
-  <si>
-    <t>$2a$10$yH90NL0uqJwWAZk0sT9gpO7wJq9ZyDOQx5M7458dLdsBpI8dljkAG</t>
-  </si>
-  <si>
-    <t>$2a$10$nNnVyfoeg12gHbbcEbfeL.mLpKVdWVYdOfvyvqUZcbZbw1vTQjhUa</t>
-  </si>
-  <si>
-    <t>$2a$10$QuwyExcxZc8x87/m81BNmOVDU.08Pt728GkerlAxPe4QaeEiS0H3.</t>
-  </si>
-  <si>
-    <t>$2a$10$h0kxONIw1YRnjogeYP2hm.R7YgKhLhrKFHYP4Bg3jk1GKchH2sMUO</t>
-  </si>
-  <si>
-    <t>$2a$10$j.n.3LXJQ4GOqA0/avs.GezjWMm./4U5Y2ZcYMWde3cggmyAKlMb2</t>
-  </si>
-  <si>
-    <t>$2a$10$cdYkMyAAm5VMQXuJQ8inK.f8X9r7ONlM4KA/wP4/zGhxdoqcwfHxG</t>
-  </si>
-  <si>
-    <t>$2a$10$mTbbUx1WzIkWLNcwYusUSeRjsOA/F/PnBhcOPvJrHWvg6YR0udPS.</t>
-  </si>
-  <si>
-    <t>$2a$10$JFvyddm/j9tRYeMQYCgz.eMTJIXYvYKX9AYKP0Rf/VEvA0WUjt4Ne</t>
-  </si>
-  <si>
-    <t>$2a$10$dcwnYiOqTK1NJ5XpWS26xOJtBT0/m2SdebqJIQm8uvrk7OG51EASy</t>
-  </si>
-  <si>
-    <t>$2a$10$.bSQoYuVCx/3W9CPwSSQhOGKEgKblw7IIJ09aA5mzC/Xck9PKQWku</t>
-  </si>
-  <si>
-    <t>$2a$10$8O2SumfW1p/k9IomdOOOMujlsxXsOQabGv89wnSp.1ceC8GT4FfKm</t>
-  </si>
-  <si>
-    <t>$2a$10$utBNtKGN/xv9qdC8OqXYqO/MuUNdhU40y/2jXdqQy6VtFrSehpAEK</t>
-  </si>
-  <si>
-    <t>$2a$10$HkKAnx0PemLh2.KAXHMQMOVZKAil6C0wp2AbwJGD3DJKiKHzmDdcS</t>
-  </si>
-  <si>
-    <t>$2a$10$bMKv8bon6sGGV063nRHzBuA2LewvaIEztkmToLdece.BfyWfIkxHG</t>
-  </si>
-  <si>
-    <t>$2a$10$tzCxZjyPQKw3LmL8KU7aG.NXeHobnE0JXb9bYwALnXhd82b/hEUdm</t>
-  </si>
-  <si>
-    <t>$2a$10$bv155bNguKzZKv3g5Gbgwe6bG2amzU5vVXd33J/BnhuBS3ZYEYRei</t>
-  </si>
-  <si>
-    <t>$2a$10$id/yCXHwoAStMXOnDPvbJ.5G98XJO1V4V3LqnEWqMQktTFfeEF9Kq</t>
-  </si>
-  <si>
-    <t>$2a$10$5k3Z1RPBshne8rR1mqEqguSKJpomuOXnRq/N9GpNVg1tl0ueCi5Om</t>
-  </si>
-  <si>
-    <t>$2a$10$666pnvS1kQVGlz8/RCQV6..UahSGHOiV6O0YEK93gsEBDkJ7QxtP6</t>
-  </si>
-  <si>
-    <t>$2a$10$T.VDXpCBSMc05nscsQNneuMMDzvz7Z13IaT.fYVSXcKf8zxdVeOC2</t>
-  </si>
-  <si>
-    <t>$2a$10$AGqv0hKfkppLOQacAwEDG.ORchSyJHx1cyl1S.DH0CaXojPzutOLS</t>
-  </si>
-  <si>
-    <t>$2a$10$IQh0yj.s0OUBV2wYhL5ENeFujLhWjUbDb26VBe1OxhiVzpBjEYhum</t>
-  </si>
-  <si>
-    <t>$2a$10$l9Zb.wrLs/5mt9/FNUQklOkXZAhR5GFkTwRKyaT1v4rICnRR.sxL6</t>
-  </si>
-  <si>
-    <t>$2a$10$8W1R03Hrgck2WabWRwFYRu6WLhANwdvWEHjc2TQI4Nsxo2xaNrVnm</t>
-  </si>
-  <si>
-    <t>$2a$10$Gc.7MDP24oOpJ3H/3HSswOE9ZypbxqmR4JIm8x7xIuCSdMmA82h6C</t>
-  </si>
-  <si>
-    <t>$2a$10$9xyES.c8ZqW4R76rQu4/TOvPfsotzElJbvMphg2QFqS5JXpDCMame</t>
-  </si>
-  <si>
-    <t>$2a$10$7Jtp/s3Dr6NPLKKjDWSUfOuHb9huMmQwUtbvq2o5EAW4RHZ6ZyUdK</t>
-  </si>
-  <si>
-    <t>$2a$10$0mVWo8QRKKq6pFV4er0Ws.1CzkccKkGByqAaYW.dYoYdpYWozyiW.</t>
-  </si>
-  <si>
-    <t>$2a$10$9IGgHoiVo03xkQgxjEp39eSREQYlIHdOY/TAbMOBtkWJcyhpP2QMG</t>
-  </si>
-  <si>
-    <t>$2a$10$Y60miSYAn06oJC2.jVf7u.2Iro9jFEY37g631jRV/HKAJ8pH7r6Z2</t>
-  </si>
-  <si>
-    <t>$2a$10$bXBffdH6OuQd64HXyqfPA.EGzyzIPMQ8ZprBPV.d5LbVOcQwim.5a</t>
-  </si>
-  <si>
-    <t>$2a$10$redn35xuu13Af/3pIdk5KelH74b16WHnmHHXwUfevIy/gidCn5aoG</t>
-  </si>
-  <si>
-    <t>$2a$10$J0evshxtuTt4AeX3zms6v.HPq5T6.C5nq3kZEc8.WSJ.TITpG3abG</t>
-  </si>
-  <si>
-    <t>$2a$10$ORo8z1gbQrT/hmb.n1pnpecywqvO/Lh2zyLnYZm639RnS2VJvnOWS</t>
-  </si>
-  <si>
-    <t>$2a$10$WPLMvwXi89VsXdbX0hBpzOdx3/yJTt20/LfBCt2/DANfrPf9cVPom</t>
-  </si>
-  <si>
-    <t>$2a$10$plIn4rJyjDi.r/eRDvGvSuqfKYuEgkkZ8GK2vv2barscMr2K1FCtm</t>
-  </si>
-  <si>
-    <t>$2a$10$GZztawIW0eC4mw7IuFqlZOBxTyb5bHHoVXSbtcyI0fdCslB7.YA2W</t>
-  </si>
-  <si>
-    <t>$2a$10$teKKDS5EPqKDQIP0OfEeO.qWdyvjPnB5OGOcvbUQvkAUaZ1QJ4FaS</t>
-  </si>
-  <si>
-    <t>$2a$10$vahoE4QlXTZnn3n2OvJJKeOxXvG1Np7EHURZeqMh2slFjxqJSnjyG</t>
-  </si>
-  <si>
-    <t>$2a$10$gogKrabYG/vfnIXL1/ByXuLZ4CumNWcy74BbArkDPQ3iErYni.KMC</t>
-  </si>
-  <si>
-    <t>$2a$10$e7So00dul03WY8He22HQmeqRmGDHeH9.2/83hZy7GbkQii.W/TN.y</t>
-  </si>
-  <si>
-    <t>$2a$10$82R8pZtgnakZgm/U9C/5tuRVAx4/32dIEHDkKkOD96ofxvYFF.fCK</t>
-  </si>
-  <si>
-    <t>$2a$10$5GxmqL8vKOaWUrLzCoWWtu4jbg/zQWCGwCSJFNZQhr7iOxB5ble..</t>
-  </si>
-  <si>
-    <t>$2a$10$S4.IAF6kpKFAyzU38HzMneTKS7O/g01yD8aMNmdUJdRBNpXKAcdx.</t>
-  </si>
-  <si>
-    <t>$2a$10$4T/NRRCgm6JQidi9oax2t.4GsG5RR8zP/fpqpzfyeVwzjsEfwp33m</t>
-  </si>
-  <si>
-    <t>$2a$10$xpfGG2NrDzWtVtLixPYF1OVwevfpZampjfyWtOqRkxMSNHXB.d/Fm</t>
-  </si>
-  <si>
-    <t>$2a$10$UGnLG85W9o7TWMvW/GtgueUUdybS37X0Tf55cyqvR0gZDCrMyBuXW</t>
-  </si>
-  <si>
-    <t>$2a$10$zJGcnrbyDbpG3MwEGyu1Ne2H7CF3mSGBNL5gK8zKcEyCG3bHtFMPW</t>
-  </si>
-  <si>
-    <t>$2a$10$aqslqRaBoEBQ1mJ0co.r7eAIf9/umfMDOt3uKhB0Q00NsF4/f.mnK</t>
-  </si>
-  <si>
-    <t>$2a$10$mjcjfsnxocrNfepM5iM6cuiYx6J3M685DASDN.h3373h06lLf5XJG</t>
-  </si>
-  <si>
-    <t>$2a$10$QzpPrr.KUHtc2hH3RBAgmeVoWiFivtNP3xO/Y7F3NFofTNBC.V4tK</t>
-  </si>
-  <si>
-    <t>$2a$10$nSCvQQs4Buy5bIwLxXpiiepjyGqA/4L6rfLrDR5H3xzfYEoHtgdp6</t>
-  </si>
-  <si>
-    <t>$2a$10$j0nkDidXXzl0et7JAzEJTOI4AWgjvw7m3EBhphTLnPDne8EBkcNz6</t>
-  </si>
-  <si>
-    <t>$2a$10$1VtVSt33lUn1UErxcBGZNOd7/xTlEb/Lpu58utNf1EVHYz8yPW/8u</t>
-  </si>
-  <si>
-    <t>$2a$10$i4e4AyKl0/NUkzUh1eWGKedUw.G4twOWhPvpNahVlGAKRY62Sia3C</t>
-  </si>
-  <si>
-    <t>$2a$10$r2udwhmO2zGTXXmNNmFkvuW5UdtE1fWLi3LsKENXN5aqA2d4Mc5Lu</t>
-  </si>
-  <si>
-    <t>$2a$10$.SG1V4cC7mEL1bYdR0feyOGoRrO90q2mtX8i0KjEGrI7Absu43IzG</t>
-  </si>
-  <si>
-    <t>$2a$10$KTdE1FIeVxo32FfQDybr0e852w/nsGKWdAEaQah1ljEvhpEwu6H0a</t>
-  </si>
-  <si>
-    <t>$2a$10$RB1NQteOCrBv5PKeTPGtI.jWMi2YWhV1TcMVwVf91J3C/JeYn5dte</t>
-  </si>
-  <si>
-    <t>$2a$10$C19ryRU3p8KlbEzKJ70tg.CKlJGEKdgmQiveuG5Wx4OUzG8M9osV2</t>
-  </si>
-  <si>
-    <t>$2a$10$gy0BUELiFl/tAUUFzhWPoOM7kYN52.Ybz3M1c3/RKTfqOMWAOCy3a</t>
-  </si>
-  <si>
-    <t>$2a$10$JS.vNEBL35AJN51RpVx.e.4TROaJfgiJcQkIPSWz863rnPJRpLZye</t>
-  </si>
-  <si>
-    <t>$2a$10$JosZ6Jvq1pHwqHhnIHy9huz9fMvH61YtDJrWIpSbpL6fuQ.0fewb2</t>
-  </si>
-  <si>
-    <t>$2a$10$WGv/S9TSpciK8/5Ce3lfcuDPnZ5TM2lijR6oNrS1ccissAV1PMKVu</t>
-  </si>
-  <si>
-    <t>$2a$10$r/PwSVlYFRoVj8UCWPuzAOoBdEaj0sGhWgIUC/DWcmYCmBiFHsq9a</t>
-  </si>
-  <si>
-    <t>$2a$10$s4jtXrNc0x2zAhgM8/C6MeOchYI3pEXcnCLpAswxPUUcARH642/oO</t>
-  </si>
-  <si>
-    <t>$2a$10$HOVdvjnLOqV2dYAbiptM7u8iJif38sEUYnzFPBLXuZ0nY7.L3mL3m</t>
-  </si>
-  <si>
-    <t>$2a$10$xTBZ2j1qngZzptZ0z61d6O3mLRaHzCaXNP.opPlOE0T7enZrBvMGm</t>
-  </si>
-  <si>
-    <t>$2a$10$Wvb2bakN/KHqmBuq94EM/unPwFLHe6yppHDX4RKnaEzJJ/yFzvPU2</t>
-  </si>
-  <si>
-    <t>$2a$10$QYW8eHmQ.99tGGdwRufibOwG5DJvqh/o1eMAjjD/0GZ4WXEZYzCt6</t>
-  </si>
-  <si>
-    <t>$2a$10$rNkeUMgFeA1eF2KavP31hODPVnrnTTRhx.h4oz9gzzVHDlH54vIpC</t>
-  </si>
-  <si>
-    <t>$2a$10$ysdZqWadv9scY2KnBHdG0egsnDmcxxOm97V2At2tF.MhhdUw2LHQC</t>
-  </si>
-  <si>
-    <t>$2a$10$sm3QYeHfu3ylcJgcOiYWVeCPj6VufBrhnYBLXO7wylvlO0nLEl9BK</t>
-  </si>
-  <si>
-    <t>$2a$10$11rhizGDP0QxnYlsaNCl2OoFpqUWby1xyFb58aFIvuBv3drsvsR72</t>
-  </si>
-  <si>
-    <t>$2a$10$gGhMX9a69SxnQcvr7koXRu/mJZzasodEj8.WQ6fGbY0Fe/7rGzN7.</t>
-  </si>
-  <si>
-    <t>$2a$10$72XAvFItq9Vf6xUXVog3oufZPwCdkh8lCv.W3DdCxpGqX9AorlBka</t>
-  </si>
-  <si>
-    <t>$2a$10$IglK3QGhuDJBISQAH0FUauCdMJS0uIdxWugj5oEpXk.URrMhrtbs6</t>
-  </si>
-  <si>
-    <t>$2a$10$o1XwDyviWrFCdN3zrY2Kp./hS6JbqGs2pk43ad0jWozG.QIBz7WEC</t>
-  </si>
-  <si>
-    <t>$2a$10$YZOXnSnJSQ04GI6ydOfaWu6XHSui1fvar1odjDWget6/cYVyQ.Kay</t>
-  </si>
-  <si>
-    <t>$2a$10$UtZcdQ24Nbptf6dxRdZhh.Wl/7K1yrqo1GuZp6RuZjIgAVOURgu1W</t>
-  </si>
-  <si>
-    <t>$2a$10$xS61W8YChP1VzOP8dhz32OVKXd4S1rkfbXxe3qreSrDI5tYLqz4l2</t>
-  </si>
-  <si>
-    <t>$2a$10$72YTqg4XfgiAkTs8kA7f7uhivqk4eATak8AK.QHzN22uKslDSTQn.</t>
-  </si>
-  <si>
-    <t>$2a$10$CFAMkTFGtkaasXQxloLTq.9iqRrEzsLTwEQ8cpJQrIKkX36x2dTXK</t>
-  </si>
-  <si>
-    <t>$2a$10$IX8k0UiTRdLF90QIPUO0juRrvPplgV2njYyoAX.i0a8ywqiN2ImyC</t>
-  </si>
-  <si>
-    <t>$2a$10$uRhyjQUzU/PY3ViMpGdQ3u.ulU.A5r9Brw9ec7UboLcPzL7Ff56b2</t>
-  </si>
-  <si>
-    <t>$2a$10$oKGtK.hMF2KPyKU6UmOTE.nCwrQ7bvMuRtGfe4i/M5LB9ZnDRLEqi</t>
-  </si>
-  <si>
-    <t>$2a$10$t01sHbXSgT2gXAWWB1jYZeWxqCPl7gDYVXcCttq6vyzg/hrNzl/XC</t>
-  </si>
-  <si>
-    <t>$2a$10$PjeHueNuNbOguwh.1kAXY.Lu2aC7rC7vmz7gyuS44BW/Y.bkxMriC</t>
-  </si>
-  <si>
-    <t>$2a$10$Iz55toAUjX8aWw3i2lQLaOumKNkgI6SIz2qMzlyx6SQDVdUq4vXni</t>
-  </si>
-  <si>
-    <t>$2a$10$QjFqiF.w1jl6Q3bA4iqG9Oa9rvgSuZSqCYrmtAyvbdV39M6Ri75vu</t>
-  </si>
-  <si>
-    <t>$2a$10$JovvyjzzkIoRhChPROXCtuFSwHH9gHmBMDRo0dAr1TFKzctiXcQcu</t>
-  </si>
-  <si>
-    <t>$2a$10$UQuBgR2aUVNiO3T2ByPWNeBDRCri6t6Ks5HBytL2K4uVJsE/iR79G</t>
-  </si>
-  <si>
-    <t>$2a$10$CWggF65vPwNUsxTPJN4GX..Z5P9WxbBz47JmvYoHaH9d75xcgLFCa</t>
-  </si>
-  <si>
-    <t>$2a$10$o6mhzUyPtDx1/FbZCAq0k.WBiuUpe7L5q/NzlaVc81WnvR8tJSySm</t>
-  </si>
-  <si>
-    <t>$2a$10$zE8Cnqeb0d0eLyD0gBf1DeGxPmHmb.h8bMJRp6FeDydsmgKDyV3T2</t>
-  </si>
-  <si>
-    <t>$2a$10$VjUGjUgNjGM3yM8HcShS4ewpN.OahgBG.5j8CXIocSTWoeWfscvUC</t>
-  </si>
-  <si>
-    <t>$2a$10$HCYhNJoPbMY.YBTo9A9Yn.NVlCtcd1SluIOc66RpDfLfW2.nVWcKG</t>
-  </si>
-  <si>
-    <t>$2a$10$fHU.E6tuXYhkudJycv1lneJOPTlM7vr3gUADag2af58qRlWq0dxaS</t>
-  </si>
-  <si>
-    <t>$2a$10$203LW/NfcFkQceVgO3gzFePEoJ.wQxhTjhcq/RTJrvvhGS2oyygum</t>
-  </si>
-  <si>
-    <t>$2a$10$PlNBzjkSamkLqAiof6oKCOW7dAoe4kUUEjh9I8XU4C87JoxIsY442</t>
-  </si>
-  <si>
-    <t>$2a$10$FtnkJgcimn5nmh3oAWq0/eP4BoBKdpFLoWlrGb6BASQ73JMHERi.2</t>
-  </si>
-  <si>
-    <t>$2a$10$EwJI4L/R6vDKeGMn6qepbeej56j4pYvk3VP78OR9IqGWG4GbJgGPa</t>
-  </si>
-  <si>
-    <t>$2a$10$haenfWezPvMq5ZgUc/4HR.omiuo07KMJL9s9QzRiblHs/CKSoFyi2</t>
-  </si>
-  <si>
-    <t>$2a$10$luNy241ErG7Lbgd/CuXRwOb/xCJbSjv2iKDhewNhoCmtldWEruxxq</t>
-  </si>
-  <si>
-    <t>$2a$10$GMFyiKquLBiznZFfg.LtIeuPVVSondMgigs3S3jI/CLjNwkG/c03q</t>
-  </si>
-  <si>
-    <t>$2a$10$1Mlm4LrrtFJw55tpSqOvjOAznfgCA577Agld1z86qfQ6rO.lSpPOu</t>
-  </si>
-  <si>
-    <t>$2a$10$lAnknJAzOZBk8FRlUQI1EOUtwi3k5q5hgQymAhme9vX4vPEHaGmXe</t>
-  </si>
-  <si>
-    <t>$2a$10$KiKYPBTMbPQmjn04dpxB0.nOH9JIAD8CVzmg3zg3uV4DgJeivzAza</t>
-  </si>
-  <si>
-    <t>$2a$10$BgN4FKr1OXY0oSMtbRBUau4jy9OFVQSCtjQbrIWlJ7uMaCumlWweG</t>
-  </si>
-  <si>
-    <t>$2a$10$y8K4WKbll/IGZb300gCAsOqz.emiT3oEZn4qWgGFYKT.N2ehPu3f2</t>
-  </si>
-  <si>
-    <t>$2a$10$FLpsyhWL/9OT5wNKUGQbae9kQe0o1fc1wAc8wCmh4mfKR/df9nYp6</t>
-  </si>
-  <si>
-    <t>$2a$10$5I/yvs1VOT46chg.p9OQ9.Bo16x68gDa0WyaKQqEknvATuC/3PQ8i</t>
-  </si>
-  <si>
-    <t>$2a$10$lvCfZTGll8nTAjm7nVY.8up.i2XcHhlns8oqbNoCaXO5iXNyvV/q6</t>
-  </si>
-  <si>
-    <t>$2a$10$NHeWfgUkLFCbE6ty8Vm3Hu/EI/GX.PNI06/3h.qjqOmSIRL1FNTqu</t>
-  </si>
-  <si>
-    <t>$2a$10$NGsNniiiWRQ22Ww2tKfN5.0/fkfe3r2KxqVkAwGG/aY1TpnAGpKFC</t>
-  </si>
-  <si>
-    <t>$2a$10$zbyFlJBE/7E/4CEVgeks/u7q1ZrvDhCLW3insL7LgEa1MOjI6qJtG</t>
-  </si>
-  <si>
-    <t>$2a$10$5inHcrxArJpU1LgOkjc0he0B8reqQSJ4RMdU.vXVyuDqqc81g0JhO</t>
-  </si>
-  <si>
-    <t>$2a$10$PLlVvfpVoeh/yGQBKNz2v.XhijfF3O0VBZ9PUT9B1ee5iPPPQp6iq</t>
-  </si>
-  <si>
-    <t>$2a$10$V9EKqd335ZFz8N7D2ACHn.d6KVqoSJi5F6LQTVtMg6IIJba7LwczG</t>
-  </si>
-  <si>
-    <t>$2a$10$gzIs8f3BaZHHtT.cmxOk7OletuYHo2gJcUqU7afArXu5IL3xy2inS</t>
-  </si>
-  <si>
-    <t>$2a$10$TF/t3TNLpMtiKA6epzpFPeyNrLHPFz49Df1a30SAvfOYsZN4UB7Fu</t>
-  </si>
-  <si>
-    <t>$2a$10$NFKu.aDEA5SuTI7AaDe9i.t0TymFrP.Y9wbmEsv1z.2fu0seImDdi</t>
-  </si>
-  <si>
-    <t>$2a$10$JsE6oXm1gvJA1qQHfwTd1.aZpvVbRJITIHN4uYRcXfqUAlVOdFrca</t>
-  </si>
-  <si>
-    <t>$2a$10$WOtsrn4SST1SeNEYMdnRfudM88/jLgCYt3Npg2wH02257Qgowtwa.</t>
-  </si>
-  <si>
-    <t>$2a$10$rEpeNUH4HHhF3TMjReU/LOKnf47QlLuwa.XoVnJ4xwqMKrzF7xt0e</t>
-  </si>
-  <si>
-    <t>$2a$10$sRSnxmN4qicUDNIzOjAsb.LlVxXU1trW/XYnbqiSIvgQa8pX0kLDS</t>
-  </si>
-  <si>
-    <t>$2a$10$FSwOi3CpOp4YYQ6o75G26uAq4w/fBXrWhfrxe7ADcdw1Qf61mrsX6</t>
-  </si>
-  <si>
-    <t>$2a$10$OzaLNi1IY1HE1Y7DhlgQlOWa719W8T04Vv.bFfAgrWdgp.pvTUiju</t>
-  </si>
-  <si>
-    <t>$2a$10$Y6ciVn6QBCVytqKcXYrhL.We4qroD72sGU2F/QvxQZGpEaa8InGCi</t>
-  </si>
-  <si>
-    <t>$2a$10$t2m1NFBiofohbBdAoU3FduMo4uRXNTHtRME3k6XB6IuvcNraHo3kq</t>
-  </si>
-  <si>
-    <t>$2a$10$cyO1T4RcXHTPHgKB22H4XO289vuM5ZjAgC2x1BWsCB/HOzpEAG7E6</t>
-  </si>
-  <si>
-    <t>$2a$10$ZQSKiGFABUTsuiHM0f8cRebVVyUHQVx/KxGA26SPsC90r281ChXOG</t>
-  </si>
-  <si>
-    <t>$2a$10$xsnF4PPjuTPv8ADG.EfEx.KtCwUVCqZYxoZ3nS88MGnnXyf1ZYr2m</t>
-  </si>
-  <si>
-    <t>$2a$10$zZSNEV/JVUEJf.SY7muWXOPl69zVsvhiYIMAA.IdGvVnVmGi2JZNS</t>
-  </si>
-  <si>
-    <t>$2a$10$sUWNRYzdZg4piQNXy5rkI.EMrOk4XnsX5THwigZp0K3BtOJLdDQLi</t>
-  </si>
-  <si>
-    <t>$2a$10$eihInE0XRhmWfmFENgtid.Y3m7prpmVnwf3a1MVQWInzIYdEz4W8a</t>
-  </si>
-  <si>
-    <t>$2a$10$AfcvmcXJ/eSuOEeVj66apO1Fwv3FVBBfJD9lUEiOigLxEUC9shMym</t>
-  </si>
-  <si>
-    <t>$2a$10$iXk/lXbZDlE6WaN7tgBajO9kp0QjfEw0pt412cFgs7WWBr50glKJ2</t>
-  </si>
-  <si>
-    <t>$2a$10$ljhcSeL5h.EJDugzcVyXiu97E5VwB19SiiIJH3D8N0WP3M0AS98Gi</t>
-  </si>
-  <si>
-    <t>$2a$10$lmkcBx42eIP.c6dN41jtiO4/g7yLRsWi9KamjT13zbx6VsXsGcDSy</t>
-  </si>
-  <si>
-    <t>$2a$10$znZ.K21yqMPtCGl.cSYmSuNO8YiW8HaKOr/TrUOPjrbAU25gRTBKK</t>
-  </si>
-  <si>
-    <t>$2a$10$BQrDFiiex2PhQ2FG/Q83Dep3w3QWeaEw62Ri6Zln1QZgLqMyXrx8i</t>
-  </si>
-  <si>
-    <t>$2a$10$xpuAenpDR/MzaGtthi18s.A/L/ykWKWN3XDiANZRbHo3DtmW1NtFy</t>
-  </si>
-  <si>
-    <t>$2a$10$oIDi4lhnjhML.6M8OzHMjuSBTcOHu9y0riRPCpZCxYJdvurwJy1fq</t>
-  </si>
-  <si>
-    <t>$2a$10$q/9y4BDuMZB/iG2ox9vgKeAxcf26WCgaTzGzDf8WkqNWtqCx1mL9a</t>
-  </si>
-  <si>
-    <t>$2a$10$mmQLEnqlN54sOwjlmpcEdOuaDRxVVFzuEo514x3sZXGjt20efJhPK</t>
-  </si>
-  <si>
-    <t>$2a$10$oJv65Vt6eUid1.Q.aCzy8OHck75p6p8l6SSKTZBr6B0Hn71C0nXzm</t>
-  </si>
-  <si>
-    <t>$2a$10$n7H0iz1qNupDTPiflblLM.l8AGLlAXE.VtTnOnoCsmuoXUW9Zumjm</t>
-  </si>
-  <si>
-    <t>$2a$10$xpc7.PXJTbzAJI6Eu5luku5PeR6uQsiL1LOEO.A.LxrL9rMIT0Xd2</t>
-  </si>
-  <si>
-    <t>$2a$10$8E6jNHqdCRSy.oTxNFeDeumyseqCPydV9ZbW5pPocDBCjy013jM/q</t>
-  </si>
-  <si>
-    <t>$2a$10$NK79TmMz60kbvTqGWX4N5.mnzldtplEQkdTPi.uHF1uVTjjI2LmqW</t>
-  </si>
-  <si>
-    <t>$2a$10$9a20Gaz7Xo3HtOk6/S1Ws.SjNuGVuVhtvQMwEz7K2WZQoBlADAv7y</t>
-  </si>
-  <si>
-    <t>$2a$10$jh3qJ/6g5aID9J.IRFeCweDT7cef0Qg2EHuLIGGlKBixGo5Mul5D6</t>
-  </si>
-  <si>
-    <t>$2a$10$JgH6y5bpUjHGzgKCA/nJr.GuBYLN.QbXNxe62AMajjt2SGHCDqW4m</t>
-  </si>
-  <si>
-    <t>$2a$10$4/FvByQAGMtY6cRe19lE.eXwH5wmI4FJ1huTYXKUGCertdGR4xEk6</t>
-  </si>
-  <si>
-    <t>$2a$10$550bLXOYOaMFRbPDgSBFgumNCqC2KFzHhuyq6Os4DHQFrj/pYQAWK</t>
-  </si>
-  <si>
-    <t>$2a$10$oG0PcFJpm.JCvNWe7DzJSOy1Hkrsppnd4XYaA3zYrqPJjbn4C0tE6</t>
-  </si>
-  <si>
-    <t>$2a$10$CwmDzRq/2ZzCZhwaV4kmEeE9A1eDZv4hthEYgfcpZqTJB6ARdIJf.</t>
-  </si>
-  <si>
-    <t>$2a$10$YkA7KZrah0ydIBCqEiigce9yqjuWGFURW16nUo2KljR5GQmbCVxB6</t>
-  </si>
-  <si>
-    <t>$2a$10$2UrlgQX7yqcWPaPkguIFEOjIU6PeTcLHW9eg5f2vMYC7VjeBc3FiK</t>
-  </si>
-  <si>
-    <t>$2a$10$9Bzc/3l4kuSUaNqLfxKuqeaqQZSLDC5almbcapHjTmUqmHh1bLvcm</t>
-  </si>
-  <si>
-    <t>$2a$10$f53L3tF59TorxN8QtClqM.NRaXIAQekQ5ROTEX58dKzCfJqe4xXBK</t>
-  </si>
-  <si>
-    <t>$2a$10$4KP25lGuiSH5HzCpfdTjfeinTsuG5ynhv27FDNJJxUNrLf4p.by5O</t>
-  </si>
-  <si>
-    <t>$2a$10$p0TSAEhgQ/97izv97eTZs.cTHxA5mcMsFXcIY1Xq/cV9O/Tp5bkYO</t>
-  </si>
-  <si>
-    <t>$2a$10$xdGKy1wjaxlRFf6zAWBj1uyTCWPL3Gs.F1FfULi.PHxHrFjhBSqDK</t>
-  </si>
-  <si>
-    <t>$2a$10$yyaxQ3ucGfDZvGuD.WDwterhZjdzsE7I/ZlnfdLYyWNgb2kdfKO3i</t>
-  </si>
-  <si>
-    <t>$2a$10$VHZxMNrRQe92Wy2v.LVmLuIO0ml4DPSu5bfamf66AFsf.zDePRBZi</t>
-  </si>
-  <si>
-    <t>$2a$10$z11eXexZ72JBEVy4zB/TLezz1c2jzYwgdeFf0nzZWwLM6WzfaUIPi</t>
-  </si>
-  <si>
-    <t>$2a$10$YATkoYi8MJH9zUK8hv0oIOadvEkVzdOR.PVBuw8KbzevSmF6i1lVK</t>
-  </si>
-  <si>
-    <t>$2a$10$WZt0Ru2dDH00XPuAwoBr7uOKW4.QnHroUhVKd/88YPDQqpy6FP9/2</t>
-  </si>
-  <si>
-    <t>$2a$10$OBvN0PMnvlq089xkXp9KHOQu0uBLtnvtrUCZW2vrymYOEwlrVXVN2</t>
-  </si>
-  <si>
-    <t>$2a$10$LudnPE3sotbQeh32iTlKCeXkD2qyEdVWM8GUMeo.82Ix/HiP.qA7i</t>
-  </si>
-  <si>
-    <t>$2a$10$1s1tpiJ48HvR91SOWvFpJeTR6XWtcAmgSOwXVEJ5LUil/al0.Amm2</t>
-  </si>
-  <si>
-    <t>$2a$10$UHhlxtocP4dQy4ZaZB.PGe7MmdbNJQAbDjGqT/MP5rcDcwpEd.9a2</t>
-  </si>
-  <si>
-    <t>$2a$10$gt2ByjjMrH2UwP4dMhDu3OV.0eB.SaFNqbw0iQTa.JnlGGcUMChQy</t>
-  </si>
-  <si>
-    <t>$2a$10$N33JzvnZQ1m24BYsi.fpSuGxsP8jB2.XMoKrQMMFsf7FLCBbfACBy</t>
-  </si>
-  <si>
-    <t>$2a$10$uTogWmS./bpaNCEwiZKFnulR.twIEgW8F9wW3AoWbdsmNXcA23waK</t>
-  </si>
-  <si>
-    <t>$2a$10$hT1gJRKkYJPPp2n9Gq3V..k5xUNRHyHN8ikSd1dRoFz0R1FavUGx.</t>
-  </si>
-  <si>
-    <t>$2a$10$VKBra4R19XTYfuR0Erx.6ewSehHJpRTw0UQKbmkhOwnohYJEYJtpu</t>
-  </si>
-  <si>
-    <t>$2a$10$LKHFM/4q9ep8b4v6fbHcpe/dUQl2it5OMIAe8rJuBhsyKmZV1ckGa</t>
-  </si>
-  <si>
-    <t>$2a$10$PorU/7/ECLmo73WnoxaJT.4gDcND57e5M4WojDXzbrznxmDJ46bsy</t>
-  </si>
-  <si>
-    <t>$2a$10$JQCr4qIRKk/nN8ozm4AiR.qROQ7hoC/F67QlE59we4vfD9caFaXk2</t>
-  </si>
-  <si>
-    <t>$2a$10$odjCVsuTJijusAv8lQmefORY0SLUVCq6ldqp5/furcAiEXYHS4wfW</t>
-  </si>
-  <si>
-    <t>$2a$10$qZdEvBjHnhKx.bsDbQWPz.YoNZHyHDXRhArl.xC05KxolgqzZPIi2</t>
-  </si>
-  <si>
-    <t>$2a$10$RO.AI.N2U7R1fb6Cx/KLMOa5URuImdKA7Gaw/Eq9UjtTvG/In8X6e</t>
-  </si>
-  <si>
-    <t>$2a$10$FZTt.imYkLf1ZfVm4sXgxONA5mbhNQpbDLqHUhKlV99Zy/vCCSt7G</t>
-  </si>
-  <si>
-    <t>$2a$10$3hmY3SKXBplPF1az9OnTH.wi/39ctpwdmXDHmw4f04MN8SB.3HAya</t>
-  </si>
-  <si>
-    <t>$2a$10$BhK5DkRTnFIczpDmVZQb6OmUqGqyWSHfOBKAOTUsCJXUQI/cCxMNG</t>
-  </si>
-  <si>
-    <t>$2a$10$Y6t12fOZyVwZ4TJL.FUXnOHn8LDPwpmlOaWRBM/NxiL4CjcjShGy6</t>
-  </si>
-  <si>
-    <t>$2a$10$ICbOkoZOeCahJmob4ZGIhO3iSWj4IgvBIcfDH8GlQTgkTO7.dMHSS</t>
-  </si>
-  <si>
-    <t>$2a$10$iEPL1G7S1G9CUryzKnu0Ru9KpGWav0z0WCkoXLUMFn.qEFlRyqOdq</t>
-  </si>
-  <si>
-    <t>$2a$10$PsS5jG5U/yB99lEZuwl2P.Dz5HRuQTRzwWBS2Zu7.W9yZsDbJcNNW</t>
-  </si>
-  <si>
-    <t>$2a$10$2TWO7MKJFdPtOn4kVDZq/uynKP8wZ.WS93BoQW7wYfqpZgb.nwda.</t>
-  </si>
-  <si>
-    <t>$2a$10$idW8GYgJh/uE0P5XJEwunOlm/9LHNBB.I1QZpvS/i3dXq2JkDDClO</t>
-  </si>
-  <si>
-    <t>$2a$10$agBqn7OMJQWkKId67BiAkewGwWpwgjERzrm9/3So.41gtUe3kCh/q</t>
-  </si>
-  <si>
-    <t>$2a$10$dPITxvNPXXofgj/5gYr3luZkhTP.QoGc2YDzXL7uU/qGlp/9Lu3gW</t>
-  </si>
-  <si>
-    <t>$2a$10$yshE00Gk7KTx2pMzgmzNBOgCCZDCg5Qr2jOn3GYygyzgcBmXJVE1q</t>
-  </si>
-  <si>
-    <t>$2a$10$cxA7Z69SgZ2VCPIX69c7yeEKmY05az5d3pyozsEe8cbQiCTWOlDf.</t>
-  </si>
-  <si>
-    <t>$2a$10$0yZz/4wwc7TQCXIi12fBTuGFZF21.jFOVfa.ct7NflCX3HMg.Dyz.</t>
-  </si>
-  <si>
-    <t>$2a$10$m2dfl93eknGO/FffIWbQYO/nNsBubYWu4nuuT4/AcIrBgd3uMtxTW</t>
-  </si>
-  <si>
-    <t>$2a$10$QFRzyYApz/NUN1cgFwrYOer/nscfR7Z7q.HP8WvNQi8ARWWCFYgk6</t>
-  </si>
-  <si>
-    <t>$2a$10$Ig7MB1rDw3DR3XLAd36eE..t2VREXehPutDo.6rO8ZMtKmGeCNKzC</t>
-  </si>
-  <si>
-    <t>$2a$10$Lz2f6R7RX3/5eN/bV9El7eIeZC80oqzR8L7pinGeA8T4otaQKiR0C</t>
-  </si>
-  <si>
-    <t>$2a$10$SVVxz4dZlpuZg3ClwU3ASOynPfNxnC8WPTZKw2sQan35POXNDeH/G</t>
-  </si>
-  <si>
-    <t>$2a$10$NlHWK6FDX.2dTEKDwgQj8.AeQlOjxknkBUt8LioJ9YE6CUZ/YE0Ei</t>
-  </si>
-  <si>
-    <t>$2a$10$i2RiQudeUmNfpqwf9Ze6pu7vjq1gRYxTA.MruFKeIPxpNT4eHaQ9q</t>
-  </si>
-  <si>
-    <t>$2a$10$Jd6QvcFbEKylHICQVu.ljeFJDsh1bRg7BKAPNh9DjnBwqZ5rgGWbG</t>
-  </si>
-  <si>
-    <t>$2a$10$H0y6an8mSly1.MnwBinM4uKGgCIraFOm7Rj9G8Fnmhh.1bY33CuxS</t>
-  </si>
-  <si>
-    <t>$2a$10$PHOqSsLEXy6U963/vT41EuDt9BhoLwTJvNlOgjFsDTc9KYPTSzrlS</t>
-  </si>
-  <si>
-    <t>$2a$10$Y5vndlmk8FOQEwi8NUH0Zeq141eGYGk8bjsGl4jyB3YpeDGKiF/6u</t>
-  </si>
-  <si>
-    <t>$2a$10$ipoMNobyuwjBH1z2QyL/Ce0BulKrcy8Uz7ouq0EReVTuF8y8OPq7S</t>
-  </si>
-  <si>
-    <t>$2a$10$4cixEGZdgSabUbV2S9Fpn.k3oueSZGoUqNnt2.cn69GZZU0xwkOmy</t>
-  </si>
-  <si>
-    <t>$2a$10$COshpHep7Te9uvCE5KRQqeT0gsmHxQwOrhFgexea6Cv5oQZx10JHS</t>
-  </si>
-  <si>
-    <t>$2a$10$A/YZKNg5K/o0SWKYObM9Pum5UhpY3v9LQIC00vlz.hmvhRIO3juX2</t>
-  </si>
-  <si>
-    <t>$2a$10$yXk2Ka2jDKoTw/vZG2Ze/.Iiz2ohG1nzUehM7XOqytZ9ksNBVtAR.</t>
-  </si>
-  <si>
-    <t>$2a$10$FqmgEtmWH07AOHD3hGyV5ePYBRrCDKcBTSqQeEoE7S1XWXgp.zV.C</t>
-  </si>
-  <si>
-    <t>$2a$10$wAzubC05y2B8qb5wftj.POUZhYawi2EEAe/dUviNlyUi48UlXO3ku</t>
-  </si>
-  <si>
-    <t>$2a$10$VPSLpFgl5DPHqZXIpDwBPesU6c2/.IVAvtFmI2lbM6dozVBjXhlnK</t>
-  </si>
-  <si>
-    <t>$2a$10$PN9OBjnkcgr7jVzJAtzHTeqVMaT8Tf.6a5Y1DNNFkQZtacOaswj4a</t>
-  </si>
-  <si>
-    <t>$2a$10$tMpDL9WTeXv08obTQqlHNeAjDYw6MC/DIxxi.A6Vu.cisFHFuYsHS</t>
-  </si>
-  <si>
-    <t>$2a$10$M4HZoAWc3nD2Fp.obvjPgOlNOdm/qvtC.CEoCrMCCaW5QRDDmNPpm</t>
-  </si>
-  <si>
-    <t>$2a$10$Nlpm8n6ZERPFoimWHmfN3.VvzYFFtPoPBhfHb8s6rfQlvjhWfwjjS</t>
-  </si>
-  <si>
-    <t>$2a$10$Yot/H6O5uXXWJzOdBlcaOuFoKd.ObB/P4pjAS9iQupvCBY2VwSHDS</t>
-  </si>
-  <si>
-    <t>$2a$10$rcC4bz79xf8GqjXGXNikSegUM7Pyy4NsXfY/IMpajKPIQFrT078kG</t>
-  </si>
-  <si>
-    <t>$2a$10$oEtL3nhP9I0/IoHktU1Fs.QIk6J32OHn4zMRmHogFga.nnW0rVkPe</t>
-  </si>
-  <si>
-    <t>$2a$10$T7iqIaFWhtWqTuEuCh1s0Oi5JwGosfboTDLl5nKZPKsL9uH1.yZtq</t>
-  </si>
-  <si>
-    <t>$2a$10$2jYLJ.GnPbjH5clfD7yI4ep2s/IpV8OSO4QEdRG/BsileJLyXte6q</t>
-  </si>
-  <si>
-    <t>$2a$10$on4bINdAo1DlsewOHDkSbuUak5OveqBEczAlMa15mkxM9F4omBJve</t>
-  </si>
-  <si>
-    <t>$2a$10$oDLm1UUxNh8kBAXuNU46lOHSOeBSbfjvaAq0Txh05DE6RN/tTJuji</t>
-  </si>
-  <si>
-    <t>$2a$10$gA/llNIPErNY9X6ngw.vN.H8HdLEh3Ra.sBcZEc30zm0zKEi5Ne4G</t>
-  </si>
-  <si>
-    <t>$2a$10$6f6P6JaRKaPKaDcqgUZZS.ot6ozZ6ncO7sW6HbVCZWRM4gSXo5XKS</t>
-  </si>
-  <si>
-    <t>$2a$10$6gq75n/eKSd1A8uFs6V2EeY4WWejSTjfn.pHGoyAyF3PvolDBKseK</t>
-  </si>
-  <si>
-    <t>$2a$10$Vj6rHkQ1zV57GvVNgzbgnOPmantln0aVr5jcESwOz2y9/N0dX8biq</t>
-  </si>
-  <si>
-    <t>$2a$10$wekO0FnJGqRyofpUoA3KwOidLuW5d4FfJPLIMyYZPY3U2ZJLPqJ2q</t>
-  </si>
-  <si>
-    <t>$2a$10$Dg/y8J.B0fVORheOiEdsWeGMGct2.Wf3AP/J4TOWCrPpwIqNyAN7a</t>
-  </si>
-  <si>
-    <t>$2a$10$YFPkLdtdRQuO6NXnXlCoYOvIlvtT/315MOh9daFayuJIjKAfq.1da</t>
-  </si>
-  <si>
-    <t>$2a$10$da/nEWlgjSyiOtKF4WrzSua2r1y47VX3KFdKA3pf9DJ0kpJKRWTT2</t>
-  </si>
-  <si>
-    <t>$2a$10$6YM/YC3ggblz4ws7h/zq5OkJU7Q4F0QG3uh72iDbAg3mxZwQjpKiW</t>
-  </si>
-  <si>
-    <t>$2a$10$h3pY6sQC2kNSWSNlqWtX7OYqyo/BfxMGiqeWMHjogseH0ummLxdGy</t>
-  </si>
-  <si>
-    <t>$2a$10$nVz6fDJ9YhS/5wP.i5nDD.LqV8cMsmHjb3M4uRTG50lJ.C5FMLnOO</t>
-  </si>
-  <si>
-    <t>$2a$10$ewl576vO9I3yNztA9ZGZveTJF2UCY3lJ10CKO/pOgEHJBojQFQc1O</t>
-  </si>
-  <si>
-    <t>$2a$10$GkYj/.x7rG3rTgktBe9vsuvsjgmu1HWwtnkO36aiVAzZzr/fTgOvm</t>
-  </si>
-  <si>
-    <t>$2a$10$CWxHmKQcsut0Fc38x4q0q.T6kC25Yfm2W8Pyuk/gCyGw1CBefI9kW</t>
-  </si>
-  <si>
-    <t>$2a$10$ociWa.Z3XfjNBTgcEe0hpupaFtsJRoct5wYLWbRrPk9JkaQu1rS8S</t>
-  </si>
-  <si>
-    <t>$2a$10$axE/dfF6.xSqRnB5ukgJtukO9Ls1.6hdq3trE7fKSmySIVbZzmBNy</t>
-  </si>
-  <si>
-    <t>$2a$10$IiDUoA9.h/WY0gV89roXY.msabVQ1ZznudEz2sQ7/pOxcuGdpv12e</t>
-  </si>
-  <si>
-    <t>$2a$10$I3UfohimdYB1S/RE9hpeouBo.U05nadOr89EPMebZw0G1ZHX9mhrW</t>
-  </si>
-  <si>
-    <t>$2a$10$ddtXNFchKiOq1nolkpwFP.FcLNWiDfukVpuj/FmnJ0HskzYUuwxUG</t>
-  </si>
-  <si>
-    <t>$2a$10$AmEt6fHcN2bF4zUKmG2qkO048TEKd8WEOM0wmM.maMIgQYmakBwxW</t>
-  </si>
-  <si>
-    <t>$2a$10$WJJCBRa6cgKSNGVmXeDJWuQGXl5V2Xbp3ZXndB/h4oUDvISXxgr0u</t>
-  </si>
-  <si>
-    <t>$2a$10$n0GsGflaWKfNoE2Cn51esu70A/1rxTt3vNZ74E4gNMHqV.LYThItu</t>
-  </si>
-  <si>
-    <t>$2a$10$2FVnsfwUL8H1H0cqt87aCunZiKA9vsrFY9x7JZDEDFQalI.PdehrG</t>
-  </si>
-  <si>
-    <t>$2a$10$Y73N52e7QdpUGxG3d4HeMO7KXvH.3EsmQR5FZoyYPneWRTUWfT6Hm</t>
-  </si>
-  <si>
-    <t>$2a$10$8RBYrN0HuPyaWjEw70XoBOSO6wpjIbi7VoiAsdq7j0k90s0UZIJg.</t>
-  </si>
-  <si>
-    <t>$2a$10$N0AaKFUyk8aKtAde0E1OAu0Io9FvAR9pbHittF8Ib59iUVOw/G./6</t>
-  </si>
-  <si>
-    <t>$2a$10$OqZeToCuyCZVFjtfxe0GxOCupClqZ37xBa93H5G5I/6Gx4a1C4xLy</t>
-  </si>
-  <si>
-    <t>$2a$10$F2YbqBVS/8xm82FfVQVTv.hAAjlz4Vq3hfa4CYWE9Sk/2j41qsqhm</t>
-  </si>
-  <si>
-    <t>$2a$10$g1BbSUsQhyRZU2jZMyCrIO8GBq0C5VdvweLY8kiAj7tGJ1LFTm4XO</t>
-  </si>
-  <si>
-    <t>$2a$10$Q2CEx7lY/V1MrMLqPptYdeHr2xCvx5IlxqkD.3QxHIXQcBDB/KdwK</t>
-  </si>
-  <si>
-    <t>$2a$10$d2LT3a1.RzcsgLuMtkHxnek5ux9KvEBYlf3P9xVGgK9CbToThj1P.</t>
-  </si>
-  <si>
-    <t>$2a$10$1FZPcOaY7cTKRjneDJr8L.0jcXuy3PC4JbNtRdg3OoVOOoRLSs9HG</t>
-  </si>
-  <si>
-    <t>$2a$10$xZlC57qbYDVTVNKb7kjD2urk0UJeB4X38u5j.ogHMjTaovjpbBJ2O</t>
-  </si>
-  <si>
-    <t>$2a$10$BJqwFEhc0Tx7w5PZLPnGZu4X9Hggpro0rYW063gUDlBph9nwiUPF6</t>
-  </si>
-  <si>
-    <t>$2a$10$3wGFaSSI1lZqalTUGXDaCei/btbsZfTqgsVrnIKquTHUs/1RRelz6</t>
-  </si>
-  <si>
-    <t>$2a$10$Prhnj7OEAxUqvqZnDdju/unMmH0qHzoKWqwOba7NX5hhJNi9jt0vW</t>
-  </si>
-  <si>
-    <t>$2a$10$ZEvDq.12ID5EJdLggaf/zOTdZbiAuYMA9Ir5IOvu0uqthIPA8dHfK</t>
-  </si>
-  <si>
-    <t>$2a$10$j9UQEvL.CWud9OTNjCZh4uKemY3TqxByoAN5COpSUAZJjTqs5ndVi</t>
-  </si>
-  <si>
-    <t>$2a$10$5kXorW90CKGpmc7pCfDSs.PTJ4PiTMUGz1E.6r3gQXLIYI040ePHq</t>
-  </si>
-  <si>
-    <t>$2a$10$Du9mWFBoX392Gu04kvUdV.o.S33yOyKVBlJ64LVkmQlCCuAuSIlKS</t>
-  </si>
-  <si>
-    <t>$2a$10$XYI.B3Bspp5.SkQ4Vb.c2.MXvKKB4cqLJ13lzsB2nCfOjWXwaAr2m</t>
-  </si>
-  <si>
-    <t>$2a$10$9BXlA9yl2ZaSwGmNbSApV.xrGWyXdvk6maQY4K/kqU2XptBylMVZS</t>
-  </si>
-  <si>
-    <t>$2a$10$nd6ytyX0xOP74Lupq5SYFuUqXle9Kx8KrqWxuooOKq2.0yPcFwnem</t>
-  </si>
-  <si>
-    <t>$2a$10$WxEplwg5QUN0OT1WoimLBOWHeM0fgPGJeDahlrcMqZZaxKAf.aDpu</t>
-  </si>
-  <si>
-    <t>$2a$10$Y6YFD8zdiDTQiixFstVAZ.AMqiKep7BbTo8fiF5ILluTpg10Rm/Ha</t>
-  </si>
-  <si>
-    <t>$2a$10$evQeubucbXoKLsW/39dzqO/XFYemYSa44MOd572RV00fwmpacQ4PC</t>
+    <t>$2a$10$g6YBqbGvpcsKiF6uxS8gQ.VcMQcaC/GKbAyQyYKsWJ9Ji.QGdUz.q</t>
+  </si>
+  <si>
+    <t>$2a$10$exIeRb.WXqz/hXv22iBJx.ZF7.5/AHQdLVWXqVlVqasrR4Kba3Bfu</t>
+  </si>
+  <si>
+    <t>$2a$10$Q5pUKOMLLv3aic3mBSYUf.BigZnOIBGhKPAj.gsA3NsdSgFaohcD2</t>
+  </si>
+  <si>
+    <t>$2a$10$JCx/bAHpFZARIdvISDbcP.W9q9Jy0DYZgjWxNykk1n8nvmJOdQqMC</t>
+  </si>
+  <si>
+    <t>$2a$10$lCltPKbAYfDWwxdCUKFi8uaI/TNYgr6wQF5G7VKxgeTg4Vk79oMu.</t>
+  </si>
+  <si>
+    <t>$2a$10$ZR2ig9t5x5b0TECC8PqVPehn6YcFXlE5G80ByCSec.VKfYw2g9ts2</t>
+  </si>
+  <si>
+    <t>$2a$10$mvyfSICYgZMRKJ3uJkrxXuLqW9IytSSv31GoCWU91D54dktdpAZyK</t>
+  </si>
+  <si>
+    <t>$2a$10$7yVOk3Y3XxqjJEuKchUoQeqmMsR2B8vy0MpvXtWJ0jdgh2Y6MQBYG</t>
+  </si>
+  <si>
+    <t>$2a$10$fR0.cja5ldYwJQX2NOUvUuocSUdQaHUZ4M6pHLQeW0aera7m.T6sK</t>
+  </si>
+  <si>
+    <t>$2a$10$mR2CegUtmpgs73XVcTffD.0U7nxeNt.PqDgtM3xwhwhp5FWUbgTg.</t>
+  </si>
+  <si>
+    <t>$2a$10$tZ7NwaajaM0Lj4ZOs2mEeOoX2SXCoXoTOFPL8TMMOxhK/f98qqR1G</t>
+  </si>
+  <si>
+    <t>$2a$10$pE7.TYe31GJegRtfcNfJEuAD08LNjkZzxc5HKh3zD6mtNTFPdOVTK</t>
+  </si>
+  <si>
+    <t>$2a$10$azpR/hk3wzoeJbyGEcQSwOW.bTnGWcfbyWXPj923X8klSXidQlTE6</t>
+  </si>
+  <si>
+    <t>$2a$10$XM8cjCA1nR.QWWSRE/8htOBF3S2T/ISxA.Vs2ncBb9BTIGyG1KzMK</t>
+  </si>
+  <si>
+    <t>$2a$10$093TuiOKoNGskJIPXlKfwOVKf./CXpkkSkdadKYCTl26nQkG.dWhy</t>
+  </si>
+  <si>
+    <t>$2a$10$bqF.i24iOZ.OEKd6agTl8uyMygkRkFUAneO0Lq96Ft6FuOr9bdu0m</t>
+  </si>
+  <si>
+    <t>$2a$10$MBiJHeExEMun9PMhQyh6ueR6HYkoHoHLmtcjYX3ZX/FdWJ6jqBAf.</t>
+  </si>
+  <si>
+    <t>$2a$10$CoyZnOyt0SRrkXihuTxBtu.iF3NLD1V7/mf8KeiaIeaO7lCswKi5O</t>
+  </si>
+  <si>
+    <t>$2a$10$4Dj2RoCRndnheishDDgGQunmx8M5iN.3Ve5bCgys53bIbkZi6iR/.</t>
+  </si>
+  <si>
+    <t>$2a$10$lfPELgDiZWeyKyRDU3f0seSdgqIfvHOOPSwenC5Q7ZC2bDsRaIzMe</t>
+  </si>
+  <si>
+    <t>$2a$10$yqTH6cCcvUviL4A/uYoNS.4sdT9psMUxprs3oDLRa9UNAraWVCSSC</t>
+  </si>
+  <si>
+    <t>$2a$10$OTZ31Q.hLggI7ZTPERyH.e08M/1A.FPtF7jnxX2WrVEE.v3HIpYHi</t>
+  </si>
+  <si>
+    <t>$2a$10$wbyMu6.PxnWxVpDdzWjzd.KED5bqDT8fJYiJdSoKI.Pfn1yCGB54K</t>
+  </si>
+  <si>
+    <t>$2a$10$sf9UCcKGdaiaciR5YRlr7uxsmZMydQZiwFv4ahrpM82LGpCm5RSJO</t>
+  </si>
+  <si>
+    <t>$2a$10$Fu/l5cshTMQzAQwj4D8sL.F2Buwgc2StXA3Raoa319DS1vs99Azzy</t>
+  </si>
+  <si>
+    <t>$2a$10$Ac6WGvmJrmkrhva73NvJ6.DNxA/NQi2OLW73RPGTFK/8hn.wyiRUC</t>
+  </si>
+  <si>
+    <t>$2a$10$aHMhChKUqYzbqQG5lz4VyejiwEx8n59Q7vLhOcCW7Rx8oVM/xAycq</t>
+  </si>
+  <si>
+    <t>$2a$10$MBAIyF4ChmBNSE6SqUdtZevaYy/LSXzgjfxCcmbjWmOX9lrKVPsUm</t>
+  </si>
+  <si>
+    <t>$2a$10$WJqkoBP0Iz37G3Zc8jxoLehtLFRHRwpR.4JnBuXsAccxsJIw92eIe</t>
+  </si>
+  <si>
+    <t>$2a$10$6zaOL.hhXv5xwVl.p/DAw.fjng26KfOmZBbqdhacsZIf7n6uY.F5W</t>
+  </si>
+  <si>
+    <t>$2a$10$2oL215thaXrlevYLKP.z8eZpGvBEW/zIDRGGlWJfF2kByZwG7i8yG</t>
+  </si>
+  <si>
+    <t>$2a$10$X53gY6D7NBN4zT/0hEUfS.5BPRNvTFeCgPivhO0fSnhwjEh.zskFa</t>
+  </si>
+  <si>
+    <t>$2a$10$DTqs.sN85VbuRxjjU1FXseONJoh4GpMFGAQnvE0Nibqn.IOez9NSa</t>
+  </si>
+  <si>
+    <t>$2a$10$XucEhoqgoUGk5btx1XXjcuND8XcyKL2LhVCV7F2pvm45qgxxGTyKG</t>
+  </si>
+  <si>
+    <t>$2a$10$VLOmf./Qe4QpCGkJDakZgOj4HvvlrEn5rkjceugoFMlq4I1LGj11e</t>
+  </si>
+  <si>
+    <t>$2a$10$43GihXLp7WaUfc4HOzsrbO78286Pgbs7FvbIQj9VJFmyoN6KWooQO</t>
+  </si>
+  <si>
+    <t>$2a$10$kfGJTcv79u7pbOkr0YFdSOQtC5reFQZrVLLgHBg5B/YfCyH4CU9Ru</t>
+  </si>
+  <si>
+    <t>$2a$10$nnMzCtd3LYmFBgtxOvLfu.upqYP970GllFQ7aaRAfNWudQUNB4X2W</t>
+  </si>
+  <si>
+    <t>$2a$10$9eVPviwJGbqDkrpLPw9XKey0bpbvPZwLMYoimI4KHpWW1UXutkmWa</t>
+  </si>
+  <si>
+    <t>$2a$10$NjwdsuteM0F7BcvpNcXuL.rNUqubIYyNkWKb2vS8wosESdd.kSofW</t>
+  </si>
+  <si>
+    <t>$2a$10$hU80/VmfXvEvHCli5Hz/museVkAhRuvlCv1aFbYOgNL75f/7pbrGi</t>
+  </si>
+  <si>
+    <t>$2a$10$No0OxwvhVCc7DPMbnyUp9ep0W3tLm42E6Rv.jig/zSH8PZYD6LikO</t>
+  </si>
+  <si>
+    <t>$2a$10$r8/KfFRzjj9oMlZVuDLbnOM/k4uF945KCoiIUDwfnW3SnqKoVeO5S</t>
+  </si>
+  <si>
+    <t>$2a$10$2ZeNkidDrzAmUHMvz9vO7uLmJMN1Yuqw7L3PswlbgiUYztqqmOC6G</t>
+  </si>
+  <si>
+    <t>$2a$10$tu.2aSRiyij4nD94gRYjIuwnHde0svRyWZTpJvNpGTE7nmqCQZsie</t>
+  </si>
+  <si>
+    <t>$2a$10$D.f5BOYScmCJjzqBUGr4cuJ1bOMItye5kfvtL3WdFyDj.8.vrTSHW</t>
+  </si>
+  <si>
+    <t>$2a$10$wHzxsHyppWxmynnvO9V9oOaNJve8FuUCCg3pgYCT.sNIyBwm8iWAS</t>
+  </si>
+  <si>
+    <t>$2a$10$am9ZVPSkJyzqOu1ytSnjq.sbFR5/hvYS1reZQwcOdkgW5/TZ/qMMa</t>
+  </si>
+  <si>
+    <t>$2a$10$dDF6GMkBsAO5r11cuiuWpe.LYuPzkfqKIctD5K8r5xJjfp21lYUoS</t>
+  </si>
+  <si>
+    <t>$2a$10$zC2fX.ogU5z/oTAyTde4o..n9aKtsr7Xe5EWz/N1nPT91vq0tGG.q</t>
+  </si>
+  <si>
+    <t>$2a$10$EAuoangcQOVO78gsHBZsw.R/djLZcWmYnS6nJL3K8tHOCI2hSRj2a</t>
+  </si>
+  <si>
+    <t>$2a$10$h/WpiqFqFkOuV0obecyLV.B4mqvEJ7scQ989QXp6XDzN0mcM3dQu6</t>
+  </si>
+  <si>
+    <t>$2a$10$Fz9PD8fH1Eh7rMUH043L2ODbxD5Y48pPiG3F4kF6I02XD.pm9RJiK</t>
+  </si>
+  <si>
+    <t>$2a$10$1PXLuNH9eIQhHlN2golPf.8YU.RdLDIYOGIdhHzcceaqcwKwyZKTi</t>
+  </si>
+  <si>
+    <t>$2a$10$det2/Ykq..tkAB.E5qjPyuO81xuGANBtcRQLh4mVvnKQfYsrhK7iW</t>
+  </si>
+  <si>
+    <t>$2a$10$21PuecU57N.RFaWn7AAC5eRbqfW9uSOPBkb2NPuE1SFB8TGVv48G2</t>
+  </si>
+  <si>
+    <t>$2a$10$/BK9zqUX2vjOwn3JC6DxteyuGi4gxcn0fvG22.lgOljQy/6423e5q</t>
+  </si>
+  <si>
+    <t>$2a$10$Y78oL8LNt.Jn4FUa7dzdFu2d7j47fx9EXZx6I7gSFppv2X42UJKvq</t>
+  </si>
+  <si>
+    <t>$2a$10$Nz8YLXiZ/vC9GhPvmyibCeFo3UG2Q5BCS9ciGsTDuWv22IixdkuW2</t>
+  </si>
+  <si>
+    <t>$2a$10$jwbvLiib.1yWVu6GzzG4vu9LWKmSZNEaWJxGDHT42GinpLWiEOf.u</t>
+  </si>
+  <si>
+    <t>$2a$10$CNdKWyYao2HwQTSC6H7lM.RMuo8QbIieNQI8m0gU6z3zGOWOKZeke</t>
+  </si>
+  <si>
+    <t>$2a$10$whAjz4rn0iOopmfsJkH8gOlOI29.xhzwocNKggOxEzDg2bBDQ1GAG</t>
+  </si>
+  <si>
+    <t>$2a$10$SMQlJ2IhNudJURc.1pved.wnnjVXSJUhCtxjSoTHq0QHe4ihXZztm</t>
+  </si>
+  <si>
+    <t>$2a$10$RMLtmLXYxJ5zx0bqy0ZLCOQdq3tqRfK8hHJNPCl2EXLz73BxH226i</t>
+  </si>
+  <si>
+    <t>$2a$10$OjlR704Kk868ULMM3wELhejS3W6D1a76qM5.ia02hF/avcsQ6/kWe</t>
+  </si>
+  <si>
+    <t>$2a$10$2Xz9LYApm16Y9q7TwtJFEOe.TzEXuYOMj4Rrsnoh1Enoc1cf79LGm</t>
+  </si>
+  <si>
+    <t>$2a$10$H2uCftXWUakqV5FLSJoHeeeL/rdeZP3Xw3CxVz1v1lHI9spg0Fh3i</t>
+  </si>
+  <si>
+    <t>$2a$10$m6IvDgw6tkpHNLj8RZStCucZecbxJQplJRmPR9EF7ChBBt3ugxKKW</t>
+  </si>
+  <si>
+    <t>$2a$10$FKesb77T9OWJkv.iCvB5Bu3ZIenjCGHiMtuQE3JuitoOriXWCaJCC</t>
+  </si>
+  <si>
+    <t>$2a$10$v0tk/XJICtMUkkQ3UazDP.8cDwUlGgd0rFLaLXOKbDq9GLGSAqUSW</t>
+  </si>
+  <si>
+    <t>$2a$10$fQ5Aqf5G38P4OFDB38NY3./LWgKtkM73jIP/2hQ/FlgVTn1tAcNYm</t>
+  </si>
+  <si>
+    <t>$2a$10$J3rKiMaTUkM6HrNfFjflhuBGmHZHbUSmdDIFSU13c.cTNG4mqOUmm</t>
+  </si>
+  <si>
+    <t>$2a$10$lenMSxtWABMqz6PEa6YUP.2fF.oyVYtNtMJ.5Oo0rO.smL70QHAj6</t>
+  </si>
+  <si>
+    <t>$2a$10$7wrjUCPWWndqhe9AVbDK2OfPw.qfY6F4.fOht66zlgzXdTtqJZEzK</t>
+  </si>
+  <si>
+    <t>$2a$10$g7bL2dZsI0ooDQJqMms.s.hb1qS60H2JuEuhgJ5zYDWiNeq3/BPyy</t>
+  </si>
+  <si>
+    <t>$2a$10$uxl59vHO1H5Yj7wMxL5HIOWzlvFpRZeTGIO6gXMzXYcifJ3xh4i6a</t>
+  </si>
+  <si>
+    <t>$2a$10$cqFDVW9igrn5hU49HsUg/exOgHoYUXszNgcFJGXEWWuTVl3zaQASi</t>
+  </si>
+  <si>
+    <t>$2a$10$rbMLfUsjZupQHu1EewtznOPzWGPK7wSpOv9HNMXy6YE0uiKdZToqS</t>
+  </si>
+  <si>
+    <t>$2a$10$peVN0Dl4Wo9yI3oll54rge3edGL/TTP.6JWFB.ep2S.tScVKmZJYy</t>
+  </si>
+  <si>
+    <t>$2a$10$60nZhIR5eMtQsxxaLKHfH.m6cBghSEJH9V4ulGPZpbQfQJRrJf3qu</t>
+  </si>
+  <si>
+    <t>$2a$10$.G7FxJt/GSiTX9rTfaqfuOjqwC47GjwBgQG2H8vccxPD8t4S4AAy2</t>
+  </si>
+  <si>
+    <t>$2a$10$OnT5JKo1sW1xanZjisWal.u9frtniTwjpRkz8uJRMsIIRVyUciANm</t>
+  </si>
+  <si>
+    <t>$2a$10$tMXxnFAAgwv9tidKPMQmGuD9T2ZgzOwyGupCqbdfd7IG/kkvNnS.W</t>
+  </si>
+  <si>
+    <t>$2a$10$E8P0LnoqiHbVnGgtGVBqNuEjpMpLL8z2jOj2vTtZ.rC4YHSbAK4Eq</t>
+  </si>
+  <si>
+    <t>$2a$10$Mk/NvGAuuiALY.dS9qDfdOO2yePz9m9f1dQ9GLIZhDHvbWHavczsK</t>
+  </si>
+  <si>
+    <t>$2a$10$mDyL.MdZB83Eq4oFsjnPjuZtqkqndMDOa.zTqGPrYd5rMdCQnoNG.</t>
+  </si>
+  <si>
+    <t>$2a$10$8pxAXk6sr8LR7qPyZoqZb.buiW0qJ.KPp/87HdlmwDNO0rD4y.eAu</t>
+  </si>
+  <si>
+    <t>$2a$10$3mLtJALwmAAcYWErHDQ8oOX4xU7lPKKnBnYY4.W.ur5.Q6U6jT4MS</t>
+  </si>
+  <si>
+    <t>$2a$10$/yD4f/rYZovAGIgJWHj8xu4OZITPB9Gs/mXSwB3rA/CVK6kc/SttW</t>
+  </si>
+  <si>
+    <t>$2a$10$i0iROW/Y5/wkFLYMqnV2d.KKHIIMH8uMD4/sGYh/CKWUy28gaNyxC</t>
+  </si>
+  <si>
+    <t>$2a$10$X/7vpo4XQ6dB4oGOltMAZO0t9bURpSTBqq0gDLGmihhiaah4q/zum</t>
+  </si>
+  <si>
+    <t>$2a$10$1pBBq6SV7AraogSRftZMuuWjsqjo9Zc8lR9BKBWPGX.CZ1qLKpXIC</t>
+  </si>
+  <si>
+    <t>$2a$10$SgQZfwAkK9ILVZKVRRnoUeldGGskjZW/iMTTR/9dhSEyGAo1Xblp6</t>
+  </si>
+  <si>
+    <t>$2a$10$2nLxBFxxeBaCq0xN0HdHleqwNoblCQ44m5Yw5D2AIURt73CH18A/W</t>
+  </si>
+  <si>
+    <t>$2a$10$nmUNaMahrqFrpBiI0eGHeeHXyP7yRHfSok3KLf.qxWvA5m.gtqOJy</t>
+  </si>
+  <si>
+    <t>$2a$10$nF6prfpjuhc2hn4WYW9wP.LK48LLVuMAbsw8oJsV.jOkONY1DpKw2</t>
+  </si>
+  <si>
+    <t>$2a$10$63dkbLKUZYW5tLVZfbZHqOE3dZ243kGguUCC7gYV2W0.5rDgPuItK</t>
+  </si>
+  <si>
+    <t>$2a$10$njl.OGD2EPb84P4QaH6lMuJ14fbtuw5TGIEf/Z0RLeHxmH5ib3WVy</t>
+  </si>
+  <si>
+    <t>$2a$10$/OyFVTIVjThmA1WgY.FTku2RZ8/wK9oj6l7doRTatThvI1YUkklEW</t>
+  </si>
+  <si>
+    <t>$2a$10$nZzlWL.R.ahDRqbt9E6vaePliFP2TYLja8ARX5JeGcxAGHHP.cR.m</t>
+  </si>
+  <si>
+    <t>$2a$10$Rc/JAaMd7wIqG/1q8qB7uOfZhZ028HQ0DWHVcjFyzOleb2yDIAbma</t>
+  </si>
+  <si>
+    <t>$2a$10$K4P4gT/rh5H3DlEorwJbX.BzpJJReSdlKK2V1ZxHHEnTTZ93OBuHq</t>
+  </si>
+  <si>
+    <t>$2a$10$Owcbd4yruX5/rRXT2f7Bt.zYIvnd3s0SVmaEp8JzhYGLablPTYKPm</t>
+  </si>
+  <si>
+    <t>$2a$10$eprkkCJkrIYWetSSmD0/cuy9g.yjb0X7k.kPXFKeT5A9LWUAdT7Nu</t>
+  </si>
+  <si>
+    <t>$2a$10$fEZ6z2puSWJS0D7PDZokouEP4reZicZU8v/speCxFo699SzkT.xXG</t>
+  </si>
+  <si>
+    <t>$2a$10$KCc0b1XWg/I2EZJElRFmsuhNfDVZXP4502h18Mpt/f6n9iefLeMhq</t>
+  </si>
+  <si>
+    <t>$2a$10$e8BP6OcoCdU00j7GlMzyvOY9n8HdvDnwBMHRt3Eo8ZIHMN4Q2hbdK</t>
+  </si>
+  <si>
+    <t>$2a$10$LEwjDX5NiQO4OabUMJ5VkuodXwI7YZSqg.CAfYaX.ggjNaaVm9f6a</t>
+  </si>
+  <si>
+    <t>$2a$10$1aDWjkyoGuVVJJRgTLD3le.CdAZVibPYRsSLxt0Y/BXGNsZaFo76W</t>
+  </si>
+  <si>
+    <t>$2a$10$FAhIdkAOS538T/IZF7NGae7bGGmntme2fwUgqmlmJLS8wbX3p.IT6</t>
+  </si>
+  <si>
+    <t>$2a$10$NtumR.3unQEyekuAogYahuBHYbQFzu7/1VuT7.zvXuuZoxxnMo2sy</t>
+  </si>
+  <si>
+    <t>$2a$10$Uy/u.k1Hc5PCfBet34ZMv.ISOcCWcqSfhRF3iaXxMeNHMy5EdzGj2</t>
+  </si>
+  <si>
+    <t>$2a$10$Rq/K95karDfW4Mp0JuNyXu4i8kJijR6LhKqVQHfoyg1d2BVZ1ZXtm</t>
+  </si>
+  <si>
+    <t>$2a$10$pB54Rz3F1s4beQCHlveBWO0teVKrugUcAE6D.88nKYmM.cGzjtZgG</t>
+  </si>
+  <si>
+    <t>$2a$10$7GBhTuQLgldM.i4fnW4bMu/S96Jw37VHjVGPE38XA4u3mYleHboYK</t>
+  </si>
+  <si>
+    <t>$2a$10$C8XxkljFwvA2l2xeE5yUTOyaadKBjeH1Ze.2nS58r5cTBq1aelcmC</t>
+  </si>
+  <si>
+    <t>$2a$10$NeZjmleKZgR0TuUaSzSwhOII30MG59U89DNFZNvLVuZQ4Ezstn/3W</t>
+  </si>
+  <si>
+    <t>$2a$10$KTgMKeR6ssmkiu7pbk2dW.yPUK83brCmp..ezxlAgF/zVUNKE6cHu</t>
+  </si>
+  <si>
+    <t>$2a$10$SlI7X/RgAU/y2DIPE3ppd.ABZTOR6HvXaHptaO7gpwj4ZMwbHa.wu</t>
+  </si>
+  <si>
+    <t>$2a$10$IBQ6j.QzASoaIeC9envsAep7zhJ8H8XpCnQHrrfNI2agCOdB.ZFSu</t>
+  </si>
+  <si>
+    <t>$2a$10$i36zDKjZKryNR9F6R8FcnuUiJBkTEpI4wFOK91Bp5WkDWe0ieuGgS</t>
+  </si>
+  <si>
+    <t>$2a$10$tkrF7Feo97TDhg4FcQJESOLK9WpNUlpS80UoH8fDVkYSHqxk5b./W</t>
+  </si>
+  <si>
+    <t>$2a$10$19t4SH.FIHLUGzJbI/moqOMj2M0XIRPu3JcrMR6aZZT4nIBpPJxTO</t>
+  </si>
+  <si>
+    <t>$2a$10$4Ly3rxLPHv5ZHNnsCk3re.TSp/NRiVDMJMEcFUZgAJgK8SF5moJda</t>
+  </si>
+  <si>
+    <t>$2a$10$iPanEXxbZtV701bACQezrO8bKFZspXqNNXPlc4e2PifoJWT1R96iO</t>
+  </si>
+  <si>
+    <t>$2a$10$zQjiHbQeyq/iGvHTd9lvC.qD2Kx9PBbo72wEhVOXBHM9ixmL3yZmO</t>
+  </si>
+  <si>
+    <t>$2a$10$cvo.Q/C4wOXeOwwZWvU18emE7EGykZVB2w2oLWaxhKCfIMbkY3Z8a</t>
+  </si>
+  <si>
+    <t>$2a$10$S9QBGWtBzAxRKIM3BiJafuYBcgbbf6qAuJyFrHcJ.q.qAfVul9Hf2</t>
+  </si>
+  <si>
+    <t>$2a$10$3iXybqYgKQrgM/WBPEsUP.x0fWw.VWINFS.GhjzsO3sF1TRZCgM0i</t>
+  </si>
+  <si>
+    <t>$2a$10$UAZfLKhJNTHHerxwQP7UNeKJk.A9O24T/oe2wq5P6DfwCWs0WJkNS</t>
+  </si>
+  <si>
+    <t>$2a$10$4qnIc72t3dO8.BTLOVVN0OmFXpzS5zEAg1Jv/YZF.OMsVJk2rM2ea</t>
+  </si>
+  <si>
+    <t>$2a$10$B5oqi0zbabS8uW2mlGIxpOG5NFh1rPdOc2DSla4rMimsGHDcy9m42</t>
+  </si>
+  <si>
+    <t>$2a$10$BI80OYMje39pXFf3qFhba.ix7fS47jbIcgdmQu2PWLJGAivBfkT2.</t>
+  </si>
+  <si>
+    <t>$2a$10$Nxn7wz9PMkDvzvg3a7YEBuBZU3bS6jYQKx0krIoDZm3GuhymUgGou</t>
+  </si>
+  <si>
+    <t>$2a$10$YN8ozZ1HN3sVxFjY6ATmC.BvpaLg94VWV4BUN2Zov1bLZIMAf0aCq</t>
+  </si>
+  <si>
+    <t>$2a$10$zXC7ONT0cMP5X52MIedJ1ejwg2lr/4Di8ioud/SJJj1O88mvO5UlC</t>
+  </si>
+  <si>
+    <t>$2a$10$u/dAnfOhmPwxiaW6c26Czej7/LJmq0W44DVrxwODcVdkeCstPlqJy</t>
+  </si>
+  <si>
+    <t>$2a$10$JM/bk1NL7pynWG/otlmdI.FjA/GOQ2yReU5etIM5/2Dm0cLQxAi9a</t>
+  </si>
+  <si>
+    <t>$2a$10$NRt/VZDgIXIYij53RHVnge8GQ8IfBRnXc/wcxtwvj/djkqGJe.rea</t>
+  </si>
+  <si>
+    <t>$2a$10$EQ6Qtv/XGtct3lSl3KDDfeKsJXjng/UXWRzzq4S.ELFJ.Px5MFeny</t>
+  </si>
+  <si>
+    <t>$2a$10$NW3eyc.AgTjM5Dpl50rODO2w1UvjWVBWIhyajIahe73WiMFsw7Y12</t>
+  </si>
+  <si>
+    <t>$2a$10$464oJoPBzUO/DigFyzhWR./NGn2JiwevrXkINskfn3AM3BEho5mAS</t>
+  </si>
+  <si>
+    <t>$2a$10$jQJ68/lmm8rkllRgcREALudMyR1eh.xECHT2oX6IIuEDW45OfZrZS</t>
+  </si>
+  <si>
+    <t>$2a$10$G21hVgt72c3cZnOiL64JqOeGsWZD4.ClTOadfKQHykX6LqBpdjPJC</t>
+  </si>
+  <si>
+    <t>$2a$10$ZY9IxNIMHT74YJDfgY7ZZuJyo6KFIspyfoi5uiFfwVs6r7sNvq6gW</t>
+  </si>
+  <si>
+    <t>$2a$10$lTfa.oThGzXv0N90nRvUZe1a0x93w/tUgY5wAYSrMnJ2B.rjFN6oa</t>
+  </si>
+  <si>
+    <t>$2a$10$sERfi02dHULxQhEW/3.VG.mXwnqNuMpr/AA5TnT8TvFWyXBvxn6a6</t>
+  </si>
+  <si>
+    <t>$2a$10$hGiJ01gBW0e4pcsVXl3WCOoxux./kgKYKqrNa7JmfVYJ/V1Lt7jgi</t>
+  </si>
+  <si>
+    <t>$2a$10$2l0ZW1GDRP1iZFiC36ccpOjFQ.iibvHbUEBcuzMxpNKHHTB/6D5Za</t>
+  </si>
+  <si>
+    <t>$2a$10$qBKw6XbB8p90z4Z2BBw9g.lQ5L3BpbU9TkUJS3uXkrMFH20IhVrHa</t>
+  </si>
+  <si>
+    <t>$2a$10$SsoKdzB/pEAu8ALdWCtwdOAK7nXzqEGBlavxg1srm/E5CNgO1Tps.</t>
+  </si>
+  <si>
+    <t>$2a$10$3ldqOFRjqwGL38Xhp3jcE.Ev.WNvjkkcg820mWVb4FUC5UleAGiLG</t>
+  </si>
+  <si>
+    <t>$2a$10$zDaVlarhY3QABBlEWiBaNeC4IOl7g2895SYniVnASVjkfUeFt9WBe</t>
+  </si>
+  <si>
+    <t>$2a$10$5TMX.eWQ16CXlmGdt.md1eLV3.5.X0gcFwxuc1yNBWgVJ.3mlnD3u</t>
+  </si>
+  <si>
+    <t>$2a$10$dK/yrr0O608FIscPK9.P1uF5XnNmL3apWvg/mfr.LPOwdFhGKFghe</t>
+  </si>
+  <si>
+    <t>$2a$10$YBmK91vg3YpUgTG6YoBb/.ZkqBcGGniNsAsoI/2FOWAfhw3a8mqi.</t>
+  </si>
+  <si>
+    <t>$2a$10$YB3ApfKys0H58y1iipW2PeugUrCEoo9r9oVEaksq4QzQ6436LAY4C</t>
+  </si>
+  <si>
+    <t>$2a$10$A8srx9mh2UN9QEDnkBRJFOChDvoUQMHN4pp7VLWljkLnWiwzEyioW</t>
+  </si>
+  <si>
+    <t>$2a$10$yphUgX3mcR84rV/PeMNbzOlxjgK.fyaF0eujQ5W2A3lnluQsjcQxm</t>
+  </si>
+  <si>
+    <t>$2a$10$Zul3VL.qug7I.srUkhkvq.aKUMBTPdx3m/gpT413ma7OaRVqI5gIG</t>
+  </si>
+  <si>
+    <t>$2a$10$RLTThXmIgPmwHaU3FuNsTOB39wlmciMZpx4Z2BL3mVRx5iejn2LyW</t>
+  </si>
+  <si>
+    <t>$2a$10$7AEhgTrdztIQBbqnwgKdyuSu3mSBKw/CnhXW8feh4rwwgFqXzjyF2</t>
+  </si>
+  <si>
+    <t>$2a$10$QKolbTwIAEj0CaCQLksosem/oU1Jg6CibXeL66LZ90ID4b2av7SQi</t>
+  </si>
+  <si>
+    <t>$2a$10$S0emnVPXULFuF4ThwhAjsug/HYyt5RCqr8tzCyOFgwpVzZJvavwqu</t>
+  </si>
+  <si>
+    <t>$2a$10$atvvO2VTg/jYNsJ85qB6g.2Phjw4/a0dVjggVM4q.L6kxWVf.kIdu</t>
+  </si>
+  <si>
+    <t>$2a$10$jZnB9kY1FzkFtJeCyG8IluZoMOgeenWZ2o9IL6wYGZUizVGsjYhRG</t>
+  </si>
+  <si>
+    <t>$2a$10$Oc/k1M3Y7i6uVgdxP53EluFWD6QAuNCkVdUkDWJXe/B2VuxHewZLO</t>
+  </si>
+  <si>
+    <t>$2a$10$6ULekMITH/XH8KnTHlRV6OZjejd1KdI2AvNMRfujjgr6YO7hhWftG</t>
+  </si>
+  <si>
+    <t>$2a$10$raqPYLu3eUmUNCvd6fDkl.917bM3.xk8zXNRkJXvaIpPrV7SgY/1W</t>
+  </si>
+  <si>
+    <t>$2a$10$YSoCKQ73lEABNmV.Y5wLweThjsbLbhj5uO/pKZtIpce.WwRL9HWRS</t>
+  </si>
+  <si>
+    <t>$2a$10$onKUD5XX5A1B0Ir3WWTReO5Ciyebun/DXWEOHbQr8ICKFVy21sD8y</t>
+  </si>
+  <si>
+    <t>$2a$10$jbhRTT8j9UC0kIm2cnHPGeTrZilk40Is97ftZWyCuFP7.E3lbe96u</t>
+  </si>
+  <si>
+    <t>$2a$10$W38WywMlF/0Z.zarm.Vnp.KLrTExNkAJeXmhGUNKpzwBNki3R4RC.</t>
+  </si>
+  <si>
+    <t>$2a$10$z.oZaX1.tOF5w4u319pudeCedE2iBbSodWoPCJKN7cM5DziGFIAx2</t>
+  </si>
+  <si>
+    <t>$2a$10$KWUELFrr2ni0urxoa8WZaOE5Xk1FvsDnh3i7Qpdj.8uKKyHZ8muJO</t>
+  </si>
+  <si>
+    <t>$2a$10$JiZH64A26uvwRl0cOBDxGudYyI3xM3zcqKLNP51FDsz27U.bzxiMu</t>
+  </si>
+  <si>
+    <t>$2a$10$LEvE4Z4oB5TRqOP0iGwb.O.g6SoonS6sF5UIu8hsd1nPWSX15mx1a</t>
+  </si>
+  <si>
+    <t>$2a$10$BVHBx5au93h3wbNoPD9k6OdFwhljzsPosjvWqBMPXLSVI9Kwg/BLq</t>
+  </si>
+  <si>
+    <t>$2a$10$b8Qcy5yB3QZ8l2y01PgYC.bOFkwBz0GeDI1ZeGAyd4goq/T2U/loq</t>
+  </si>
+  <si>
+    <t>$2a$10$..0UZUHol.mTeNjahjg1au2smLkHRYRsmmqzAw15kJUKtsnXuv0oS</t>
+  </si>
+  <si>
+    <t>$2a$10$vj1VIlyabQT.iJO8GXffEeWVb1AGQnzwJqbnK6o9lJ3fLuF2irMmu</t>
+  </si>
+  <si>
+    <t>$2a$10$d.DnKfHdO763vDswJwHcHeklf80VcrKRqfzWoYsSS/wtcjNXifb2u</t>
+  </si>
+  <si>
+    <t>$2a$10$0DEMUt.FyaQKdTlp/y1j8Om/mLb6KpskZ6jKHlPXI2QKp1k0bNJ3y</t>
+  </si>
+  <si>
+    <t>$2a$10$2b1S/FGjjhdcT2brHjInPOL9tyuDIQMALfnbyb/RB8S9qVi.QbZAK</t>
+  </si>
+  <si>
+    <t>$2a$10$EpM/.7wDaYxvB6n56RwN1eBH8NXUB2bfIbYTbpKpSV425RPK/qdEW</t>
+  </si>
+  <si>
+    <t>$2a$10$y5P2nMJjjmS4cd9vucGTAuFF591nEmpluib5.gIjNlibW1NtnP5rK</t>
+  </si>
+  <si>
+    <t>$2a$10$Xvn36JkixN5rCLz3uUxy8Okmgyc1.aqjBTCpyhc1rdjxMIhaVdRdm</t>
+  </si>
+  <si>
+    <t>$2a$10$K76.dUpLQ0d.vJJBX8sgiuV8xgRjg//4L.NvdqSNAAlymol2PsMmS</t>
+  </si>
+  <si>
+    <t>$2a$10$naCOb5166FrP5O8u4wGRFemfRSLjWVhqSh.ARS.RPvTmbbhhPvV32</t>
+  </si>
+  <si>
+    <t>$2a$10$f0QVIO2wRW32N.wkq/DKleucIhzyIbY1IDKAROLBd5/Fs8Ou45ePG</t>
+  </si>
+  <si>
+    <t>$2a$10$T4KDXZY9jIZxaFQm0CjzA.cMN/z3n/LSh/t/ykNBw0o5LuBYxMRuO</t>
+  </si>
+  <si>
+    <t>$2a$10$oiixBiwE4p69KE8PgeVl6.rGh6EyUzSb3YvB2/U1qFhfRCa1fpiJW</t>
+  </si>
+  <si>
+    <t>$2a$10$zBXgbdRD7W3eZHACNleDwegD95UthuL0eil3LSqDgKITI6RoOSOEG</t>
+  </si>
+  <si>
+    <t>$2a$10$0ccqpqg.9irlLZIPT3JwXOkIVWL479yQMTKCJhrd6gZJhvguQehS.</t>
+  </si>
+  <si>
+    <t>$2a$10$AIOwjTttiJKDJQQ48x01b.FIM/pl06rebue.axzSIcBLbPF9o097W</t>
+  </si>
+  <si>
+    <t>$2a$10$zUwnaFciMXpjZfYe3vGf2u7xzrhZ8mjlsKxeIxo.blx7d.mAQnUuK</t>
+  </si>
+  <si>
+    <t>$2a$10$vf1Gf.gIy8p4DWr88c3fDuXzN2adwinZcBoQEWaXEa.IbHLrChjNe</t>
+  </si>
+  <si>
+    <t>$2a$10$7iABQ4oFsKsaow.2bCnwsuTQ/YK20m0/jc/XBKy46HVAtw9rPFbDi</t>
+  </si>
+  <si>
+    <t>$2a$10$964JYlSK9OncjWhIK/duRuTM/3g1B8ZQCPtqMvMN0ka6hADJbP6sq</t>
+  </si>
+  <si>
+    <t>$2a$10$T260nCNL3PmfhgFgX1QV5ugzA1Z.nriCCy8JAm3n3oWExnFXw0UGG</t>
+  </si>
+  <si>
+    <t>$2a$10$FdEWKrw8ZIWvh2f.Wr1AY.ca3FppAlVxati3RebgNF7lJFL.609yi</t>
+  </si>
+  <si>
+    <t>$2a$10$gZPFV/RuxAF3AYSizySoxucbI9.Rbk9oD.T0pIvUm49e.yrEHorQq</t>
+  </si>
+  <si>
+    <t>$2a$10$TSR8vr4OSLErJVPt3uVs9.phZsAMWAKa.5lO7udE9EdlSTrkorqka</t>
+  </si>
+  <si>
+    <t>$2a$10$.cHoxWF5KIcavuhwWGseZunDGTgfxaO9sWNrPqX4ba/wV6A31q.r6</t>
+  </si>
+  <si>
+    <t>$2a$10$vJiSkMK1kqEstRKxYk9vnuGf5mu0G20CcoCcjGpv.Qq7pX1ea8mu6</t>
+  </si>
+  <si>
+    <t>$2a$10$G7CSdkO853FAjEtnFXJUVeEeD2Bn9RD/YYb2Fd3vdJ9RS6NUo1.tO</t>
+  </si>
+  <si>
+    <t>$2a$10$COrB7pyQs5G6KqIc4b24z.T.xksiJ4Xhgx/XVcOImQtm8RhmfSDFO</t>
+  </si>
+  <si>
+    <t>$2a$10$TY0S0VJu59iavZpTWKbB8O9biPEt3HqUg/0XLf7x931cm.FO45jqS</t>
+  </si>
+  <si>
+    <t>$2a$10$/8Gnlq5uDjLax1aF/XK4guLVKlAoIXkjLBJrne1SeDZNuQScSn4I6</t>
+  </si>
+  <si>
+    <t>$2a$10$Wjq3/pzgKI6IJ9kiIxLm2eSdUAWe9OT35Nqpw7HLkyXw0bAwP3enm</t>
+  </si>
+  <si>
+    <t>$2a$10$YtRPONkEgSETefo5jKQLGeIfr4jUnIypm/LdDlgOR0JYfxmRwm.3O</t>
+  </si>
+  <si>
+    <t>$2a$10$K6Bw8k3nxgDej7wC7cqqZ.cjznav80cnLeaglD8mB/xwyEt4AYi6G</t>
+  </si>
+  <si>
+    <t>$2a$10$bugSmqc6102pMdHnyp78jeiCMWViDRatHOTYOnviYEKt8KFGc3ZC6</t>
+  </si>
+  <si>
+    <t>$2a$10$hSrfuh09MZMX78Z9ghi7DuhaRm0cGdITtvHfde/erodth6kR61tbK</t>
+  </si>
+  <si>
+    <t>$2a$10$OtEJBQ6hMLw4B9DMZRJCgu7F1F4B1cH5Jyh37n/l6Fq6WjsoWrANu</t>
+  </si>
+  <si>
+    <t>$2a$10$GmeKpniv1.hFcyEkNitZR.6RFPOmcIu5dDfw9IIoydDIU2EZjhgvK</t>
+  </si>
+  <si>
+    <t>$2a$10$mMz4xO6Y/MLQzA9.86nVp.3flv/GxoPPFxGp6acfWJtYpE1f7KIq.</t>
+  </si>
+  <si>
+    <t>$2a$10$UmBXv61FFklqF2nvmqwD8uX1Cl5JIyiZQEH9Mp560clte2UFQz7vO</t>
+  </si>
+  <si>
+    <t>$2a$10$yNtI6ziW1P0POYLfxfCoruurwmpENiyG1/TVnO21SvfMNSUcbambG</t>
+  </si>
+  <si>
+    <t>$2a$10$VcAYeM5S1woD3bbUjMvOou.diV6qndzsz/cTCCDxS4iE5HveJKZC6</t>
+  </si>
+  <si>
+    <t>$2a$10$0ZSS5o6Vqd2V9MMHM3e60OKkwC3nhTLqfYSIffwnIN49qk.zqkzne</t>
+  </si>
+  <si>
+    <t>$2a$10$cTx1OtkrfoFS28uwSBxujeQsAotmq3f1unBNua2M6QUlbP4BdYihG</t>
+  </si>
+  <si>
+    <t>$2a$10$pa0V60gFEBSly/tmOuaEmOEAZdbzjocL9W19uCdSJpxOsEGluExBq</t>
+  </si>
+  <si>
+    <t>$2a$10$tIZ5r2JCpXaazZ6ZM5mYX./prJ1NOvZtGUQ39B0MV1X2Q31IKoXMy</t>
+  </si>
+  <si>
+    <t>$2a$10$VzIqt9W8qght.cIw9O/niOJHSfqC5CrskRtD4AxhWE2DCnbaRVMpi</t>
+  </si>
+  <si>
+    <t>$2a$10$5yCFS5iq6m8JKz5AfHX9/uNDp0/dPMJUQ2veMYBfUgWsEavysFGp6</t>
+  </si>
+  <si>
+    <t>$2a$10$MQpLickJFcJMPu/Y7k.QY.XqRmcAUKcUdtZbFmZiepZ272ewo6wYm</t>
+  </si>
+  <si>
+    <t>$2a$10$DEic/Apaca/WGPBFEzhOlO6jWY6opCRiMuAv3jN1lRqzurfirzBH6</t>
+  </si>
+  <si>
+    <t>$2a$10$n21PCPxOGET6cppohxgNJegZM12zMf9NTudQGiuJWy5U2rFD8oTGq</t>
+  </si>
+  <si>
+    <t>$2a$10$NQf9KWeAL5JKK3CL3WC5WOd5CPOxD6eiw2BszdDlGRDQI/lb9oNTu</t>
+  </si>
+  <si>
+    <t>$2a$10$zAjZ5IdgkxJ7VJnTkcwlr.X/.5kP.CtLNuE69bKV3glIWvfI0NRCG</t>
+  </si>
+  <si>
+    <t>$2a$10$uaF9zM0jFRQ/DBwtg6YIZOak54naL8j9W3IgcmxYr7soemcr62ecG</t>
+  </si>
+  <si>
+    <t>$2a$10$NUYEFocLWU//wRrNzBgjPe37MjcpU5ACs.F7hKIRr6xEDlJP1FX5e</t>
+  </si>
+  <si>
+    <t>$2a$10$EyPa2ej.D4LsxccvqmwlSe4yq/JpPiUfVQ67QvU.Fhmrm1XDNgJSe</t>
+  </si>
+  <si>
+    <t>$2a$10$52fhiAfG1CJFPqwrsZOh7OCX6QcziHrZfyH2YnBCmL9snOpyAXJn2</t>
+  </si>
+  <si>
+    <t>$2a$10$QuUc15t5YJfAF7tEV0MR6exxcAjXP9eOXHAs7d8Izu1IhyInKxT0q</t>
+  </si>
+  <si>
+    <t>$2a$10$KLCyCzmZ62VBVzHU9FcQGOXZjZWibwC5KI3wqteT0XkzfwSmISRra</t>
+  </si>
+  <si>
+    <t>$2a$10$w.5H1uFG5e2S9VKZbSGOI.GmOm2k0O7lH4FfhHoCZH0nrJPVeVCB.</t>
+  </si>
+  <si>
+    <t>$2a$10$HbR4.2LaodM3kXQCZz.QIeNV8FNvBV0dEVQnaLt.zWDaQSuXPZ1ey</t>
+  </si>
+  <si>
+    <t>$2a$10$HkhY7/BgAOelOrXxwQB5Ieb/z3TkndP1KxXowSINuC/mTnpJc9BFO</t>
+  </si>
+  <si>
+    <t>$2a$10$1A6PFT6x28DKqpbYU2q68uk7NO24puN3mUNkJ2TUSXoaFPfnkHHcu</t>
+  </si>
+  <si>
+    <t>$2a$10$l2OMWiTI4ax.jWMPqNmfE.Is1awKJkudZ46rOEfVZqMhOqYQxjddG</t>
+  </si>
+  <si>
+    <t>$2a$10$D1EeggPMK1dnFFVx7Kudz.wXbkgQSuzgFRNvm5Afly86Qns4ublaW</t>
+  </si>
+  <si>
+    <t>$2a$10$5OPrwhlwvLg24569tuI3eeN9A.YmcXmp4wtVhFiI1BVvOkRnFepK2</t>
+  </si>
+  <si>
+    <t>$2a$10$6.J9yziREFG63M0HkqydZ.QF8ZXWBGN9xDoDW0xhCqNrcSEa.3stO</t>
+  </si>
+  <si>
+    <t>$2a$10$qRpkROmgsdIbISlxWs/GBuHEF0pwRL6pmKdZA15ccW6CokHSfvBKW</t>
+  </si>
+  <si>
+    <t>$2a$10$hFAUpbqn03Dc/a.kiHLoaebMGOgpte5gq/i3GCNphX7c7gt8REkQK</t>
+  </si>
+  <si>
+    <t>$2a$10$iDHWaMYbCtN8BUiR7qzQJ.k4bQLo.Aw9WgODdH8VteGRntCGaIBgK</t>
+  </si>
+  <si>
+    <t>$2a$10$HXxkq4jCUbdhylVDJW4dZ.yA0IWpoY.9TaYNbL8.iKsDqDBmMcdwa</t>
+  </si>
+  <si>
+    <t>$2a$10$GcFxtWWApru1KsgshSsO9uttpRAuvdWlpnUp9tQibj9uYOvCEwbm6</t>
+  </si>
+  <si>
+    <t>$2a$10$FwPs0ikJ1N5OP1B961/iyO9wf6aoaKAymHj285oaWGffMstO3wUau</t>
+  </si>
+  <si>
+    <t>$2a$10$meiKvpSZ6bC7e9MQEV2x.ONQiftBNvA9B10S9y5aN9NNiA1qSiucq</t>
+  </si>
+  <si>
+    <t>$2a$10$wv0wfmOfWoKVGlcQcwIYQuSAPXmTEiaJZ2.xDYBDQP247z1lUwyi2</t>
+  </si>
+  <si>
+    <t>$2a$10$y1Q9v4IunlC4JVsKPAdfF.2HgHJZQMBEqfJXLBlwYd/89bjxT4pcq</t>
+  </si>
+  <si>
+    <t>$2a$10$Quw7T8MTCKr3Ft1SZWtDqeDQ5esZzuBXZXGJug45yonjavMUkT1Qa</t>
+  </si>
+  <si>
+    <t>$2a$10$DFdwQSulprzk/yquLHavj.ok.B2xskvWj88Gk62RHfS36TvFx5xAK</t>
+  </si>
+  <si>
+    <t>$2a$10$SygYFUDtLSTHSSSD6cMWVu57mWXnBiPDDH4Lqt3wVeopdh1mq2yqq</t>
+  </si>
+  <si>
+    <t>$2a$10$rJc37KOc2yV9TC0B.zo.Sum8BbBvC9puDOdXJs/JRerS7RWP27XvC</t>
+  </si>
+  <si>
+    <t>$2a$10$zExzIXnADr3NoX0o/dHBA.ruReuYGmP/ULJOZM4qgW07oZLNm3qO.</t>
+  </si>
+  <si>
+    <t>$2a$10$dGv3H4dQXMnPedSXR3qm3u6EybfGr9ETB85wizU4GYCa7XWDJjfBe</t>
+  </si>
+  <si>
+    <t>$2a$10$Y8Bn/bZg4b986Hm.PLl.CebY8G1FNrL4/8VpFh1Tmoueykj7IuG.O</t>
+  </si>
+  <si>
+    <t>$2a$10$Ev6ost03YhCpAY9Ez2iBx.SQzGf.AQzTARpgUq7stTS/IEt25VVwa</t>
+  </si>
+  <si>
+    <t>$2a$10$HrWevl2K.MXRzvr3ovL2.uwlue9lXR0DSWUZs2y7OQBdPMpqjksZC</t>
+  </si>
+  <si>
+    <t>$2a$10$d3rzKzY7sbDRbzkLm3ah9uCztMnZXEZ.c3u/Ui91ZMOcrp6/./nbO</t>
+  </si>
+  <si>
+    <t>$2a$10$o6PVUz.Lkk49UEfuORTheOytX365JtbfCFp50/QZfnKVXiBjkW0/C</t>
+  </si>
+  <si>
+    <t>$2a$10$5kSUk2x7eqmRDwLkHEtXo.kZMGo4BjLLcYRkoG32eRwJzId4lQgES</t>
+  </si>
+  <si>
+    <t>$2a$10$sTXKz9NnoWSXQQ/caggAQ.mTmql1qua8htCOydm4PcK4lRANGnuPm</t>
+  </si>
+  <si>
+    <t>$2a$10$vCo2KTbQrrX3m1ByysoeRenIg7aQOgQo/br2Xy9/a7uPlnt4cqEaa</t>
+  </si>
+  <si>
+    <t>$2a$10$pEEiCMG9aFlf1c6YvrH5f.QdZZc2UycbluoIwxab6veqN7gASdXcu</t>
+  </si>
+  <si>
+    <t>$2a$10$KvEYvM1XirMv.nD/xKB/1upJqFRZ2luQn3nwcaqh2yBB.C0z7RJli</t>
+  </si>
+  <si>
+    <t>$2a$10$Voc27UAkc0emLfPRcm6uAuocJQ6vdT5jNRGG7AtoReruVb18EmH76</t>
+  </si>
+  <si>
+    <t>$2a$10$B3h8/BvK1x5EgC5lWAIYBedbhoh3oNKHBLHnOHtTmrV4xf51HZpyK</t>
+  </si>
+  <si>
+    <t>$2a$10$fjw3Ukzc8q.28Ac9mbFkH.OuSuRvmmx/A9az7PftkNsnwRuGMK4z2</t>
+  </si>
+  <si>
+    <t>$2a$10$yz1aO4mdGVLDtc.zh4b8kOHqMmH.s0MSH/aR9/U5QxN9w0sHouwV2</t>
+  </si>
+  <si>
+    <t>$2a$10$XaeknBmvJIfLsaf.FCXt/OdAbgXUccappVTK1UZgRm3loereflX5G</t>
+  </si>
+  <si>
+    <t>$2a$10$iVDGxmQrz5g.w9K9t6TkCuKGlXFcLPWJ.gGDbpNDo5RWuhGbLoHwK</t>
+  </si>
+  <si>
+    <t>$2a$10$JRRxeMT6o7dzuZSK6szkLeVPkQXcDkXiHt27.6syc23LEO9Z0WJD6</t>
+  </si>
+  <si>
+    <t>$2a$10$rgpX0hfQFjWpxWodOBDIaeW1BFbKVV7kJhqYMZ1LLu6.Bq8vci25m</t>
+  </si>
+  <si>
+    <t>$2a$10$tusPLIhEAU3vh/ucSRKwEeeiTdPCMXFOPMi1/JvQLuPPeckimVtyi</t>
+  </si>
+  <si>
+    <t>$2a$10$25Lh74BLgrkzyj12Xc5yTuTy9wmuhidZA3xdaEsqdbU5OQAV/IG3C</t>
+  </si>
+  <si>
+    <t>$2a$10$KAJH.L.lpAp9hWMapZmEVuQyYOUuBKdPoo1VWtbXalOsw65MAyAy6</t>
+  </si>
+  <si>
+    <t>$2a$10$VAfQRZ.G8GU1Ba6aVovOpeRQTNgvgqsxbTUHzXCnFKpAfEZ22UTqi</t>
+  </si>
+  <si>
+    <t>$2a$10$dvo.dPXztzJCIAjgvZTkvONj/ThSHSkOMIbaRQYkds1BVfmxzazwq</t>
+  </si>
+  <si>
+    <t>$2a$10$U5/ITcTgCFSxWbLyKJuhOOBXerccp1uNxMQ987OdgTbLpgWuY75ly</t>
+  </si>
+  <si>
+    <t>$2a$10$vhWfHqw6GnG2YavFx.i4we4nG9qcFfIu3yj4fP.NbGvH7v0hU1F.S</t>
+  </si>
+  <si>
+    <t>$2a$10$mlkJ/w89LZM3WNhcgZXmmuJtxOuoWGjUkR8R7HKfl3HRSPa6WUwNi</t>
+  </si>
+  <si>
+    <t>$2a$10$xvRUHLyoKx1NhyevtYeFqu/ud59/Vlno/OOaQzxy2HHsmLEQWvk3q</t>
+  </si>
+  <si>
+    <t>$2a$10$yVORpJ6cNQaKW1vlq69EKOILigNNLCN5q9gFPcrI.Ws8NK7P.G.1C</t>
+  </si>
+  <si>
+    <t>$2a$10$4Ya2DgT6o/9FXLYc/SGEXeecYtU1jiyP7n6jLyo.lH0TOns2CZ4G2</t>
+  </si>
+  <si>
+    <t>$2a$10$OcTWVgYWKMmdPRbVhujXx.FIGNP7KGJRG/h2Ty0YsfVEgE6IRZro6</t>
+  </si>
+  <si>
+    <t>$2a$10$jGparZIcv6TDgxIdJ5v0DebmMRtLCgaoyPyZjzZZ5UKloMBjhG/M2</t>
+  </si>
+  <si>
+    <t>$2a$10$YB7//pwXdMNVcoAJbfh5me0zDl8bYVN5iHuER38JIo9bD1i7NRmAm</t>
+  </si>
+  <si>
+    <t>$2a$10$RnsnVbP3Pa1vK2deHWcYGuOrAP0cLT87ejqYJaKpnK.E31.qM/J8u</t>
+  </si>
+  <si>
+    <t>$2a$10$.2ZCp7u6.lB3oZL5OZ46P.JD9CHR06uBnWMijJWjFrZk4rj.vNJey</t>
+  </si>
+  <si>
+    <t>$2a$10$.SMVOQEW760/ujuy6vGwMO.zCIojOu7SnsiYIKPIboskuVZuoqR.2</t>
+  </si>
+  <si>
+    <t>$2a$10$15k.NfjGvGBgJqJ4ICpaROPp2I9VC4ciwIkifS55WpQXHJlob6xvO</t>
+  </si>
+  <si>
+    <t>$2a$10$NTsEOpsl.35fcCkb7dSfH./Ec1H75ed2RykKnIGSCw.GDplNU6UT6</t>
+  </si>
+  <si>
+    <t>$2a$10$uSRPMAx2z.RGTol98vpzFuR3B3GBafUHWJFF/80X7qzYoMlf1HMAu</t>
+  </si>
+  <si>
+    <t>$2a$10$Dwm5f1DfeJnRTuL3XZjzpeZkwrWj4put0A9euv5W6N3ZZDCLuzgRO</t>
+  </si>
+  <si>
+    <t>$2a$10$DHxCieFRdAYexh/9rZior.hY4DmRb3tHYS7VMPpISRB.dHr/W6PU2</t>
+  </si>
+  <si>
+    <t>$2a$10$PjSKka4ZxYwrJ6zfmC6wf.Z68fJ9Wbt83yTIv8RjWC3PYcvVJ8Hxi</t>
+  </si>
+  <si>
+    <t>$2a$10$tl63KyJOYQIckmbwz.dTlO4iezzO5E9ZZrjRGtv8.Dg45QKfXp.Zm</t>
+  </si>
+  <si>
+    <t>$2a$10$vX5KEYoJaYsSmsCXeu.RGOdcsIDobQoR9PsIg1HkHwGqfuNKZY02.</t>
+  </si>
+  <si>
+    <t>$2a$10$SmhI23qiKv72lcRm9lzw0OGYHrcNneVgK8dttCbUgsOeWDJKmXJRq</t>
+  </si>
+  <si>
+    <t>$2a$10$ne7HdWNb1b8hEsrki0VHt.blg/T59t.smMwalA2xdBdyYaQtQZW5q</t>
+  </si>
+  <si>
+    <t>$2a$10$Mp/Bo8asl9lkzODtivOlxu4eNrNa1Ew6QMh/V09NBdowjuuvGjhxa</t>
+  </si>
+  <si>
+    <t>$2a$10$hMwKeP.meSGpOASrHPby6uyJqTOPcWwF.cZpm77yfozE/0Ixb1h62</t>
+  </si>
+  <si>
+    <t>$2a$10$du9Gcze0ZeByqKvDetJy6e73fdbm6YSSRKiQvmmsq4CaR5qUDHnvS</t>
+  </si>
+  <si>
+    <t>$2a$10$c.2.8dnh3ynbWEjth2TlWuNVu/2nnvvtktUC6PDnr8g3HSgH3VpkO</t>
+  </si>
+  <si>
+    <t>$2a$10$6Hwt75bMNPp8xnC9UlnuEemWhz1UlkWkK7I0mWyd2QchXESQDUFRC</t>
+  </si>
+  <si>
+    <t>$2a$10$4u86fAu.4YsQBnuBjaXaIOk0Y4iawetxeNpccOAfJwnDMftVWOKH6</t>
+  </si>
+  <si>
+    <t>$2a$10$yTB40AMXGaQ66ESBnBPqfONNPYlEtkk/UkSlcI/m7vLWHADqO/yDm</t>
+  </si>
+  <si>
+    <t>$2a$10$XoTdHpcjeomhfspHsXqWCuWkjBFo1/wqB6nCX1WbCdiBQJPzcyRia</t>
+  </si>
+  <si>
+    <t>$2a$10$h8aIFFq5G0YTmu7AqKfG8uwBg7FpdM2W19/Ynmuu6tGqbRQWXNwj.</t>
+  </si>
+  <si>
+    <t>$2a$10$DSMoFSsPr8m7sX1jM.Ruo.HQhTJaCEc1Eo/08uA4E3rCKJ4g3Tms6</t>
+  </si>
+  <si>
+    <t>$2a$10$v5Lw2PGPFk0qSRtpcmwFk.AOxmeLSkkCyIolJRQONL9gA8SU1t1oa</t>
+  </si>
+  <si>
+    <t>$2a$10$OmGppCr16.fK//CLbFkw8uQKKTEaWvg6kQQA8u56b6sqwR0zWSVBC</t>
+  </si>
+  <si>
+    <t>$2a$10$oGQVWlIg3sIo/uGCd7mFZeYyClYLXjEBK7DEPi1NFNwCdurYdB5si</t>
+  </si>
+  <si>
+    <t>$2a$10$r1Mc0RG9r4Jaey34UOuE0es0JaNtoAFLsDR5hxOJoLAxspb0sWMji</t>
+  </si>
+  <si>
+    <t>$2a$10$OdHnIkWxtcPP51I/mPQWbe46tmrt6F33hmTasSA2miEMDZZzf4wFe</t>
+  </si>
+  <si>
+    <t>$2a$10$Y2yx08w7VMIL/DwKR02yfe7fvtGoX/9LjChJ7Xn9NyB.Mobfpsdyq</t>
+  </si>
+  <si>
+    <t>$2a$10$U8Hlc3bLgv2sbPMvgvlHJeMgYSL11qpjGFhT5gIP/a/czQUcNwYcm</t>
+  </si>
+  <si>
+    <t>$2a$10$PejtUJ0ljZVXCbLw19N8auZAC2haVaTwAQiwlJR4wzOqPns/9ydO2</t>
+  </si>
+  <si>
+    <t>$2a$10$l6i57R.z6ojJmFEUszTwcOLcY8nSabhSQRPPz7T51G6pMBDVe./0q</t>
+  </si>
+  <si>
+    <t>$2a$10$FKSErSenZdtnqXE/pJDMWeDVlvXqiiYZ2Bflf2LwaSxfWB.OrlM9C</t>
+  </si>
+  <si>
+    <t>$2a$10$JQvhPSJuhc6npFpC3f33qOXjjMGkPA0lHYONXXfrz.D3UIN7Bykpm</t>
+  </si>
+  <si>
+    <t>$2a$10$2Js8KKyEMC5B7Wl4cpqAleilLJn5w06Ai38laxnsyYrs2IsnO4Jxy</t>
+  </si>
+  <si>
+    <t>$2a$10$FAnuus/QDMe0gPOyeXIPMeJIJoox4fGhlxTQGy09JnEwJQXOYUlPC</t>
+  </si>
+  <si>
+    <t>$2a$10$lwHg3qQABfZVpiLzLlpCe./FKM8FWbdYAyI9SA8A5NfjXvj/cMhwG</t>
+  </si>
+  <si>
+    <t>$2a$10$TPdNHoomEt1ctUBMq53.4Ogxn3UwPl41Md/GhxrayWOSVglXLT8Tm</t>
+  </si>
+  <si>
+    <t>$2a$10$BqjtgH.r3f/CfHV2EH4NBesJiAnbSC9jpcFeLIkT93AAmAayrmSRm</t>
+  </si>
+  <si>
+    <t>$2a$10$pLN9tAkZUJcsxZkqJabjYOhQenEQhOF1w5zcqp22ApFlny3S6TJwe</t>
+  </si>
+  <si>
+    <t>$2a$10$uzdPrWnUUdUFXrQX9eQLMOkH9LeFFU7zwSGWtgPD32VKS9UY3r0yu</t>
+  </si>
+  <si>
+    <t>$2a$10$P6T4hfp6LGiDefTOaYclyeHuiYwnpn82R6ODPuZdTv6xwqVKd/alO</t>
+  </si>
+  <si>
+    <t>$2a$10$Vt7mY8RJ6pTreco3AdppcOroOZRiDA7tXs1HMwrS8OeCrTsT4BdcW</t>
+  </si>
+  <si>
+    <t>$2a$10$XK2CaDI3iNT3AhPQf7d2HOUVlE14ht/xewjlFUQNxgEzspV2oATfW</t>
+  </si>
+  <si>
+    <t>$2a$10$kITRoUUTCuCvtb3cThrAqencq7GNPztevSVES1YjR7TJPc7x61bDO</t>
+  </si>
+  <si>
+    <t>$2a$10$c9wv.9HLjnowsCc5uoO.GOTbFQiGHlpxbsFFNB00LrjcWBITG/lsO</t>
+  </si>
+  <si>
+    <t>$2a$10$0zr9hPHRixFlnW.oI6gZRu..mNoegJ6R1lt/k2Da6Owa2fOyd156W</t>
+  </si>
+  <si>
+    <t>$2a$10$0QRfbMe8V1BKU1/5k4XMyuJs3YE94Y7pgmjF9zaCH9JD9xXYDoMkO</t>
+  </si>
+  <si>
+    <t>$2a$10$ZuObCIrO5kgjS8sRZ8FhpeCgZSnOJbNNdJ2p1vscBe3TmJug2qcey</t>
+  </si>
+  <si>
+    <t>$2a$10$e3YA2La1bXiU9wAD0JduXuBrIqbz7TLBFhnAXUvy6iiryo6Y1M2/y</t>
+  </si>
+  <si>
+    <t>$2a$10$/RGhsM9PLfCmDBjeesqPye4iC3dx9.SqqXk.QblkfzJ211JFwVCbm</t>
+  </si>
+  <si>
+    <t>$2a$10$nCrYxOlb8r.qNomzKRb8geSSbHv/IM0wRPQ0jKctGQVYKBg0SPVqG</t>
+  </si>
+  <si>
+    <t>$2a$10$UFks0pRKoRqpKvbZS8UMpea3P4MIgiqiS8CjjjSfwMV3b9EvmNCkq</t>
+  </si>
+  <si>
+    <t>$2a$10$ylkhkcn1UUukadquEruw1ellfIfw3tkwI3tv3FsD2K9VabKZVsh9a</t>
+  </si>
+  <si>
+    <t>$2a$10$FHVPbcxdNSID9bM4WwZGv.cvjCOqDp2Q3TGknMSEBXqAD773WpqUC</t>
+  </si>
+  <si>
+    <t>$2a$10$WZesgJd1vdp2mzDux9TH9OHyMEVt88gkg7FSiS/P/0Vi65W2qgreK</t>
+  </si>
+  <si>
+    <t>$2a$10$BwuweLnJ..VzCb9Q2.vuQeYzzS8Q70urjTrq1vIpabEWSJu3R3wYa</t>
+  </si>
+  <si>
+    <t>$2a$10$dsW3SibbxT89cZgt.9SEDemHvYsEZyNkKMKOR5xPxkumMNQOV2y1W</t>
+  </si>
+  <si>
+    <t>$2a$10$WH9Ez7MNFJbfGj6/uPI9MOpIGGTODFuRbzPaKtsDxlghrcurEYMPW</t>
+  </si>
+  <si>
+    <t>$2a$10$0KMZKRdAUhfwcA0ELQ8elOR3d1GSAXrFxq1MHwQslS1HjDK79cqru</t>
+  </si>
+  <si>
+    <t>$2a$10$kBLWInOQDP1zSFXziOpqQeaqaegCxEom6ocMR0.bisDxJPbJuQS6a</t>
+  </si>
+  <si>
+    <t>$2a$10$8QIk9VbdVdfsgza2FHk8Nuf6OQS.ppYE1jd4cXRzXoCpTIixZDC2e</t>
+  </si>
+  <si>
+    <t>$2a$10$uaBpiyIAZkulN0hGbRgNrOIfjhBOJgm01qWKDT4WdKEdGfQIal7HO</t>
+  </si>
+  <si>
+    <t>$2a$10$aBI0B/IT8Q/kqBKxLKFzteglpRiPL0vzHOyYV/COW4MM9WBA1fTSm</t>
+  </si>
+  <si>
+    <t>$2a$10$S81htSXDloHM6M8RYPCgVuMMz.bNcZqcb.cafrtkLCRodXaEnarui</t>
+  </si>
+  <si>
+    <t>$2a$10$R/dJK7dCck98lnCCX50R.uk78sOQBe4N2Tn//UMWKRIym029vERHS</t>
+  </si>
+  <si>
+    <t>$2a$10$cuXk3mQHMuN2/i5/meAf9eC1BDoxIyIZWO983zbKLnm8hNph8eOMu</t>
+  </si>
+  <si>
+    <t>$2a$10$QHAC6/txWXWkaSSqm27Uoeo4gGmPPCPw0dOcqqWL3Ae7fKBjhn0qW</t>
+  </si>
+  <si>
+    <t>$2a$10$x5/0WVRh8Oei8DjzpZeRj.EwBHzsVzaq3ex7icZhqr2Ff03dA.eGy</t>
+  </si>
+  <si>
+    <t>$2a$10$anBWHRvQXaQIEIZaozb3we..NnYeqYwecxZYmP6e4w.fHyFaOq86G</t>
+  </si>
+  <si>
+    <t>$2a$10$ChEhpiBiI6lth5AMe5VjVeSnILqsU/3d3zjB4g9p85NELOQDoFPge</t>
+  </si>
+  <si>
+    <t>$2a$10$uDZ8K2uWJgzutUpOaE0B6uv6hWwgA6zUTKd8EBnRGSa37Ot.1wmje</t>
+  </si>
+  <si>
+    <t>$2a$10$Mv3r8GJMWg8marJfb5ZYJ.98s.FKK29T4MGFKiq2SuKv35fLXV5.C</t>
+  </si>
+  <si>
+    <t>$2a$10$4BXieatxfbn//emakxKzWedsoLIoS3FmuwxE253FWjtTiyfJ9PJfS</t>
+  </si>
+  <si>
+    <t>$2a$10$WMqikNX0QhavZQPf9y9r0OcMOKs9nljP7DOkW8oX9qgbvxgFkpMXy</t>
+  </si>
+  <si>
+    <t>$2a$10$QH4qEPsTQw5IUPrVQizvrOpkEA71KD3Neapav95Fz5eeU705SkF6y</t>
+  </si>
+  <si>
+    <t>$2a$10$9zMW0Nb8hBfb.BlgoZOyLO9Tpd8qtSvgqn6M8uPoDmngMT5iN1eae</t>
+  </si>
+  <si>
+    <t>$2a$10$FFyNa1OGaCzc3FIwzSq7CeEI.mw8TCCSO0PhKyJxhT67N7Ti/JNF2</t>
+  </si>
+  <si>
+    <t>$2a$10$Fci5I.fMKoX94n6Rt038Cef/A7.PZ5.PbiMH9OMq4lmck9byrpJIW</t>
+  </si>
+  <si>
+    <t>$2a$10$MjTxAr2KZSOdZ.KYxwUrgOHnz/90VS9zvAxJmrbb6HDEOxn0gwFC6</t>
+  </si>
+  <si>
+    <t>$2a$10$j8Uegt6DR3GlhpaeVpyHa.DTvfbCjeYj6wQkUisUqKz3AIPtzXdGS</t>
+  </si>
+  <si>
+    <t>$2a$10$b4YedLNjyQebYrmJCZAYAuTtA7Li3s9FQmI.bnQvB3NFVDheTRZPK</t>
+  </si>
+  <si>
+    <t>$2a$10$5pvq7pnb4FBYkcqYEDJiHux8JsWG12ExCJkpIUBl.IqKyhVdfkdLm</t>
+  </si>
+  <si>
+    <t>$2a$10$QT748V.4.oXzjxHJ8Og7ROkrWnNgsgskVUZ.agNN9zep9H75vBV2.</t>
+  </si>
+  <si>
+    <t>$2a$10$cAZU4asyJ4K5npjDSULvnO9ODSpXlTDgZk3OCoguXaoBkzkTjrWEm</t>
+  </si>
+  <si>
+    <t>$2a$10$2fZva0LJYjELKHlJv6/FvOY1anV3jqLQJCiWa.7rxvDVZnrGaMVL2</t>
+  </si>
+  <si>
+    <t>$2a$10$BMKwwha58BrcEwkQtXDteO.iuyyk0A.5tNjy1U1x3TrnxhXKQTcNO</t>
+  </si>
+  <si>
+    <t>$2a$10$cZou.RWsckJqnGK9j8DnMui5QkQnes6wkx9qcU9UvIE/6ZI0MiYny</t>
+  </si>
+  <si>
+    <t>$2a$10$qi9RZ9kC.SvdJEJ.KF5yke6vSbbbav4CwPMQQIjrhZC/Z06H218sy</t>
+  </si>
+  <si>
+    <t>$2a$10$w2pJLaoLYnmqzk.o86Rmae8Iv7IT3hgL4Tq0KVE1oTRdMfZd3JHUa</t>
+  </si>
+  <si>
+    <t>$2a$10$MECfaa2saCzIpgbeEzG54OIcJA2kpXFPR7mtXrj9.rTKKBS6F4/vS</t>
+  </si>
+  <si>
+    <t>$2a$10$Xb52ogOblQ.lE0G8PLYrDeU2cu8epuVsH0DCwbUAeQaUeBZZpQvQ6</t>
+  </si>
+  <si>
+    <t>$2a$10$2Ei8djOEQmlEkMxTlawsg.TyM4lAm1v4jjd.PYMXxuk33mpXNkrLS</t>
+  </si>
+  <si>
+    <t>$2a$10$ormC6Rg67cYwqnxbulZxGe2ed7AbjxhpF3FUsEOFxTE4KjdFuBPNi</t>
+  </si>
+  <si>
+    <t>$2a$10$fgS.NNLDg/lWf8UDkaw36uxuIhLDj4.kZfU7hs8XYKzUiHzfnwZmK</t>
+  </si>
+  <si>
+    <t>$2a$10$cteRg2Lwe07jpTgfU1d7/OjRkK05lMCgs1o8LzN0pQtM43OlOAfBy</t>
+  </si>
+  <si>
+    <t>$2a$10$5r/hXWUD0JYwsR1f8Je20eIAlFnZu4YvbYj4W4Hw1nuwzwzyjhcMG</t>
+  </si>
+  <si>
+    <t>$2a$10$2sBevlcWv29Oerk3QJNcoO.bgKKZpNWs3wLcbmyCK7K2F0VfMmLc6</t>
+  </si>
+  <si>
+    <t>$2a$10$4gtYWz18Xfa29.zerYD6MOYKVNUg1d0Fen.LM1relHISVCdrd1Dhm</t>
+  </si>
+  <si>
+    <t>$2a$10$xtYVDFZws13lS07adO4S3ui3ldzKz5bj9dcTOPDYXklZo1B12qXve</t>
+  </si>
+  <si>
+    <t>$2a$10$g0NzZP2zfS8fmd4z5kCA/.Tt7I/D8bQVf6ICqrQg2y5ntd18/W9Xq</t>
+  </si>
+  <si>
+    <t>$2a$10$E9R6BgsAo50aRRsFMjBoUupb382zQ61Zfte021ziImwWxZDOOnrzy</t>
+  </si>
+  <si>
+    <t>$2a$10$8pm16ibfpTMbUHcvIqQ50eqMioeS8yA4ypV1mClWFaK5xpMYgRUVS</t>
+  </si>
+  <si>
+    <t>$2a$10$PjNpZYOOv4Cs6l21Ogv5fuvTlMajuiK/wohvA374r75Oco7MU7vjm</t>
+  </si>
+  <si>
+    <t>$2a$10$FrSLN8Ng4/AiONOV3RTn8.gvJTMNuV4ezvOZzIdFp3mVjeNFIzoC6</t>
+  </si>
+  <si>
+    <t>$2a$10$mg0y.abzhXSEiu/Pdd/GOunyguo2n5tSo4HLMr12xHnFzpO15FbK.</t>
+  </si>
+  <si>
+    <t>$2a$10$EJ6ChIK7ty4l.GVK5h685.YXUVnLtgnwoQo2GYkCjDNTC5ThCVKYW</t>
+  </si>
+  <si>
+    <t>$2a$10$XwCcTsFvr3FrlwShg9r36e.Jmm4ZQmm9RMBua/1w6eNtd8x3iSSrO</t>
+  </si>
+  <si>
+    <t>$2a$10$S/YvC.l/9ct4Z7XVYwBM7e4OGJi1spcfNv6G4gzj4FkKOnowUF.Xq</t>
+  </si>
+  <si>
+    <t>$2a$10$L2XmG/.sDTqkydX9rMcRGeufQdrhJVWHsU.0w41EAO.Ph9Kt5Id8O</t>
+  </si>
+  <si>
+    <t>$2a$10$Rh4q.dP41CCIM5qaXIkbK.JBJgGBfm9h8Qq9NvpAc8BvVh0a0tJTq</t>
+  </si>
+  <si>
+    <t>$2a$10$Hf2usqCsWwYky80UFZx7U.yA1w2KgsHoEnj4pT941cAXcahdAb/9a</t>
+  </si>
+  <si>
+    <t>$2a$10$9QCl0AgUo88HgoUdAa4/luGu2RBE3SZKhZzVMQmRLkCmLkGaccRMW</t>
+  </si>
+  <si>
+    <t>$2a$10$mGxiRZkYtpcllgipNPCzoeMKF5HAZ9Q0vkuaNFzzDJ8MBNiKmmFSC</t>
+  </si>
+  <si>
+    <t>$2a$10$HQUx4HJLwwzoBlWHAdyXxOqRKhoGP75MAwEjVHH1ou0Va7WQ.8eZm</t>
+  </si>
+  <si>
+    <t>$2a$10$biooDfGsI0yMuhnT8d2EeORcRbzRCJAh8LxrVSZol/sNrC3tacJaO</t>
+  </si>
+  <si>
+    <t>$2a$10$0QPpbiNjkzKP067OQcb4Ce2w3JD4C5GTf/y5GSWBH5dBK/R.5tXRa</t>
+  </si>
+  <si>
+    <t>$2a$10$y6bEuOmTixC2M..ZeWLGKOxHnc8xCx/85hnnTkkk4LFnSEPxsMy8a</t>
+  </si>
+  <si>
+    <t>$2a$10$RDkenkZm.NybstuxvoDtbuoDkklT5j8sqPRqQXVAaW5qzYCFuBRpe</t>
+  </si>
+  <si>
+    <t>$2a$10$lAwfvQYAAxyqUQ3y3X/v6eu.daeFbePJ95GZBBFLh17b2hKQoYrQC</t>
+  </si>
+  <si>
+    <t>$2a$10$1BGRfbATZv3UKfosvdac4.nls7zVWOetAHyjAE7Jn5RHGiGlJg8kW</t>
+  </si>
+  <si>
+    <t>$2a$10$UF2B3W8rad3hSzv0vlmDZ.OAsnAaxS7pkq6HPLTF4SZVznf8m1iLi</t>
+  </si>
+  <si>
+    <t>$2a$10$6o7gSXBQLyrVNs.LlW0FZ.GOnOtNIUSKLBPzSRyrb9Z7ePeuD1G52</t>
+  </si>
+  <si>
+    <t>$2a$10$aBAfcc1eh8p63Y0rZjTTEObTIWHskTr58aWMQolsbW5RfuOYS8tFm</t>
+  </si>
+  <si>
+    <t>$2a$10$fSp6e8RpJ1RAggg3NDyY6uWWDDPEg0cX/9dM1RYjrayuiwyIHYWbi</t>
+  </si>
+  <si>
+    <t>$2a$10$QLFlARHoMkFaTIULSZXxi.UN2TCZO1e6d4mp904jtYnL60z/Gu9Eq</t>
+  </si>
+  <si>
+    <t>$2a$10$MskBOxoVDD/VbOFh.Catyuhz6ykScpwTAy3WbFkQxnXxHeWIOnaXC</t>
+  </si>
+  <si>
+    <t>$2a$10$cNPFy/TnsWNHwwZpiCP3v.RqLbOLarnwWLZ5n3uAt1nZ.Lt7rUqQK</t>
+  </si>
+  <si>
+    <t>$2a$10$mKHyofdqsfM0BeKDkKzwgecuXoq0w/Bcxv2zSyDsn6KmI2qkxdLwi</t>
+  </si>
+  <si>
+    <t>$2a$10$oXNXP6QJEhoWf4M8yr/rOuApg5whRoGxOlzniVJKpcIjnTYLFLbM.</t>
+  </si>
+  <si>
+    <t>$2a$10$LV6c7V/MPmgRd.v2xohRwOrdo8h.dXsluTFEGhJ/bD.YKu3L7mXM2</t>
+  </si>
+  <si>
+    <t>$2a$10$C6rF27jgKeEDNhO4pqZMnuhQldU2pAbbmfRLqMfy1fiXa6IXTfojO</t>
+  </si>
+  <si>
+    <t>$2a$10$.6Bew.mbYclgwT/MNq.aaecD9Se7nQ3KHP/FHjtfZnzhzTVEhsSg6</t>
+  </si>
+  <si>
+    <t>$2a$10$sizLj8PQOc5ddXKFAZoRcu55gLp.uN/QXYk7T2Ut6X5w3ncS9leea</t>
+  </si>
+  <si>
+    <t>$2a$10$Fj1CYQPUNI73HbgOaMMvIe3JLg9SLQaSL5E9PvsfkMAvkL6EqQvyO</t>
+  </si>
+  <si>
+    <t>$2a$10$lBVFVjkxQsHMuGJKYfsIzeSwwf6jZNkQSQ5W0ehGEVr1BAMocb.Ja</t>
+  </si>
+  <si>
+    <t>$2a$10$OoK3THkUPkxLnTZdlA/Lz.g6gzlZex8ZgDqfeJJneIdG.R0SWvoIu</t>
+  </si>
+  <si>
+    <t>$2a$10$68HVM3aluhB/cO6CSJHLu.B8d8YnSf6WzFRc6o/xFvngkBghDzz2W</t>
+  </si>
+  <si>
+    <t>$2a$10$iLPDL.jEi5zWr4yt/YQAvuEWPG2XL6sACmKmrzycHxrKVDoigV7sq</t>
+  </si>
+  <si>
+    <t>$2a$10$cL37z84M0yFNijFbxvSsZukp9hcBN0KoLmm1cMeS9kx0DRLHaQCXG</t>
+  </si>
+  <si>
+    <t>$2a$10$1atDKS7jUiFGhySFBxFRluz62w8iXDkEdIqVPYTaKF6wihgIyDc0S</t>
+  </si>
+  <si>
+    <t>$2a$10$MHxTL.uK3fOu1W/XlC6czOYXuX6SYItgrlsTbgx44fH49my1TeAga</t>
+  </si>
+  <si>
+    <t>$2a$10$0GlqfKBu3v4rsHTcM74VTujkpXemtfHpf0uoO4jP0dKiIbNKNnVhK</t>
+  </si>
+  <si>
+    <t>$2a$10$qF6DF71YY/J8a0bjpaS1wOV3lAPDiDJ.R2Zm08rv1N4PxpXxoiPYq</t>
+  </si>
+  <si>
+    <t>$2a$10$l6XnP4s5DBUPw8F3FBKFDefjMrY6k74MfdA8y7BI.OMdAEzkxWjCu</t>
+  </si>
+  <si>
+    <t>$2a$10$vx8s.wv0XphsROwKKSN84OSioW8TiLIFirhak6C3PftMY1wsGmFne</t>
+  </si>
+  <si>
+    <t>$2a$10$GOhHdshgTlOIoINpVUoVX.lyPv5njNsWVinCLBV9AA28Op3nCiboi</t>
+  </si>
+  <si>
+    <t>$2a$10$P8OR15RTdj3m72g3rz1hV.zXB0AccjnUYSNazndRxoZ8WIjqbpQ/e</t>
+  </si>
+  <si>
+    <t>$2a$10$Y9.6bi7LgMEP5wKQBbjrQOC/XLuQBkJDWglIzZ0IKiYBAMYzbggje</t>
+  </si>
+  <si>
+    <t>$2a$10$C.TjsEPIw8Tu8K52Qt2nXeTUNQT1BfLUirzvlv34LQcbAxkGBz5wa</t>
+  </si>
+  <si>
+    <t>$2a$10$tBgvTKQvEtnnBEsdQcaI/eKM6eMURPbIq69f8C4eevZDXW51lWNIG</t>
+  </si>
+  <si>
+    <t>$2a$10$R5zPUqHy/zXPD2WpB6zVpuIomBQ1p2I1U./TIjMkAAjOxOYp1qOyq</t>
+  </si>
+  <si>
+    <t>$2a$10$g0pwxxcWLq2rlOIfDNIa8u/bIpNhZTvBM7R7aOvYXO2/u8DvZACN2</t>
+  </si>
+  <si>
+    <t>$2a$10$6q.75cFOuzYGW174A1aqK.XSrb11h5euKDEKqLCZ8dciy6qawPtdG</t>
+  </si>
+  <si>
+    <t>$2a$10$j0J03DqZGgGR.FkJrfsfv.aBYWRLHDgINbGmxeJM3ytpQJ54PLUK.</t>
+  </si>
+  <si>
+    <t>$2a$10$eaw8wkgirENN5wCmbZKfxOylfrlLfUDleVQrtUCFkNSZ2g1/7UVe2</t>
+  </si>
+  <si>
+    <t>$2a$10$f7OwM4R0dyRPSHxn7HundeNPGf0Y6dSLFCgpC4AB.hThBdcOzvDG2</t>
+  </si>
+  <si>
+    <t>$2a$10$3pJdMpubIHcq4Ejcddj8juG5JNRoUyyiVf3F9N63XJJMJ8BLedYSC</t>
+  </si>
+  <si>
+    <t>$2a$10$ddiwGhJf/hn4YdrN0QmXZOXzAlIug2JKZ1NpsKCblcIe/iXlKMG9S</t>
+  </si>
+  <si>
+    <t>$2a$10$GMDLQg6/zfu00lYzUaoEC.0LpfxbpW/ncpChBAg9BKaNEjf3OS7iK</t>
+  </si>
+  <si>
+    <t>$2a$10$y5B/5Q6ylVe1vj9P/ak6seTFkwqyBT0cKu7NwgpEgivlNjezIM6Gq</t>
+  </si>
+  <si>
+    <t>$2a$10$bzRnBwVWSww6w0IBRSnqyO93UrtahOMY/APl3WpyJAyNF.0Kv6aZK</t>
+  </si>
+  <si>
+    <t>$2a$10$Q4bie6Vm0iwff1MrPYEx8OpmQEvlRxl5zQHFFmb/BwoMJp5Wc.voi</t>
+  </si>
+  <si>
+    <t>$2a$10$XU2W10T.Eor8HERSLJF/sun0Kdq/xc.Q2yQhZv1ZBycj/X8zU1aoC</t>
+  </si>
+  <si>
+    <t>$2a$10$cO1txW.h8Woz6ggMRV.PvegGPWuQP1WBAz5aOeRbdz02pzUoOUagG</t>
+  </si>
+  <si>
+    <t>$2a$10$kDGR0g.QM7vG8Tyuhxu8AuXn0HbghyLCLr7U54FF.VBFBl7W5GiXW</t>
+  </si>
+  <si>
+    <t>$2a$10$NgCM8jSBazN1otoc/N7SVebM0AhsJdaTyLsZjtWoo64jnKQNfMUha</t>
+  </si>
+  <si>
+    <t>$2a$10$DVj9H0YsEmdwGSWlKdanBODEZQkYKYeGels3i2/1JMqP5jCaUZsZ6</t>
+  </si>
+  <si>
+    <t>$2a$10$YafheCrsas6o1zkyiFzGdO0C3SkOh3Ah7q/94w4MofheDULqL1XOi</t>
+  </si>
+  <si>
+    <t>$2a$10$qs7TX3ZC2rMy58FAjvoILunMVf3XfDexV9IamhLRVOuXXdbptGc1q</t>
+  </si>
+  <si>
+    <t>$2a$10$Tb7Dgc7uzC3Jp0V56vmErOPyZ0awgiSdyDUmAb./QXvckgs3iq.06</t>
+  </si>
+  <si>
+    <t>$2a$10$lk/c3pMXBPW3WQ3pc4RdpOAlsVmj1uv/iXP1ECYmhnK2EhIvyl4oK</t>
+  </si>
+  <si>
+    <t>$2a$10$DagzljNiOOxG/TBbBGaPU.Zu5iOs5i5v7hra5/dbGQYqVEqrSiZku</t>
+  </si>
+  <si>
+    <t>$2a$10$9Gs.q0d1sZ4e5FsQfW40PO3F2fDNEMIqcKWVNQWRAH6VFonSfGu7e</t>
+  </si>
+  <si>
+    <t>$2a$10$Nu5kOrEkVJOBEO7RPA0IiOlubd0QPK/lZc2n13xTTtkeu4YNddsL6</t>
+  </si>
+  <si>
+    <t>$2a$10$v6ED1NavWH0pD7TrCbrJ8uVXMbSkkGBundYzlD9r6BoFvtehB4Nky</t>
+  </si>
+  <si>
+    <t>$2a$10$xWBDQV/NDwVYg0kfYqo2p.1jnAoMfeHXE7ITySPqGBPTM0Irrhxl6</t>
+  </si>
+  <si>
+    <t>$2a$10$q0NJKWDG5t04P6xqElaU1evi2.8Nz20eZC1hPGutzf..zGzmYVzxW</t>
+  </si>
+  <si>
+    <t>$2a$10$kLxoAp846jSYXX2awilfiO2juzU4SSHKXqylAnQ7aO5A448JeG45W</t>
+  </si>
+  <si>
+    <t>$2a$10$pT3DmtZOUsKYALcdLKZ2Re3p217v7D/QkJ50CXl55Gj0dT1maOoMu</t>
+  </si>
+  <si>
+    <t>$2a$10$e3TzGpBFfr.9kkWDS91c6OYgY0GXRKtjVxZfreJKf86uV0M.p.QUq</t>
+  </si>
+  <si>
+    <t>$2a$10$UVd2iSjOpMWMCFHXGSXeH.ZCa4iUVbrg2uPdcsqVLHvKHapqifvyO</t>
+  </si>
+  <si>
+    <t>$2a$10$HqrwmnC.nAF6hFYSbmM6d.tBxKVegN2sEylESqWYTJEuQvwFcpRiC</t>
+  </si>
+  <si>
+    <t>$2a$10$aEv5HwCIN3uNCX/Ks8Et0OaTVU198NFlje3.Srk7BM4LqDaNoPHVm</t>
+  </si>
+  <si>
+    <t>$2a$10$biTzPDyug4Q52Zc0QGfH/OO66ONYzCfIwzOZQm/QGIx18gOOV02Ta</t>
+  </si>
+  <si>
+    <t>$2a$10$s/iTXWYDVGkjmfL7GO9UlulU4BaqomH8N0lsnBPbisMaOQssLuKAu</t>
+  </si>
+  <si>
+    <t>$2a$10$fNT9Rk0NOgNx8MKwSWOeLO5vFThAB/YOIFiUVDfaHOoQTGwdWdrAW</t>
+  </si>
+  <si>
+    <t>$2a$10$Hnur68h483la60241gO99u8HQePA6jaL4qv3KV4T/9zyIOqNQPNly</t>
+  </si>
+  <si>
+    <t>$2a$10$li19BHum04QRD/N4mxLJXubizHHBRej2IaRvZJS90O6M1yhfGG4wS</t>
+  </si>
+  <si>
+    <t>$2a$10$ERgKIqF1WxNNmHCUE3lJbORIHRSKdBEFYcGXRngN9nPzTI9gQLYSW</t>
+  </si>
+  <si>
+    <t>$2a$10$rIJ1wwQFmtIPOgeDWIbMfeiK03Y9mVwZtBtxqDC3mXsGys7HdXN0q</t>
+  </si>
+  <si>
+    <t>$2a$10$idCgBkY5/DqUaX/Sf3BUqO4W6Ru4rhHEdZecQe5P2busfxoQRFYnO</t>
+  </si>
+  <si>
+    <t>$2a$10$.oA15scu8jah2tS595ySeeM7q1fLNp07jjopD96YwTxYo2FtmzOeq</t>
+  </si>
+  <si>
+    <t>$2a$10$OMQ8rc.azUgGU3Zd8/zTgu9mWhYPUVp65lPqTgDK7GVz1Rn9U6R5a</t>
+  </si>
+  <si>
+    <t>$2a$10$emTuAulqY5E95bmI1UYqNOIQCIC6L7DDAynGqz30vmKpb95h5qDaK</t>
+  </si>
+  <si>
+    <t>$2a$10$gfEazTEjih75sMhHEmHY1eeU3RGhK.kma6TrtJRHKu2wPLHJLtuUS</t>
+  </si>
+  <si>
+    <t>$2a$10$6z3TneR/wldc4fGdz5sgAesaKEjduLbYcoGho9omAtBFDoTKdra/K</t>
+  </si>
+  <si>
+    <t>$2a$10$tiyWoWsQ7o0fHDoAl04rz.0R6bx34uM5ppP8N0gYk8ZsszxG9E62a</t>
+  </si>
+  <si>
+    <t>$2a$10$fqP7./1MsWhyNYV4vBeJXuHoW7t7ExPTaWt6XP0m0B5fZ/5FFUNdS</t>
+  </si>
+  <si>
+    <t>$2a$10$A5HZyNfAwRWzl3btwTh6MunctU.iXYMDFlB8PBksS7KYFrOP3Pl5.</t>
+  </si>
+  <si>
+    <t>$2a$10$82t.KnCLhqbegfYuSg.kW.eUhu1UcjeDlULdjeLHQ04Rb7VGMmleW</t>
+  </si>
+  <si>
+    <t>$2a$10$gX43Lu7RydQLGk9H.Q3uT.kKHz77ZZ1NZWmrB4AdOq5ALlpVDEv2a</t>
+  </si>
+  <si>
+    <t>$2a$10$2WO5tXN4b1GZdccBUHQWmOURxAaY3shZ8aakm5Es94cIaFqsdWy7K</t>
+  </si>
+  <si>
+    <t>$2a$10$FND.cT8uScFi1lNKw0cHP.hugxtcqiBOooNvm2d9ApoZCiQ3egm0e</t>
+  </si>
+  <si>
+    <t>$2a$10$lJKBnKVFY0pGpe9BOyUuquyF7pXQtA4n6xHhgFb6wswcXaioyTGaC</t>
+  </si>
+  <si>
+    <t>$2a$10$vAiq40KTP8aDDJu8aJPgnOmn63gRS6jOYMk2Fcu8mqZmabyNMSe.2</t>
+  </si>
+  <si>
+    <t>$2a$10$xupFgPDr/JcGYkWmT2BiQuchR.XQEojGG6xbtN9aWb4Z/Jq0ghpFa</t>
+  </si>
+  <si>
+    <t>$2a$10$/5anDmWVGljeioMHBlFIXexPGm7RV9Pgmc9ec4f8K7NFPLijXw3P6</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/static/files/out_student.xlsx
+++ b/src/main/resources/static/files/out_student.xlsx
@@ -4064,1504 +4064,1504 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$2a$10$g6YBqbGvpcsKiF6uxS8gQ.VcMQcaC/GKbAyQyYKsWJ9Ji.QGdUz.q</t>
-  </si>
-  <si>
-    <t>$2a$10$exIeRb.WXqz/hXv22iBJx.ZF7.5/AHQdLVWXqVlVqasrR4Kba3Bfu</t>
-  </si>
-  <si>
-    <t>$2a$10$Q5pUKOMLLv3aic3mBSYUf.BigZnOIBGhKPAj.gsA3NsdSgFaohcD2</t>
-  </si>
-  <si>
-    <t>$2a$10$JCx/bAHpFZARIdvISDbcP.W9q9Jy0DYZgjWxNykk1n8nvmJOdQqMC</t>
-  </si>
-  <si>
-    <t>$2a$10$lCltPKbAYfDWwxdCUKFi8uaI/TNYgr6wQF5G7VKxgeTg4Vk79oMu.</t>
-  </si>
-  <si>
-    <t>$2a$10$ZR2ig9t5x5b0TECC8PqVPehn6YcFXlE5G80ByCSec.VKfYw2g9ts2</t>
-  </si>
-  <si>
-    <t>$2a$10$mvyfSICYgZMRKJ3uJkrxXuLqW9IytSSv31GoCWU91D54dktdpAZyK</t>
-  </si>
-  <si>
-    <t>$2a$10$7yVOk3Y3XxqjJEuKchUoQeqmMsR2B8vy0MpvXtWJ0jdgh2Y6MQBYG</t>
-  </si>
-  <si>
-    <t>$2a$10$fR0.cja5ldYwJQX2NOUvUuocSUdQaHUZ4M6pHLQeW0aera7m.T6sK</t>
-  </si>
-  <si>
-    <t>$2a$10$mR2CegUtmpgs73XVcTffD.0U7nxeNt.PqDgtM3xwhwhp5FWUbgTg.</t>
-  </si>
-  <si>
-    <t>$2a$10$tZ7NwaajaM0Lj4ZOs2mEeOoX2SXCoXoTOFPL8TMMOxhK/f98qqR1G</t>
-  </si>
-  <si>
-    <t>$2a$10$pE7.TYe31GJegRtfcNfJEuAD08LNjkZzxc5HKh3zD6mtNTFPdOVTK</t>
-  </si>
-  <si>
-    <t>$2a$10$azpR/hk3wzoeJbyGEcQSwOW.bTnGWcfbyWXPj923X8klSXidQlTE6</t>
-  </si>
-  <si>
-    <t>$2a$10$XM8cjCA1nR.QWWSRE/8htOBF3S2T/ISxA.Vs2ncBb9BTIGyG1KzMK</t>
-  </si>
-  <si>
-    <t>$2a$10$093TuiOKoNGskJIPXlKfwOVKf./CXpkkSkdadKYCTl26nQkG.dWhy</t>
-  </si>
-  <si>
-    <t>$2a$10$bqF.i24iOZ.OEKd6agTl8uyMygkRkFUAneO0Lq96Ft6FuOr9bdu0m</t>
-  </si>
-  <si>
-    <t>$2a$10$MBiJHeExEMun9PMhQyh6ueR6HYkoHoHLmtcjYX3ZX/FdWJ6jqBAf.</t>
-  </si>
-  <si>
-    <t>$2a$10$CoyZnOyt0SRrkXihuTxBtu.iF3NLD1V7/mf8KeiaIeaO7lCswKi5O</t>
-  </si>
-  <si>
-    <t>$2a$10$4Dj2RoCRndnheishDDgGQunmx8M5iN.3Ve5bCgys53bIbkZi6iR/.</t>
-  </si>
-  <si>
-    <t>$2a$10$lfPELgDiZWeyKyRDU3f0seSdgqIfvHOOPSwenC5Q7ZC2bDsRaIzMe</t>
-  </si>
-  <si>
-    <t>$2a$10$yqTH6cCcvUviL4A/uYoNS.4sdT9psMUxprs3oDLRa9UNAraWVCSSC</t>
-  </si>
-  <si>
-    <t>$2a$10$OTZ31Q.hLggI7ZTPERyH.e08M/1A.FPtF7jnxX2WrVEE.v3HIpYHi</t>
-  </si>
-  <si>
-    <t>$2a$10$wbyMu6.PxnWxVpDdzWjzd.KED5bqDT8fJYiJdSoKI.Pfn1yCGB54K</t>
-  </si>
-  <si>
-    <t>$2a$10$sf9UCcKGdaiaciR5YRlr7uxsmZMydQZiwFv4ahrpM82LGpCm5RSJO</t>
-  </si>
-  <si>
-    <t>$2a$10$Fu/l5cshTMQzAQwj4D8sL.F2Buwgc2StXA3Raoa319DS1vs99Azzy</t>
-  </si>
-  <si>
-    <t>$2a$10$Ac6WGvmJrmkrhva73NvJ6.DNxA/NQi2OLW73RPGTFK/8hn.wyiRUC</t>
-  </si>
-  <si>
-    <t>$2a$10$aHMhChKUqYzbqQG5lz4VyejiwEx8n59Q7vLhOcCW7Rx8oVM/xAycq</t>
-  </si>
-  <si>
-    <t>$2a$10$MBAIyF4ChmBNSE6SqUdtZevaYy/LSXzgjfxCcmbjWmOX9lrKVPsUm</t>
-  </si>
-  <si>
-    <t>$2a$10$WJqkoBP0Iz37G3Zc8jxoLehtLFRHRwpR.4JnBuXsAccxsJIw92eIe</t>
-  </si>
-  <si>
-    <t>$2a$10$6zaOL.hhXv5xwVl.p/DAw.fjng26KfOmZBbqdhacsZIf7n6uY.F5W</t>
-  </si>
-  <si>
-    <t>$2a$10$2oL215thaXrlevYLKP.z8eZpGvBEW/zIDRGGlWJfF2kByZwG7i8yG</t>
-  </si>
-  <si>
-    <t>$2a$10$X53gY6D7NBN4zT/0hEUfS.5BPRNvTFeCgPivhO0fSnhwjEh.zskFa</t>
-  </si>
-  <si>
-    <t>$2a$10$DTqs.sN85VbuRxjjU1FXseONJoh4GpMFGAQnvE0Nibqn.IOez9NSa</t>
-  </si>
-  <si>
-    <t>$2a$10$XucEhoqgoUGk5btx1XXjcuND8XcyKL2LhVCV7F2pvm45qgxxGTyKG</t>
-  </si>
-  <si>
-    <t>$2a$10$VLOmf./Qe4QpCGkJDakZgOj4HvvlrEn5rkjceugoFMlq4I1LGj11e</t>
-  </si>
-  <si>
-    <t>$2a$10$43GihXLp7WaUfc4HOzsrbO78286Pgbs7FvbIQj9VJFmyoN6KWooQO</t>
-  </si>
-  <si>
-    <t>$2a$10$kfGJTcv79u7pbOkr0YFdSOQtC5reFQZrVLLgHBg5B/YfCyH4CU9Ru</t>
-  </si>
-  <si>
-    <t>$2a$10$nnMzCtd3LYmFBgtxOvLfu.upqYP970GllFQ7aaRAfNWudQUNB4X2W</t>
-  </si>
-  <si>
-    <t>$2a$10$9eVPviwJGbqDkrpLPw9XKey0bpbvPZwLMYoimI4KHpWW1UXutkmWa</t>
-  </si>
-  <si>
-    <t>$2a$10$NjwdsuteM0F7BcvpNcXuL.rNUqubIYyNkWKb2vS8wosESdd.kSofW</t>
-  </si>
-  <si>
-    <t>$2a$10$hU80/VmfXvEvHCli5Hz/museVkAhRuvlCv1aFbYOgNL75f/7pbrGi</t>
-  </si>
-  <si>
-    <t>$2a$10$No0OxwvhVCc7DPMbnyUp9ep0W3tLm42E6Rv.jig/zSH8PZYD6LikO</t>
-  </si>
-  <si>
-    <t>$2a$10$r8/KfFRzjj9oMlZVuDLbnOM/k4uF945KCoiIUDwfnW3SnqKoVeO5S</t>
-  </si>
-  <si>
-    <t>$2a$10$2ZeNkidDrzAmUHMvz9vO7uLmJMN1Yuqw7L3PswlbgiUYztqqmOC6G</t>
-  </si>
-  <si>
-    <t>$2a$10$tu.2aSRiyij4nD94gRYjIuwnHde0svRyWZTpJvNpGTE7nmqCQZsie</t>
-  </si>
-  <si>
-    <t>$2a$10$D.f5BOYScmCJjzqBUGr4cuJ1bOMItye5kfvtL3WdFyDj.8.vrTSHW</t>
-  </si>
-  <si>
-    <t>$2a$10$wHzxsHyppWxmynnvO9V9oOaNJve8FuUCCg3pgYCT.sNIyBwm8iWAS</t>
-  </si>
-  <si>
-    <t>$2a$10$am9ZVPSkJyzqOu1ytSnjq.sbFR5/hvYS1reZQwcOdkgW5/TZ/qMMa</t>
-  </si>
-  <si>
-    <t>$2a$10$dDF6GMkBsAO5r11cuiuWpe.LYuPzkfqKIctD5K8r5xJjfp21lYUoS</t>
-  </si>
-  <si>
-    <t>$2a$10$zC2fX.ogU5z/oTAyTde4o..n9aKtsr7Xe5EWz/N1nPT91vq0tGG.q</t>
-  </si>
-  <si>
-    <t>$2a$10$EAuoangcQOVO78gsHBZsw.R/djLZcWmYnS6nJL3K8tHOCI2hSRj2a</t>
-  </si>
-  <si>
-    <t>$2a$10$h/WpiqFqFkOuV0obecyLV.B4mqvEJ7scQ989QXp6XDzN0mcM3dQu6</t>
-  </si>
-  <si>
-    <t>$2a$10$Fz9PD8fH1Eh7rMUH043L2ODbxD5Y48pPiG3F4kF6I02XD.pm9RJiK</t>
-  </si>
-  <si>
-    <t>$2a$10$1PXLuNH9eIQhHlN2golPf.8YU.RdLDIYOGIdhHzcceaqcwKwyZKTi</t>
-  </si>
-  <si>
-    <t>$2a$10$det2/Ykq..tkAB.E5qjPyuO81xuGANBtcRQLh4mVvnKQfYsrhK7iW</t>
-  </si>
-  <si>
-    <t>$2a$10$21PuecU57N.RFaWn7AAC5eRbqfW9uSOPBkb2NPuE1SFB8TGVv48G2</t>
-  </si>
-  <si>
-    <t>$2a$10$/BK9zqUX2vjOwn3JC6DxteyuGi4gxcn0fvG22.lgOljQy/6423e5q</t>
-  </si>
-  <si>
-    <t>$2a$10$Y78oL8LNt.Jn4FUa7dzdFu2d7j47fx9EXZx6I7gSFppv2X42UJKvq</t>
-  </si>
-  <si>
-    <t>$2a$10$Nz8YLXiZ/vC9GhPvmyibCeFo3UG2Q5BCS9ciGsTDuWv22IixdkuW2</t>
-  </si>
-  <si>
-    <t>$2a$10$jwbvLiib.1yWVu6GzzG4vu9LWKmSZNEaWJxGDHT42GinpLWiEOf.u</t>
-  </si>
-  <si>
-    <t>$2a$10$CNdKWyYao2HwQTSC6H7lM.RMuo8QbIieNQI8m0gU6z3zGOWOKZeke</t>
-  </si>
-  <si>
-    <t>$2a$10$whAjz4rn0iOopmfsJkH8gOlOI29.xhzwocNKggOxEzDg2bBDQ1GAG</t>
-  </si>
-  <si>
-    <t>$2a$10$SMQlJ2IhNudJURc.1pved.wnnjVXSJUhCtxjSoTHq0QHe4ihXZztm</t>
-  </si>
-  <si>
-    <t>$2a$10$RMLtmLXYxJ5zx0bqy0ZLCOQdq3tqRfK8hHJNPCl2EXLz73BxH226i</t>
-  </si>
-  <si>
-    <t>$2a$10$OjlR704Kk868ULMM3wELhejS3W6D1a76qM5.ia02hF/avcsQ6/kWe</t>
-  </si>
-  <si>
-    <t>$2a$10$2Xz9LYApm16Y9q7TwtJFEOe.TzEXuYOMj4Rrsnoh1Enoc1cf79LGm</t>
-  </si>
-  <si>
-    <t>$2a$10$H2uCftXWUakqV5FLSJoHeeeL/rdeZP3Xw3CxVz1v1lHI9spg0Fh3i</t>
-  </si>
-  <si>
-    <t>$2a$10$m6IvDgw6tkpHNLj8RZStCucZecbxJQplJRmPR9EF7ChBBt3ugxKKW</t>
-  </si>
-  <si>
-    <t>$2a$10$FKesb77T9OWJkv.iCvB5Bu3ZIenjCGHiMtuQE3JuitoOriXWCaJCC</t>
-  </si>
-  <si>
-    <t>$2a$10$v0tk/XJICtMUkkQ3UazDP.8cDwUlGgd0rFLaLXOKbDq9GLGSAqUSW</t>
-  </si>
-  <si>
-    <t>$2a$10$fQ5Aqf5G38P4OFDB38NY3./LWgKtkM73jIP/2hQ/FlgVTn1tAcNYm</t>
-  </si>
-  <si>
-    <t>$2a$10$J3rKiMaTUkM6HrNfFjflhuBGmHZHbUSmdDIFSU13c.cTNG4mqOUmm</t>
-  </si>
-  <si>
-    <t>$2a$10$lenMSxtWABMqz6PEa6YUP.2fF.oyVYtNtMJ.5Oo0rO.smL70QHAj6</t>
-  </si>
-  <si>
-    <t>$2a$10$7wrjUCPWWndqhe9AVbDK2OfPw.qfY6F4.fOht66zlgzXdTtqJZEzK</t>
-  </si>
-  <si>
-    <t>$2a$10$g7bL2dZsI0ooDQJqMms.s.hb1qS60H2JuEuhgJ5zYDWiNeq3/BPyy</t>
-  </si>
-  <si>
-    <t>$2a$10$uxl59vHO1H5Yj7wMxL5HIOWzlvFpRZeTGIO6gXMzXYcifJ3xh4i6a</t>
-  </si>
-  <si>
-    <t>$2a$10$cqFDVW9igrn5hU49HsUg/exOgHoYUXszNgcFJGXEWWuTVl3zaQASi</t>
-  </si>
-  <si>
-    <t>$2a$10$rbMLfUsjZupQHu1EewtznOPzWGPK7wSpOv9HNMXy6YE0uiKdZToqS</t>
-  </si>
-  <si>
-    <t>$2a$10$peVN0Dl4Wo9yI3oll54rge3edGL/TTP.6JWFB.ep2S.tScVKmZJYy</t>
-  </si>
-  <si>
-    <t>$2a$10$60nZhIR5eMtQsxxaLKHfH.m6cBghSEJH9V4ulGPZpbQfQJRrJf3qu</t>
-  </si>
-  <si>
-    <t>$2a$10$.G7FxJt/GSiTX9rTfaqfuOjqwC47GjwBgQG2H8vccxPD8t4S4AAy2</t>
-  </si>
-  <si>
-    <t>$2a$10$OnT5JKo1sW1xanZjisWal.u9frtniTwjpRkz8uJRMsIIRVyUciANm</t>
-  </si>
-  <si>
-    <t>$2a$10$tMXxnFAAgwv9tidKPMQmGuD9T2ZgzOwyGupCqbdfd7IG/kkvNnS.W</t>
-  </si>
-  <si>
-    <t>$2a$10$E8P0LnoqiHbVnGgtGVBqNuEjpMpLL8z2jOj2vTtZ.rC4YHSbAK4Eq</t>
-  </si>
-  <si>
-    <t>$2a$10$Mk/NvGAuuiALY.dS9qDfdOO2yePz9m9f1dQ9GLIZhDHvbWHavczsK</t>
-  </si>
-  <si>
-    <t>$2a$10$mDyL.MdZB83Eq4oFsjnPjuZtqkqndMDOa.zTqGPrYd5rMdCQnoNG.</t>
-  </si>
-  <si>
-    <t>$2a$10$8pxAXk6sr8LR7qPyZoqZb.buiW0qJ.KPp/87HdlmwDNO0rD4y.eAu</t>
-  </si>
-  <si>
-    <t>$2a$10$3mLtJALwmAAcYWErHDQ8oOX4xU7lPKKnBnYY4.W.ur5.Q6U6jT4MS</t>
-  </si>
-  <si>
-    <t>$2a$10$/yD4f/rYZovAGIgJWHj8xu4OZITPB9Gs/mXSwB3rA/CVK6kc/SttW</t>
-  </si>
-  <si>
-    <t>$2a$10$i0iROW/Y5/wkFLYMqnV2d.KKHIIMH8uMD4/sGYh/CKWUy28gaNyxC</t>
-  </si>
-  <si>
-    <t>$2a$10$X/7vpo4XQ6dB4oGOltMAZO0t9bURpSTBqq0gDLGmihhiaah4q/zum</t>
-  </si>
-  <si>
-    <t>$2a$10$1pBBq6SV7AraogSRftZMuuWjsqjo9Zc8lR9BKBWPGX.CZ1qLKpXIC</t>
-  </si>
-  <si>
-    <t>$2a$10$SgQZfwAkK9ILVZKVRRnoUeldGGskjZW/iMTTR/9dhSEyGAo1Xblp6</t>
-  </si>
-  <si>
-    <t>$2a$10$2nLxBFxxeBaCq0xN0HdHleqwNoblCQ44m5Yw5D2AIURt73CH18A/W</t>
-  </si>
-  <si>
-    <t>$2a$10$nmUNaMahrqFrpBiI0eGHeeHXyP7yRHfSok3KLf.qxWvA5m.gtqOJy</t>
-  </si>
-  <si>
-    <t>$2a$10$nF6prfpjuhc2hn4WYW9wP.LK48LLVuMAbsw8oJsV.jOkONY1DpKw2</t>
-  </si>
-  <si>
-    <t>$2a$10$63dkbLKUZYW5tLVZfbZHqOE3dZ243kGguUCC7gYV2W0.5rDgPuItK</t>
-  </si>
-  <si>
-    <t>$2a$10$njl.OGD2EPb84P4QaH6lMuJ14fbtuw5TGIEf/Z0RLeHxmH5ib3WVy</t>
-  </si>
-  <si>
-    <t>$2a$10$/OyFVTIVjThmA1WgY.FTku2RZ8/wK9oj6l7doRTatThvI1YUkklEW</t>
-  </si>
-  <si>
-    <t>$2a$10$nZzlWL.R.ahDRqbt9E6vaePliFP2TYLja8ARX5JeGcxAGHHP.cR.m</t>
-  </si>
-  <si>
-    <t>$2a$10$Rc/JAaMd7wIqG/1q8qB7uOfZhZ028HQ0DWHVcjFyzOleb2yDIAbma</t>
-  </si>
-  <si>
-    <t>$2a$10$K4P4gT/rh5H3DlEorwJbX.BzpJJReSdlKK2V1ZxHHEnTTZ93OBuHq</t>
-  </si>
-  <si>
-    <t>$2a$10$Owcbd4yruX5/rRXT2f7Bt.zYIvnd3s0SVmaEp8JzhYGLablPTYKPm</t>
-  </si>
-  <si>
-    <t>$2a$10$eprkkCJkrIYWetSSmD0/cuy9g.yjb0X7k.kPXFKeT5A9LWUAdT7Nu</t>
-  </si>
-  <si>
-    <t>$2a$10$fEZ6z2puSWJS0D7PDZokouEP4reZicZU8v/speCxFo699SzkT.xXG</t>
-  </si>
-  <si>
-    <t>$2a$10$KCc0b1XWg/I2EZJElRFmsuhNfDVZXP4502h18Mpt/f6n9iefLeMhq</t>
-  </si>
-  <si>
-    <t>$2a$10$e8BP6OcoCdU00j7GlMzyvOY9n8HdvDnwBMHRt3Eo8ZIHMN4Q2hbdK</t>
-  </si>
-  <si>
-    <t>$2a$10$LEwjDX5NiQO4OabUMJ5VkuodXwI7YZSqg.CAfYaX.ggjNaaVm9f6a</t>
-  </si>
-  <si>
-    <t>$2a$10$1aDWjkyoGuVVJJRgTLD3le.CdAZVibPYRsSLxt0Y/BXGNsZaFo76W</t>
-  </si>
-  <si>
-    <t>$2a$10$FAhIdkAOS538T/IZF7NGae7bGGmntme2fwUgqmlmJLS8wbX3p.IT6</t>
-  </si>
-  <si>
-    <t>$2a$10$NtumR.3unQEyekuAogYahuBHYbQFzu7/1VuT7.zvXuuZoxxnMo2sy</t>
-  </si>
-  <si>
-    <t>$2a$10$Uy/u.k1Hc5PCfBet34ZMv.ISOcCWcqSfhRF3iaXxMeNHMy5EdzGj2</t>
-  </si>
-  <si>
-    <t>$2a$10$Rq/K95karDfW4Mp0JuNyXu4i8kJijR6LhKqVQHfoyg1d2BVZ1ZXtm</t>
-  </si>
-  <si>
-    <t>$2a$10$pB54Rz3F1s4beQCHlveBWO0teVKrugUcAE6D.88nKYmM.cGzjtZgG</t>
-  </si>
-  <si>
-    <t>$2a$10$7GBhTuQLgldM.i4fnW4bMu/S96Jw37VHjVGPE38XA4u3mYleHboYK</t>
-  </si>
-  <si>
-    <t>$2a$10$C8XxkljFwvA2l2xeE5yUTOyaadKBjeH1Ze.2nS58r5cTBq1aelcmC</t>
-  </si>
-  <si>
-    <t>$2a$10$NeZjmleKZgR0TuUaSzSwhOII30MG59U89DNFZNvLVuZQ4Ezstn/3W</t>
-  </si>
-  <si>
-    <t>$2a$10$KTgMKeR6ssmkiu7pbk2dW.yPUK83brCmp..ezxlAgF/zVUNKE6cHu</t>
-  </si>
-  <si>
-    <t>$2a$10$SlI7X/RgAU/y2DIPE3ppd.ABZTOR6HvXaHptaO7gpwj4ZMwbHa.wu</t>
-  </si>
-  <si>
-    <t>$2a$10$IBQ6j.QzASoaIeC9envsAep7zhJ8H8XpCnQHrrfNI2agCOdB.ZFSu</t>
-  </si>
-  <si>
-    <t>$2a$10$i36zDKjZKryNR9F6R8FcnuUiJBkTEpI4wFOK91Bp5WkDWe0ieuGgS</t>
-  </si>
-  <si>
-    <t>$2a$10$tkrF7Feo97TDhg4FcQJESOLK9WpNUlpS80UoH8fDVkYSHqxk5b./W</t>
-  </si>
-  <si>
-    <t>$2a$10$19t4SH.FIHLUGzJbI/moqOMj2M0XIRPu3JcrMR6aZZT4nIBpPJxTO</t>
-  </si>
-  <si>
-    <t>$2a$10$4Ly3rxLPHv5ZHNnsCk3re.TSp/NRiVDMJMEcFUZgAJgK8SF5moJda</t>
-  </si>
-  <si>
-    <t>$2a$10$iPanEXxbZtV701bACQezrO8bKFZspXqNNXPlc4e2PifoJWT1R96iO</t>
-  </si>
-  <si>
-    <t>$2a$10$zQjiHbQeyq/iGvHTd9lvC.qD2Kx9PBbo72wEhVOXBHM9ixmL3yZmO</t>
-  </si>
-  <si>
-    <t>$2a$10$cvo.Q/C4wOXeOwwZWvU18emE7EGykZVB2w2oLWaxhKCfIMbkY3Z8a</t>
-  </si>
-  <si>
-    <t>$2a$10$S9QBGWtBzAxRKIM3BiJafuYBcgbbf6qAuJyFrHcJ.q.qAfVul9Hf2</t>
-  </si>
-  <si>
-    <t>$2a$10$3iXybqYgKQrgM/WBPEsUP.x0fWw.VWINFS.GhjzsO3sF1TRZCgM0i</t>
-  </si>
-  <si>
-    <t>$2a$10$UAZfLKhJNTHHerxwQP7UNeKJk.A9O24T/oe2wq5P6DfwCWs0WJkNS</t>
-  </si>
-  <si>
-    <t>$2a$10$4qnIc72t3dO8.BTLOVVN0OmFXpzS5zEAg1Jv/YZF.OMsVJk2rM2ea</t>
-  </si>
-  <si>
-    <t>$2a$10$B5oqi0zbabS8uW2mlGIxpOG5NFh1rPdOc2DSla4rMimsGHDcy9m42</t>
-  </si>
-  <si>
-    <t>$2a$10$BI80OYMje39pXFf3qFhba.ix7fS47jbIcgdmQu2PWLJGAivBfkT2.</t>
-  </si>
-  <si>
-    <t>$2a$10$Nxn7wz9PMkDvzvg3a7YEBuBZU3bS6jYQKx0krIoDZm3GuhymUgGou</t>
-  </si>
-  <si>
-    <t>$2a$10$YN8ozZ1HN3sVxFjY6ATmC.BvpaLg94VWV4BUN2Zov1bLZIMAf0aCq</t>
-  </si>
-  <si>
-    <t>$2a$10$zXC7ONT0cMP5X52MIedJ1ejwg2lr/4Di8ioud/SJJj1O88mvO5UlC</t>
-  </si>
-  <si>
-    <t>$2a$10$u/dAnfOhmPwxiaW6c26Czej7/LJmq0W44DVrxwODcVdkeCstPlqJy</t>
-  </si>
-  <si>
-    <t>$2a$10$JM/bk1NL7pynWG/otlmdI.FjA/GOQ2yReU5etIM5/2Dm0cLQxAi9a</t>
-  </si>
-  <si>
-    <t>$2a$10$NRt/VZDgIXIYij53RHVnge8GQ8IfBRnXc/wcxtwvj/djkqGJe.rea</t>
-  </si>
-  <si>
-    <t>$2a$10$EQ6Qtv/XGtct3lSl3KDDfeKsJXjng/UXWRzzq4S.ELFJ.Px5MFeny</t>
-  </si>
-  <si>
-    <t>$2a$10$NW3eyc.AgTjM5Dpl50rODO2w1UvjWVBWIhyajIahe73WiMFsw7Y12</t>
-  </si>
-  <si>
-    <t>$2a$10$464oJoPBzUO/DigFyzhWR./NGn2JiwevrXkINskfn3AM3BEho5mAS</t>
-  </si>
-  <si>
-    <t>$2a$10$jQJ68/lmm8rkllRgcREALudMyR1eh.xECHT2oX6IIuEDW45OfZrZS</t>
-  </si>
-  <si>
-    <t>$2a$10$G21hVgt72c3cZnOiL64JqOeGsWZD4.ClTOadfKQHykX6LqBpdjPJC</t>
-  </si>
-  <si>
-    <t>$2a$10$ZY9IxNIMHT74YJDfgY7ZZuJyo6KFIspyfoi5uiFfwVs6r7sNvq6gW</t>
-  </si>
-  <si>
-    <t>$2a$10$lTfa.oThGzXv0N90nRvUZe1a0x93w/tUgY5wAYSrMnJ2B.rjFN6oa</t>
-  </si>
-  <si>
-    <t>$2a$10$sERfi02dHULxQhEW/3.VG.mXwnqNuMpr/AA5TnT8TvFWyXBvxn6a6</t>
-  </si>
-  <si>
-    <t>$2a$10$hGiJ01gBW0e4pcsVXl3WCOoxux./kgKYKqrNa7JmfVYJ/V1Lt7jgi</t>
-  </si>
-  <si>
-    <t>$2a$10$2l0ZW1GDRP1iZFiC36ccpOjFQ.iibvHbUEBcuzMxpNKHHTB/6D5Za</t>
-  </si>
-  <si>
-    <t>$2a$10$qBKw6XbB8p90z4Z2BBw9g.lQ5L3BpbU9TkUJS3uXkrMFH20IhVrHa</t>
-  </si>
-  <si>
-    <t>$2a$10$SsoKdzB/pEAu8ALdWCtwdOAK7nXzqEGBlavxg1srm/E5CNgO1Tps.</t>
-  </si>
-  <si>
-    <t>$2a$10$3ldqOFRjqwGL38Xhp3jcE.Ev.WNvjkkcg820mWVb4FUC5UleAGiLG</t>
-  </si>
-  <si>
-    <t>$2a$10$zDaVlarhY3QABBlEWiBaNeC4IOl7g2895SYniVnASVjkfUeFt9WBe</t>
-  </si>
-  <si>
-    <t>$2a$10$5TMX.eWQ16CXlmGdt.md1eLV3.5.X0gcFwxuc1yNBWgVJ.3mlnD3u</t>
-  </si>
-  <si>
-    <t>$2a$10$dK/yrr0O608FIscPK9.P1uF5XnNmL3apWvg/mfr.LPOwdFhGKFghe</t>
-  </si>
-  <si>
-    <t>$2a$10$YBmK91vg3YpUgTG6YoBb/.ZkqBcGGniNsAsoI/2FOWAfhw3a8mqi.</t>
-  </si>
-  <si>
-    <t>$2a$10$YB3ApfKys0H58y1iipW2PeugUrCEoo9r9oVEaksq4QzQ6436LAY4C</t>
-  </si>
-  <si>
-    <t>$2a$10$A8srx9mh2UN9QEDnkBRJFOChDvoUQMHN4pp7VLWljkLnWiwzEyioW</t>
-  </si>
-  <si>
-    <t>$2a$10$yphUgX3mcR84rV/PeMNbzOlxjgK.fyaF0eujQ5W2A3lnluQsjcQxm</t>
-  </si>
-  <si>
-    <t>$2a$10$Zul3VL.qug7I.srUkhkvq.aKUMBTPdx3m/gpT413ma7OaRVqI5gIG</t>
-  </si>
-  <si>
-    <t>$2a$10$RLTThXmIgPmwHaU3FuNsTOB39wlmciMZpx4Z2BL3mVRx5iejn2LyW</t>
-  </si>
-  <si>
-    <t>$2a$10$7AEhgTrdztIQBbqnwgKdyuSu3mSBKw/CnhXW8feh4rwwgFqXzjyF2</t>
-  </si>
-  <si>
-    <t>$2a$10$QKolbTwIAEj0CaCQLksosem/oU1Jg6CibXeL66LZ90ID4b2av7SQi</t>
-  </si>
-  <si>
-    <t>$2a$10$S0emnVPXULFuF4ThwhAjsug/HYyt5RCqr8tzCyOFgwpVzZJvavwqu</t>
-  </si>
-  <si>
-    <t>$2a$10$atvvO2VTg/jYNsJ85qB6g.2Phjw4/a0dVjggVM4q.L6kxWVf.kIdu</t>
-  </si>
-  <si>
-    <t>$2a$10$jZnB9kY1FzkFtJeCyG8IluZoMOgeenWZ2o9IL6wYGZUizVGsjYhRG</t>
-  </si>
-  <si>
-    <t>$2a$10$Oc/k1M3Y7i6uVgdxP53EluFWD6QAuNCkVdUkDWJXe/B2VuxHewZLO</t>
-  </si>
-  <si>
-    <t>$2a$10$6ULekMITH/XH8KnTHlRV6OZjejd1KdI2AvNMRfujjgr6YO7hhWftG</t>
-  </si>
-  <si>
-    <t>$2a$10$raqPYLu3eUmUNCvd6fDkl.917bM3.xk8zXNRkJXvaIpPrV7SgY/1W</t>
-  </si>
-  <si>
-    <t>$2a$10$YSoCKQ73lEABNmV.Y5wLweThjsbLbhj5uO/pKZtIpce.WwRL9HWRS</t>
-  </si>
-  <si>
-    <t>$2a$10$onKUD5XX5A1B0Ir3WWTReO5Ciyebun/DXWEOHbQr8ICKFVy21sD8y</t>
-  </si>
-  <si>
-    <t>$2a$10$jbhRTT8j9UC0kIm2cnHPGeTrZilk40Is97ftZWyCuFP7.E3lbe96u</t>
-  </si>
-  <si>
-    <t>$2a$10$W38WywMlF/0Z.zarm.Vnp.KLrTExNkAJeXmhGUNKpzwBNki3R4RC.</t>
-  </si>
-  <si>
-    <t>$2a$10$z.oZaX1.tOF5w4u319pudeCedE2iBbSodWoPCJKN7cM5DziGFIAx2</t>
-  </si>
-  <si>
-    <t>$2a$10$KWUELFrr2ni0urxoa8WZaOE5Xk1FvsDnh3i7Qpdj.8uKKyHZ8muJO</t>
-  </si>
-  <si>
-    <t>$2a$10$JiZH64A26uvwRl0cOBDxGudYyI3xM3zcqKLNP51FDsz27U.bzxiMu</t>
-  </si>
-  <si>
-    <t>$2a$10$LEvE4Z4oB5TRqOP0iGwb.O.g6SoonS6sF5UIu8hsd1nPWSX15mx1a</t>
-  </si>
-  <si>
-    <t>$2a$10$BVHBx5au93h3wbNoPD9k6OdFwhljzsPosjvWqBMPXLSVI9Kwg/BLq</t>
-  </si>
-  <si>
-    <t>$2a$10$b8Qcy5yB3QZ8l2y01PgYC.bOFkwBz0GeDI1ZeGAyd4goq/T2U/loq</t>
-  </si>
-  <si>
-    <t>$2a$10$..0UZUHol.mTeNjahjg1au2smLkHRYRsmmqzAw15kJUKtsnXuv0oS</t>
-  </si>
-  <si>
-    <t>$2a$10$vj1VIlyabQT.iJO8GXffEeWVb1AGQnzwJqbnK6o9lJ3fLuF2irMmu</t>
-  </si>
-  <si>
-    <t>$2a$10$d.DnKfHdO763vDswJwHcHeklf80VcrKRqfzWoYsSS/wtcjNXifb2u</t>
-  </si>
-  <si>
-    <t>$2a$10$0DEMUt.FyaQKdTlp/y1j8Om/mLb6KpskZ6jKHlPXI2QKp1k0bNJ3y</t>
-  </si>
-  <si>
-    <t>$2a$10$2b1S/FGjjhdcT2brHjInPOL9tyuDIQMALfnbyb/RB8S9qVi.QbZAK</t>
-  </si>
-  <si>
-    <t>$2a$10$EpM/.7wDaYxvB6n56RwN1eBH8NXUB2bfIbYTbpKpSV425RPK/qdEW</t>
-  </si>
-  <si>
-    <t>$2a$10$y5P2nMJjjmS4cd9vucGTAuFF591nEmpluib5.gIjNlibW1NtnP5rK</t>
-  </si>
-  <si>
-    <t>$2a$10$Xvn36JkixN5rCLz3uUxy8Okmgyc1.aqjBTCpyhc1rdjxMIhaVdRdm</t>
-  </si>
-  <si>
-    <t>$2a$10$K76.dUpLQ0d.vJJBX8sgiuV8xgRjg//4L.NvdqSNAAlymol2PsMmS</t>
-  </si>
-  <si>
-    <t>$2a$10$naCOb5166FrP5O8u4wGRFemfRSLjWVhqSh.ARS.RPvTmbbhhPvV32</t>
-  </si>
-  <si>
-    <t>$2a$10$f0QVIO2wRW32N.wkq/DKleucIhzyIbY1IDKAROLBd5/Fs8Ou45ePG</t>
-  </si>
-  <si>
-    <t>$2a$10$T4KDXZY9jIZxaFQm0CjzA.cMN/z3n/LSh/t/ykNBw0o5LuBYxMRuO</t>
-  </si>
-  <si>
-    <t>$2a$10$oiixBiwE4p69KE8PgeVl6.rGh6EyUzSb3YvB2/U1qFhfRCa1fpiJW</t>
-  </si>
-  <si>
-    <t>$2a$10$zBXgbdRD7W3eZHACNleDwegD95UthuL0eil3LSqDgKITI6RoOSOEG</t>
-  </si>
-  <si>
-    <t>$2a$10$0ccqpqg.9irlLZIPT3JwXOkIVWL479yQMTKCJhrd6gZJhvguQehS.</t>
-  </si>
-  <si>
-    <t>$2a$10$AIOwjTttiJKDJQQ48x01b.FIM/pl06rebue.axzSIcBLbPF9o097W</t>
-  </si>
-  <si>
-    <t>$2a$10$zUwnaFciMXpjZfYe3vGf2u7xzrhZ8mjlsKxeIxo.blx7d.mAQnUuK</t>
-  </si>
-  <si>
-    <t>$2a$10$vf1Gf.gIy8p4DWr88c3fDuXzN2adwinZcBoQEWaXEa.IbHLrChjNe</t>
-  </si>
-  <si>
-    <t>$2a$10$7iABQ4oFsKsaow.2bCnwsuTQ/YK20m0/jc/XBKy46HVAtw9rPFbDi</t>
-  </si>
-  <si>
-    <t>$2a$10$964JYlSK9OncjWhIK/duRuTM/3g1B8ZQCPtqMvMN0ka6hADJbP6sq</t>
-  </si>
-  <si>
-    <t>$2a$10$T260nCNL3PmfhgFgX1QV5ugzA1Z.nriCCy8JAm3n3oWExnFXw0UGG</t>
-  </si>
-  <si>
-    <t>$2a$10$FdEWKrw8ZIWvh2f.Wr1AY.ca3FppAlVxati3RebgNF7lJFL.609yi</t>
-  </si>
-  <si>
-    <t>$2a$10$gZPFV/RuxAF3AYSizySoxucbI9.Rbk9oD.T0pIvUm49e.yrEHorQq</t>
-  </si>
-  <si>
-    <t>$2a$10$TSR8vr4OSLErJVPt3uVs9.phZsAMWAKa.5lO7udE9EdlSTrkorqka</t>
-  </si>
-  <si>
-    <t>$2a$10$.cHoxWF5KIcavuhwWGseZunDGTgfxaO9sWNrPqX4ba/wV6A31q.r6</t>
-  </si>
-  <si>
-    <t>$2a$10$vJiSkMK1kqEstRKxYk9vnuGf5mu0G20CcoCcjGpv.Qq7pX1ea8mu6</t>
-  </si>
-  <si>
-    <t>$2a$10$G7CSdkO853FAjEtnFXJUVeEeD2Bn9RD/YYb2Fd3vdJ9RS6NUo1.tO</t>
-  </si>
-  <si>
-    <t>$2a$10$COrB7pyQs5G6KqIc4b24z.T.xksiJ4Xhgx/XVcOImQtm8RhmfSDFO</t>
-  </si>
-  <si>
-    <t>$2a$10$TY0S0VJu59iavZpTWKbB8O9biPEt3HqUg/0XLf7x931cm.FO45jqS</t>
-  </si>
-  <si>
-    <t>$2a$10$/8Gnlq5uDjLax1aF/XK4guLVKlAoIXkjLBJrne1SeDZNuQScSn4I6</t>
-  </si>
-  <si>
-    <t>$2a$10$Wjq3/pzgKI6IJ9kiIxLm2eSdUAWe9OT35Nqpw7HLkyXw0bAwP3enm</t>
-  </si>
-  <si>
-    <t>$2a$10$YtRPONkEgSETefo5jKQLGeIfr4jUnIypm/LdDlgOR0JYfxmRwm.3O</t>
-  </si>
-  <si>
-    <t>$2a$10$K6Bw8k3nxgDej7wC7cqqZ.cjznav80cnLeaglD8mB/xwyEt4AYi6G</t>
-  </si>
-  <si>
-    <t>$2a$10$bugSmqc6102pMdHnyp78jeiCMWViDRatHOTYOnviYEKt8KFGc3ZC6</t>
-  </si>
-  <si>
-    <t>$2a$10$hSrfuh09MZMX78Z9ghi7DuhaRm0cGdITtvHfde/erodth6kR61tbK</t>
-  </si>
-  <si>
-    <t>$2a$10$OtEJBQ6hMLw4B9DMZRJCgu7F1F4B1cH5Jyh37n/l6Fq6WjsoWrANu</t>
-  </si>
-  <si>
-    <t>$2a$10$GmeKpniv1.hFcyEkNitZR.6RFPOmcIu5dDfw9IIoydDIU2EZjhgvK</t>
-  </si>
-  <si>
-    <t>$2a$10$mMz4xO6Y/MLQzA9.86nVp.3flv/GxoPPFxGp6acfWJtYpE1f7KIq.</t>
-  </si>
-  <si>
-    <t>$2a$10$UmBXv61FFklqF2nvmqwD8uX1Cl5JIyiZQEH9Mp560clte2UFQz7vO</t>
-  </si>
-  <si>
-    <t>$2a$10$yNtI6ziW1P0POYLfxfCoruurwmpENiyG1/TVnO21SvfMNSUcbambG</t>
-  </si>
-  <si>
-    <t>$2a$10$VcAYeM5S1woD3bbUjMvOou.diV6qndzsz/cTCCDxS4iE5HveJKZC6</t>
-  </si>
-  <si>
-    <t>$2a$10$0ZSS5o6Vqd2V9MMHM3e60OKkwC3nhTLqfYSIffwnIN49qk.zqkzne</t>
-  </si>
-  <si>
-    <t>$2a$10$cTx1OtkrfoFS28uwSBxujeQsAotmq3f1unBNua2M6QUlbP4BdYihG</t>
-  </si>
-  <si>
-    <t>$2a$10$pa0V60gFEBSly/tmOuaEmOEAZdbzjocL9W19uCdSJpxOsEGluExBq</t>
-  </si>
-  <si>
-    <t>$2a$10$tIZ5r2JCpXaazZ6ZM5mYX./prJ1NOvZtGUQ39B0MV1X2Q31IKoXMy</t>
-  </si>
-  <si>
-    <t>$2a$10$VzIqt9W8qght.cIw9O/niOJHSfqC5CrskRtD4AxhWE2DCnbaRVMpi</t>
-  </si>
-  <si>
-    <t>$2a$10$5yCFS5iq6m8JKz5AfHX9/uNDp0/dPMJUQ2veMYBfUgWsEavysFGp6</t>
-  </si>
-  <si>
-    <t>$2a$10$MQpLickJFcJMPu/Y7k.QY.XqRmcAUKcUdtZbFmZiepZ272ewo6wYm</t>
-  </si>
-  <si>
-    <t>$2a$10$DEic/Apaca/WGPBFEzhOlO6jWY6opCRiMuAv3jN1lRqzurfirzBH6</t>
-  </si>
-  <si>
-    <t>$2a$10$n21PCPxOGET6cppohxgNJegZM12zMf9NTudQGiuJWy5U2rFD8oTGq</t>
-  </si>
-  <si>
-    <t>$2a$10$NQf9KWeAL5JKK3CL3WC5WOd5CPOxD6eiw2BszdDlGRDQI/lb9oNTu</t>
-  </si>
-  <si>
-    <t>$2a$10$zAjZ5IdgkxJ7VJnTkcwlr.X/.5kP.CtLNuE69bKV3glIWvfI0NRCG</t>
-  </si>
-  <si>
-    <t>$2a$10$uaF9zM0jFRQ/DBwtg6YIZOak54naL8j9W3IgcmxYr7soemcr62ecG</t>
-  </si>
-  <si>
-    <t>$2a$10$NUYEFocLWU//wRrNzBgjPe37MjcpU5ACs.F7hKIRr6xEDlJP1FX5e</t>
-  </si>
-  <si>
-    <t>$2a$10$EyPa2ej.D4LsxccvqmwlSe4yq/JpPiUfVQ67QvU.Fhmrm1XDNgJSe</t>
-  </si>
-  <si>
-    <t>$2a$10$52fhiAfG1CJFPqwrsZOh7OCX6QcziHrZfyH2YnBCmL9snOpyAXJn2</t>
-  </si>
-  <si>
-    <t>$2a$10$QuUc15t5YJfAF7tEV0MR6exxcAjXP9eOXHAs7d8Izu1IhyInKxT0q</t>
-  </si>
-  <si>
-    <t>$2a$10$KLCyCzmZ62VBVzHU9FcQGOXZjZWibwC5KI3wqteT0XkzfwSmISRra</t>
-  </si>
-  <si>
-    <t>$2a$10$w.5H1uFG5e2S9VKZbSGOI.GmOm2k0O7lH4FfhHoCZH0nrJPVeVCB.</t>
-  </si>
-  <si>
-    <t>$2a$10$HbR4.2LaodM3kXQCZz.QIeNV8FNvBV0dEVQnaLt.zWDaQSuXPZ1ey</t>
-  </si>
-  <si>
-    <t>$2a$10$HkhY7/BgAOelOrXxwQB5Ieb/z3TkndP1KxXowSINuC/mTnpJc9BFO</t>
-  </si>
-  <si>
-    <t>$2a$10$1A6PFT6x28DKqpbYU2q68uk7NO24puN3mUNkJ2TUSXoaFPfnkHHcu</t>
-  </si>
-  <si>
-    <t>$2a$10$l2OMWiTI4ax.jWMPqNmfE.Is1awKJkudZ46rOEfVZqMhOqYQxjddG</t>
-  </si>
-  <si>
-    <t>$2a$10$D1EeggPMK1dnFFVx7Kudz.wXbkgQSuzgFRNvm5Afly86Qns4ublaW</t>
-  </si>
-  <si>
-    <t>$2a$10$5OPrwhlwvLg24569tuI3eeN9A.YmcXmp4wtVhFiI1BVvOkRnFepK2</t>
-  </si>
-  <si>
-    <t>$2a$10$6.J9yziREFG63M0HkqydZ.QF8ZXWBGN9xDoDW0xhCqNrcSEa.3stO</t>
-  </si>
-  <si>
-    <t>$2a$10$qRpkROmgsdIbISlxWs/GBuHEF0pwRL6pmKdZA15ccW6CokHSfvBKW</t>
-  </si>
-  <si>
-    <t>$2a$10$hFAUpbqn03Dc/a.kiHLoaebMGOgpte5gq/i3GCNphX7c7gt8REkQK</t>
-  </si>
-  <si>
-    <t>$2a$10$iDHWaMYbCtN8BUiR7qzQJ.k4bQLo.Aw9WgODdH8VteGRntCGaIBgK</t>
-  </si>
-  <si>
-    <t>$2a$10$HXxkq4jCUbdhylVDJW4dZ.yA0IWpoY.9TaYNbL8.iKsDqDBmMcdwa</t>
-  </si>
-  <si>
-    <t>$2a$10$GcFxtWWApru1KsgshSsO9uttpRAuvdWlpnUp9tQibj9uYOvCEwbm6</t>
-  </si>
-  <si>
-    <t>$2a$10$FwPs0ikJ1N5OP1B961/iyO9wf6aoaKAymHj285oaWGffMstO3wUau</t>
-  </si>
-  <si>
-    <t>$2a$10$meiKvpSZ6bC7e9MQEV2x.ONQiftBNvA9B10S9y5aN9NNiA1qSiucq</t>
-  </si>
-  <si>
-    <t>$2a$10$wv0wfmOfWoKVGlcQcwIYQuSAPXmTEiaJZ2.xDYBDQP247z1lUwyi2</t>
-  </si>
-  <si>
-    <t>$2a$10$y1Q9v4IunlC4JVsKPAdfF.2HgHJZQMBEqfJXLBlwYd/89bjxT4pcq</t>
-  </si>
-  <si>
-    <t>$2a$10$Quw7T8MTCKr3Ft1SZWtDqeDQ5esZzuBXZXGJug45yonjavMUkT1Qa</t>
-  </si>
-  <si>
-    <t>$2a$10$DFdwQSulprzk/yquLHavj.ok.B2xskvWj88Gk62RHfS36TvFx5xAK</t>
-  </si>
-  <si>
-    <t>$2a$10$SygYFUDtLSTHSSSD6cMWVu57mWXnBiPDDH4Lqt3wVeopdh1mq2yqq</t>
-  </si>
-  <si>
-    <t>$2a$10$rJc37KOc2yV9TC0B.zo.Sum8BbBvC9puDOdXJs/JRerS7RWP27XvC</t>
-  </si>
-  <si>
-    <t>$2a$10$zExzIXnADr3NoX0o/dHBA.ruReuYGmP/ULJOZM4qgW07oZLNm3qO.</t>
-  </si>
-  <si>
-    <t>$2a$10$dGv3H4dQXMnPedSXR3qm3u6EybfGr9ETB85wizU4GYCa7XWDJjfBe</t>
-  </si>
-  <si>
-    <t>$2a$10$Y8Bn/bZg4b986Hm.PLl.CebY8G1FNrL4/8VpFh1Tmoueykj7IuG.O</t>
-  </si>
-  <si>
-    <t>$2a$10$Ev6ost03YhCpAY9Ez2iBx.SQzGf.AQzTARpgUq7stTS/IEt25VVwa</t>
-  </si>
-  <si>
-    <t>$2a$10$HrWevl2K.MXRzvr3ovL2.uwlue9lXR0DSWUZs2y7OQBdPMpqjksZC</t>
-  </si>
-  <si>
-    <t>$2a$10$d3rzKzY7sbDRbzkLm3ah9uCztMnZXEZ.c3u/Ui91ZMOcrp6/./nbO</t>
-  </si>
-  <si>
-    <t>$2a$10$o6PVUz.Lkk49UEfuORTheOytX365JtbfCFp50/QZfnKVXiBjkW0/C</t>
-  </si>
-  <si>
-    <t>$2a$10$5kSUk2x7eqmRDwLkHEtXo.kZMGo4BjLLcYRkoG32eRwJzId4lQgES</t>
-  </si>
-  <si>
-    <t>$2a$10$sTXKz9NnoWSXQQ/caggAQ.mTmql1qua8htCOydm4PcK4lRANGnuPm</t>
-  </si>
-  <si>
-    <t>$2a$10$vCo2KTbQrrX3m1ByysoeRenIg7aQOgQo/br2Xy9/a7uPlnt4cqEaa</t>
-  </si>
-  <si>
-    <t>$2a$10$pEEiCMG9aFlf1c6YvrH5f.QdZZc2UycbluoIwxab6veqN7gASdXcu</t>
-  </si>
-  <si>
-    <t>$2a$10$KvEYvM1XirMv.nD/xKB/1upJqFRZ2luQn3nwcaqh2yBB.C0z7RJli</t>
-  </si>
-  <si>
-    <t>$2a$10$Voc27UAkc0emLfPRcm6uAuocJQ6vdT5jNRGG7AtoReruVb18EmH76</t>
-  </si>
-  <si>
-    <t>$2a$10$B3h8/BvK1x5EgC5lWAIYBedbhoh3oNKHBLHnOHtTmrV4xf51HZpyK</t>
-  </si>
-  <si>
-    <t>$2a$10$fjw3Ukzc8q.28Ac9mbFkH.OuSuRvmmx/A9az7PftkNsnwRuGMK4z2</t>
-  </si>
-  <si>
-    <t>$2a$10$yz1aO4mdGVLDtc.zh4b8kOHqMmH.s0MSH/aR9/U5QxN9w0sHouwV2</t>
-  </si>
-  <si>
-    <t>$2a$10$XaeknBmvJIfLsaf.FCXt/OdAbgXUccappVTK1UZgRm3loereflX5G</t>
-  </si>
-  <si>
-    <t>$2a$10$iVDGxmQrz5g.w9K9t6TkCuKGlXFcLPWJ.gGDbpNDo5RWuhGbLoHwK</t>
-  </si>
-  <si>
-    <t>$2a$10$JRRxeMT6o7dzuZSK6szkLeVPkQXcDkXiHt27.6syc23LEO9Z0WJD6</t>
-  </si>
-  <si>
-    <t>$2a$10$rgpX0hfQFjWpxWodOBDIaeW1BFbKVV7kJhqYMZ1LLu6.Bq8vci25m</t>
-  </si>
-  <si>
-    <t>$2a$10$tusPLIhEAU3vh/ucSRKwEeeiTdPCMXFOPMi1/JvQLuPPeckimVtyi</t>
-  </si>
-  <si>
-    <t>$2a$10$25Lh74BLgrkzyj12Xc5yTuTy9wmuhidZA3xdaEsqdbU5OQAV/IG3C</t>
-  </si>
-  <si>
-    <t>$2a$10$KAJH.L.lpAp9hWMapZmEVuQyYOUuBKdPoo1VWtbXalOsw65MAyAy6</t>
-  </si>
-  <si>
-    <t>$2a$10$VAfQRZ.G8GU1Ba6aVovOpeRQTNgvgqsxbTUHzXCnFKpAfEZ22UTqi</t>
-  </si>
-  <si>
-    <t>$2a$10$dvo.dPXztzJCIAjgvZTkvONj/ThSHSkOMIbaRQYkds1BVfmxzazwq</t>
-  </si>
-  <si>
-    <t>$2a$10$U5/ITcTgCFSxWbLyKJuhOOBXerccp1uNxMQ987OdgTbLpgWuY75ly</t>
-  </si>
-  <si>
-    <t>$2a$10$vhWfHqw6GnG2YavFx.i4we4nG9qcFfIu3yj4fP.NbGvH7v0hU1F.S</t>
-  </si>
-  <si>
-    <t>$2a$10$mlkJ/w89LZM3WNhcgZXmmuJtxOuoWGjUkR8R7HKfl3HRSPa6WUwNi</t>
-  </si>
-  <si>
-    <t>$2a$10$xvRUHLyoKx1NhyevtYeFqu/ud59/Vlno/OOaQzxy2HHsmLEQWvk3q</t>
-  </si>
-  <si>
-    <t>$2a$10$yVORpJ6cNQaKW1vlq69EKOILigNNLCN5q9gFPcrI.Ws8NK7P.G.1C</t>
-  </si>
-  <si>
-    <t>$2a$10$4Ya2DgT6o/9FXLYc/SGEXeecYtU1jiyP7n6jLyo.lH0TOns2CZ4G2</t>
-  </si>
-  <si>
-    <t>$2a$10$OcTWVgYWKMmdPRbVhujXx.FIGNP7KGJRG/h2Ty0YsfVEgE6IRZro6</t>
-  </si>
-  <si>
-    <t>$2a$10$jGparZIcv6TDgxIdJ5v0DebmMRtLCgaoyPyZjzZZ5UKloMBjhG/M2</t>
-  </si>
-  <si>
-    <t>$2a$10$YB7//pwXdMNVcoAJbfh5me0zDl8bYVN5iHuER38JIo9bD1i7NRmAm</t>
-  </si>
-  <si>
-    <t>$2a$10$RnsnVbP3Pa1vK2deHWcYGuOrAP0cLT87ejqYJaKpnK.E31.qM/J8u</t>
-  </si>
-  <si>
-    <t>$2a$10$.2ZCp7u6.lB3oZL5OZ46P.JD9CHR06uBnWMijJWjFrZk4rj.vNJey</t>
-  </si>
-  <si>
-    <t>$2a$10$.SMVOQEW760/ujuy6vGwMO.zCIojOu7SnsiYIKPIboskuVZuoqR.2</t>
-  </si>
-  <si>
-    <t>$2a$10$15k.NfjGvGBgJqJ4ICpaROPp2I9VC4ciwIkifS55WpQXHJlob6xvO</t>
-  </si>
-  <si>
-    <t>$2a$10$NTsEOpsl.35fcCkb7dSfH./Ec1H75ed2RykKnIGSCw.GDplNU6UT6</t>
-  </si>
-  <si>
-    <t>$2a$10$uSRPMAx2z.RGTol98vpzFuR3B3GBafUHWJFF/80X7qzYoMlf1HMAu</t>
-  </si>
-  <si>
-    <t>$2a$10$Dwm5f1DfeJnRTuL3XZjzpeZkwrWj4put0A9euv5W6N3ZZDCLuzgRO</t>
-  </si>
-  <si>
-    <t>$2a$10$DHxCieFRdAYexh/9rZior.hY4DmRb3tHYS7VMPpISRB.dHr/W6PU2</t>
-  </si>
-  <si>
-    <t>$2a$10$PjSKka4ZxYwrJ6zfmC6wf.Z68fJ9Wbt83yTIv8RjWC3PYcvVJ8Hxi</t>
-  </si>
-  <si>
-    <t>$2a$10$tl63KyJOYQIckmbwz.dTlO4iezzO5E9ZZrjRGtv8.Dg45QKfXp.Zm</t>
-  </si>
-  <si>
-    <t>$2a$10$vX5KEYoJaYsSmsCXeu.RGOdcsIDobQoR9PsIg1HkHwGqfuNKZY02.</t>
-  </si>
-  <si>
-    <t>$2a$10$SmhI23qiKv72lcRm9lzw0OGYHrcNneVgK8dttCbUgsOeWDJKmXJRq</t>
-  </si>
-  <si>
-    <t>$2a$10$ne7HdWNb1b8hEsrki0VHt.blg/T59t.smMwalA2xdBdyYaQtQZW5q</t>
-  </si>
-  <si>
-    <t>$2a$10$Mp/Bo8asl9lkzODtivOlxu4eNrNa1Ew6QMh/V09NBdowjuuvGjhxa</t>
-  </si>
-  <si>
-    <t>$2a$10$hMwKeP.meSGpOASrHPby6uyJqTOPcWwF.cZpm77yfozE/0Ixb1h62</t>
-  </si>
-  <si>
-    <t>$2a$10$du9Gcze0ZeByqKvDetJy6e73fdbm6YSSRKiQvmmsq4CaR5qUDHnvS</t>
-  </si>
-  <si>
-    <t>$2a$10$c.2.8dnh3ynbWEjth2TlWuNVu/2nnvvtktUC6PDnr8g3HSgH3VpkO</t>
-  </si>
-  <si>
-    <t>$2a$10$6Hwt75bMNPp8xnC9UlnuEemWhz1UlkWkK7I0mWyd2QchXESQDUFRC</t>
-  </si>
-  <si>
-    <t>$2a$10$4u86fAu.4YsQBnuBjaXaIOk0Y4iawetxeNpccOAfJwnDMftVWOKH6</t>
-  </si>
-  <si>
-    <t>$2a$10$yTB40AMXGaQ66ESBnBPqfONNPYlEtkk/UkSlcI/m7vLWHADqO/yDm</t>
-  </si>
-  <si>
-    <t>$2a$10$XoTdHpcjeomhfspHsXqWCuWkjBFo1/wqB6nCX1WbCdiBQJPzcyRia</t>
-  </si>
-  <si>
-    <t>$2a$10$h8aIFFq5G0YTmu7AqKfG8uwBg7FpdM2W19/Ynmuu6tGqbRQWXNwj.</t>
-  </si>
-  <si>
-    <t>$2a$10$DSMoFSsPr8m7sX1jM.Ruo.HQhTJaCEc1Eo/08uA4E3rCKJ4g3Tms6</t>
-  </si>
-  <si>
-    <t>$2a$10$v5Lw2PGPFk0qSRtpcmwFk.AOxmeLSkkCyIolJRQONL9gA8SU1t1oa</t>
-  </si>
-  <si>
-    <t>$2a$10$OmGppCr16.fK//CLbFkw8uQKKTEaWvg6kQQA8u56b6sqwR0zWSVBC</t>
-  </si>
-  <si>
-    <t>$2a$10$oGQVWlIg3sIo/uGCd7mFZeYyClYLXjEBK7DEPi1NFNwCdurYdB5si</t>
-  </si>
-  <si>
-    <t>$2a$10$r1Mc0RG9r4Jaey34UOuE0es0JaNtoAFLsDR5hxOJoLAxspb0sWMji</t>
-  </si>
-  <si>
-    <t>$2a$10$OdHnIkWxtcPP51I/mPQWbe46tmrt6F33hmTasSA2miEMDZZzf4wFe</t>
-  </si>
-  <si>
-    <t>$2a$10$Y2yx08w7VMIL/DwKR02yfe7fvtGoX/9LjChJ7Xn9NyB.Mobfpsdyq</t>
-  </si>
-  <si>
-    <t>$2a$10$U8Hlc3bLgv2sbPMvgvlHJeMgYSL11qpjGFhT5gIP/a/czQUcNwYcm</t>
-  </si>
-  <si>
-    <t>$2a$10$PejtUJ0ljZVXCbLw19N8auZAC2haVaTwAQiwlJR4wzOqPns/9ydO2</t>
-  </si>
-  <si>
-    <t>$2a$10$l6i57R.z6ojJmFEUszTwcOLcY8nSabhSQRPPz7T51G6pMBDVe./0q</t>
-  </si>
-  <si>
-    <t>$2a$10$FKSErSenZdtnqXE/pJDMWeDVlvXqiiYZ2Bflf2LwaSxfWB.OrlM9C</t>
-  </si>
-  <si>
-    <t>$2a$10$JQvhPSJuhc6npFpC3f33qOXjjMGkPA0lHYONXXfrz.D3UIN7Bykpm</t>
-  </si>
-  <si>
-    <t>$2a$10$2Js8KKyEMC5B7Wl4cpqAleilLJn5w06Ai38laxnsyYrs2IsnO4Jxy</t>
-  </si>
-  <si>
-    <t>$2a$10$FAnuus/QDMe0gPOyeXIPMeJIJoox4fGhlxTQGy09JnEwJQXOYUlPC</t>
-  </si>
-  <si>
-    <t>$2a$10$lwHg3qQABfZVpiLzLlpCe./FKM8FWbdYAyI9SA8A5NfjXvj/cMhwG</t>
-  </si>
-  <si>
-    <t>$2a$10$TPdNHoomEt1ctUBMq53.4Ogxn3UwPl41Md/GhxrayWOSVglXLT8Tm</t>
-  </si>
-  <si>
-    <t>$2a$10$BqjtgH.r3f/CfHV2EH4NBesJiAnbSC9jpcFeLIkT93AAmAayrmSRm</t>
-  </si>
-  <si>
-    <t>$2a$10$pLN9tAkZUJcsxZkqJabjYOhQenEQhOF1w5zcqp22ApFlny3S6TJwe</t>
-  </si>
-  <si>
-    <t>$2a$10$uzdPrWnUUdUFXrQX9eQLMOkH9LeFFU7zwSGWtgPD32VKS9UY3r0yu</t>
-  </si>
-  <si>
-    <t>$2a$10$P6T4hfp6LGiDefTOaYclyeHuiYwnpn82R6ODPuZdTv6xwqVKd/alO</t>
-  </si>
-  <si>
-    <t>$2a$10$Vt7mY8RJ6pTreco3AdppcOroOZRiDA7tXs1HMwrS8OeCrTsT4BdcW</t>
-  </si>
-  <si>
-    <t>$2a$10$XK2CaDI3iNT3AhPQf7d2HOUVlE14ht/xewjlFUQNxgEzspV2oATfW</t>
-  </si>
-  <si>
-    <t>$2a$10$kITRoUUTCuCvtb3cThrAqencq7GNPztevSVES1YjR7TJPc7x61bDO</t>
-  </si>
-  <si>
-    <t>$2a$10$c9wv.9HLjnowsCc5uoO.GOTbFQiGHlpxbsFFNB00LrjcWBITG/lsO</t>
-  </si>
-  <si>
-    <t>$2a$10$0zr9hPHRixFlnW.oI6gZRu..mNoegJ6R1lt/k2Da6Owa2fOyd156W</t>
-  </si>
-  <si>
-    <t>$2a$10$0QRfbMe8V1BKU1/5k4XMyuJs3YE94Y7pgmjF9zaCH9JD9xXYDoMkO</t>
-  </si>
-  <si>
-    <t>$2a$10$ZuObCIrO5kgjS8sRZ8FhpeCgZSnOJbNNdJ2p1vscBe3TmJug2qcey</t>
-  </si>
-  <si>
-    <t>$2a$10$e3YA2La1bXiU9wAD0JduXuBrIqbz7TLBFhnAXUvy6iiryo6Y1M2/y</t>
-  </si>
-  <si>
-    <t>$2a$10$/RGhsM9PLfCmDBjeesqPye4iC3dx9.SqqXk.QblkfzJ211JFwVCbm</t>
-  </si>
-  <si>
-    <t>$2a$10$nCrYxOlb8r.qNomzKRb8geSSbHv/IM0wRPQ0jKctGQVYKBg0SPVqG</t>
-  </si>
-  <si>
-    <t>$2a$10$UFks0pRKoRqpKvbZS8UMpea3P4MIgiqiS8CjjjSfwMV3b9EvmNCkq</t>
-  </si>
-  <si>
-    <t>$2a$10$ylkhkcn1UUukadquEruw1ellfIfw3tkwI3tv3FsD2K9VabKZVsh9a</t>
-  </si>
-  <si>
-    <t>$2a$10$FHVPbcxdNSID9bM4WwZGv.cvjCOqDp2Q3TGknMSEBXqAD773WpqUC</t>
-  </si>
-  <si>
-    <t>$2a$10$WZesgJd1vdp2mzDux9TH9OHyMEVt88gkg7FSiS/P/0Vi65W2qgreK</t>
-  </si>
-  <si>
-    <t>$2a$10$BwuweLnJ..VzCb9Q2.vuQeYzzS8Q70urjTrq1vIpabEWSJu3R3wYa</t>
-  </si>
-  <si>
-    <t>$2a$10$dsW3SibbxT89cZgt.9SEDemHvYsEZyNkKMKOR5xPxkumMNQOV2y1W</t>
-  </si>
-  <si>
-    <t>$2a$10$WH9Ez7MNFJbfGj6/uPI9MOpIGGTODFuRbzPaKtsDxlghrcurEYMPW</t>
-  </si>
-  <si>
-    <t>$2a$10$0KMZKRdAUhfwcA0ELQ8elOR3d1GSAXrFxq1MHwQslS1HjDK79cqru</t>
-  </si>
-  <si>
-    <t>$2a$10$kBLWInOQDP1zSFXziOpqQeaqaegCxEom6ocMR0.bisDxJPbJuQS6a</t>
-  </si>
-  <si>
-    <t>$2a$10$8QIk9VbdVdfsgza2FHk8Nuf6OQS.ppYE1jd4cXRzXoCpTIixZDC2e</t>
-  </si>
-  <si>
-    <t>$2a$10$uaBpiyIAZkulN0hGbRgNrOIfjhBOJgm01qWKDT4WdKEdGfQIal7HO</t>
-  </si>
-  <si>
-    <t>$2a$10$aBI0B/IT8Q/kqBKxLKFzteglpRiPL0vzHOyYV/COW4MM9WBA1fTSm</t>
-  </si>
-  <si>
-    <t>$2a$10$S81htSXDloHM6M8RYPCgVuMMz.bNcZqcb.cafrtkLCRodXaEnarui</t>
-  </si>
-  <si>
-    <t>$2a$10$R/dJK7dCck98lnCCX50R.uk78sOQBe4N2Tn//UMWKRIym029vERHS</t>
-  </si>
-  <si>
-    <t>$2a$10$cuXk3mQHMuN2/i5/meAf9eC1BDoxIyIZWO983zbKLnm8hNph8eOMu</t>
-  </si>
-  <si>
-    <t>$2a$10$QHAC6/txWXWkaSSqm27Uoeo4gGmPPCPw0dOcqqWL3Ae7fKBjhn0qW</t>
-  </si>
-  <si>
-    <t>$2a$10$x5/0WVRh8Oei8DjzpZeRj.EwBHzsVzaq3ex7icZhqr2Ff03dA.eGy</t>
-  </si>
-  <si>
-    <t>$2a$10$anBWHRvQXaQIEIZaozb3we..NnYeqYwecxZYmP6e4w.fHyFaOq86G</t>
-  </si>
-  <si>
-    <t>$2a$10$ChEhpiBiI6lth5AMe5VjVeSnILqsU/3d3zjB4g9p85NELOQDoFPge</t>
-  </si>
-  <si>
-    <t>$2a$10$uDZ8K2uWJgzutUpOaE0B6uv6hWwgA6zUTKd8EBnRGSa37Ot.1wmje</t>
-  </si>
-  <si>
-    <t>$2a$10$Mv3r8GJMWg8marJfb5ZYJ.98s.FKK29T4MGFKiq2SuKv35fLXV5.C</t>
-  </si>
-  <si>
-    <t>$2a$10$4BXieatxfbn//emakxKzWedsoLIoS3FmuwxE253FWjtTiyfJ9PJfS</t>
-  </si>
-  <si>
-    <t>$2a$10$WMqikNX0QhavZQPf9y9r0OcMOKs9nljP7DOkW8oX9qgbvxgFkpMXy</t>
-  </si>
-  <si>
-    <t>$2a$10$QH4qEPsTQw5IUPrVQizvrOpkEA71KD3Neapav95Fz5eeU705SkF6y</t>
-  </si>
-  <si>
-    <t>$2a$10$9zMW0Nb8hBfb.BlgoZOyLO9Tpd8qtSvgqn6M8uPoDmngMT5iN1eae</t>
-  </si>
-  <si>
-    <t>$2a$10$FFyNa1OGaCzc3FIwzSq7CeEI.mw8TCCSO0PhKyJxhT67N7Ti/JNF2</t>
-  </si>
-  <si>
-    <t>$2a$10$Fci5I.fMKoX94n6Rt038Cef/A7.PZ5.PbiMH9OMq4lmck9byrpJIW</t>
-  </si>
-  <si>
-    <t>$2a$10$MjTxAr2KZSOdZ.KYxwUrgOHnz/90VS9zvAxJmrbb6HDEOxn0gwFC6</t>
-  </si>
-  <si>
-    <t>$2a$10$j8Uegt6DR3GlhpaeVpyHa.DTvfbCjeYj6wQkUisUqKz3AIPtzXdGS</t>
-  </si>
-  <si>
-    <t>$2a$10$b4YedLNjyQebYrmJCZAYAuTtA7Li3s9FQmI.bnQvB3NFVDheTRZPK</t>
-  </si>
-  <si>
-    <t>$2a$10$5pvq7pnb4FBYkcqYEDJiHux8JsWG12ExCJkpIUBl.IqKyhVdfkdLm</t>
-  </si>
-  <si>
-    <t>$2a$10$QT748V.4.oXzjxHJ8Og7ROkrWnNgsgskVUZ.agNN9zep9H75vBV2.</t>
-  </si>
-  <si>
-    <t>$2a$10$cAZU4asyJ4K5npjDSULvnO9ODSpXlTDgZk3OCoguXaoBkzkTjrWEm</t>
-  </si>
-  <si>
-    <t>$2a$10$2fZva0LJYjELKHlJv6/FvOY1anV3jqLQJCiWa.7rxvDVZnrGaMVL2</t>
-  </si>
-  <si>
-    <t>$2a$10$BMKwwha58BrcEwkQtXDteO.iuyyk0A.5tNjy1U1x3TrnxhXKQTcNO</t>
-  </si>
-  <si>
-    <t>$2a$10$cZou.RWsckJqnGK9j8DnMui5QkQnes6wkx9qcU9UvIE/6ZI0MiYny</t>
-  </si>
-  <si>
-    <t>$2a$10$qi9RZ9kC.SvdJEJ.KF5yke6vSbbbav4CwPMQQIjrhZC/Z06H218sy</t>
-  </si>
-  <si>
-    <t>$2a$10$w2pJLaoLYnmqzk.o86Rmae8Iv7IT3hgL4Tq0KVE1oTRdMfZd3JHUa</t>
-  </si>
-  <si>
-    <t>$2a$10$MECfaa2saCzIpgbeEzG54OIcJA2kpXFPR7mtXrj9.rTKKBS6F4/vS</t>
-  </si>
-  <si>
-    <t>$2a$10$Xb52ogOblQ.lE0G8PLYrDeU2cu8epuVsH0DCwbUAeQaUeBZZpQvQ6</t>
-  </si>
-  <si>
-    <t>$2a$10$2Ei8djOEQmlEkMxTlawsg.TyM4lAm1v4jjd.PYMXxuk33mpXNkrLS</t>
-  </si>
-  <si>
-    <t>$2a$10$ormC6Rg67cYwqnxbulZxGe2ed7AbjxhpF3FUsEOFxTE4KjdFuBPNi</t>
-  </si>
-  <si>
-    <t>$2a$10$fgS.NNLDg/lWf8UDkaw36uxuIhLDj4.kZfU7hs8XYKzUiHzfnwZmK</t>
-  </si>
-  <si>
-    <t>$2a$10$cteRg2Lwe07jpTgfU1d7/OjRkK05lMCgs1o8LzN0pQtM43OlOAfBy</t>
-  </si>
-  <si>
-    <t>$2a$10$5r/hXWUD0JYwsR1f8Je20eIAlFnZu4YvbYj4W4Hw1nuwzwzyjhcMG</t>
-  </si>
-  <si>
-    <t>$2a$10$2sBevlcWv29Oerk3QJNcoO.bgKKZpNWs3wLcbmyCK7K2F0VfMmLc6</t>
-  </si>
-  <si>
-    <t>$2a$10$4gtYWz18Xfa29.zerYD6MOYKVNUg1d0Fen.LM1relHISVCdrd1Dhm</t>
-  </si>
-  <si>
-    <t>$2a$10$xtYVDFZws13lS07adO4S3ui3ldzKz5bj9dcTOPDYXklZo1B12qXve</t>
-  </si>
-  <si>
-    <t>$2a$10$g0NzZP2zfS8fmd4z5kCA/.Tt7I/D8bQVf6ICqrQg2y5ntd18/W9Xq</t>
-  </si>
-  <si>
-    <t>$2a$10$E9R6BgsAo50aRRsFMjBoUupb382zQ61Zfte021ziImwWxZDOOnrzy</t>
-  </si>
-  <si>
-    <t>$2a$10$8pm16ibfpTMbUHcvIqQ50eqMioeS8yA4ypV1mClWFaK5xpMYgRUVS</t>
-  </si>
-  <si>
-    <t>$2a$10$PjNpZYOOv4Cs6l21Ogv5fuvTlMajuiK/wohvA374r75Oco7MU7vjm</t>
-  </si>
-  <si>
-    <t>$2a$10$FrSLN8Ng4/AiONOV3RTn8.gvJTMNuV4ezvOZzIdFp3mVjeNFIzoC6</t>
-  </si>
-  <si>
-    <t>$2a$10$mg0y.abzhXSEiu/Pdd/GOunyguo2n5tSo4HLMr12xHnFzpO15FbK.</t>
-  </si>
-  <si>
-    <t>$2a$10$EJ6ChIK7ty4l.GVK5h685.YXUVnLtgnwoQo2GYkCjDNTC5ThCVKYW</t>
-  </si>
-  <si>
-    <t>$2a$10$XwCcTsFvr3FrlwShg9r36e.Jmm4ZQmm9RMBua/1w6eNtd8x3iSSrO</t>
-  </si>
-  <si>
-    <t>$2a$10$S/YvC.l/9ct4Z7XVYwBM7e4OGJi1spcfNv6G4gzj4FkKOnowUF.Xq</t>
-  </si>
-  <si>
-    <t>$2a$10$L2XmG/.sDTqkydX9rMcRGeufQdrhJVWHsU.0w41EAO.Ph9Kt5Id8O</t>
-  </si>
-  <si>
-    <t>$2a$10$Rh4q.dP41CCIM5qaXIkbK.JBJgGBfm9h8Qq9NvpAc8BvVh0a0tJTq</t>
-  </si>
-  <si>
-    <t>$2a$10$Hf2usqCsWwYky80UFZx7U.yA1w2KgsHoEnj4pT941cAXcahdAb/9a</t>
-  </si>
-  <si>
-    <t>$2a$10$9QCl0AgUo88HgoUdAa4/luGu2RBE3SZKhZzVMQmRLkCmLkGaccRMW</t>
-  </si>
-  <si>
-    <t>$2a$10$mGxiRZkYtpcllgipNPCzoeMKF5HAZ9Q0vkuaNFzzDJ8MBNiKmmFSC</t>
-  </si>
-  <si>
-    <t>$2a$10$HQUx4HJLwwzoBlWHAdyXxOqRKhoGP75MAwEjVHH1ou0Va7WQ.8eZm</t>
-  </si>
-  <si>
-    <t>$2a$10$biooDfGsI0yMuhnT8d2EeORcRbzRCJAh8LxrVSZol/sNrC3tacJaO</t>
-  </si>
-  <si>
-    <t>$2a$10$0QPpbiNjkzKP067OQcb4Ce2w3JD4C5GTf/y5GSWBH5dBK/R.5tXRa</t>
-  </si>
-  <si>
-    <t>$2a$10$y6bEuOmTixC2M..ZeWLGKOxHnc8xCx/85hnnTkkk4LFnSEPxsMy8a</t>
-  </si>
-  <si>
-    <t>$2a$10$RDkenkZm.NybstuxvoDtbuoDkklT5j8sqPRqQXVAaW5qzYCFuBRpe</t>
-  </si>
-  <si>
-    <t>$2a$10$lAwfvQYAAxyqUQ3y3X/v6eu.daeFbePJ95GZBBFLh17b2hKQoYrQC</t>
-  </si>
-  <si>
-    <t>$2a$10$1BGRfbATZv3UKfosvdac4.nls7zVWOetAHyjAE7Jn5RHGiGlJg8kW</t>
-  </si>
-  <si>
-    <t>$2a$10$UF2B3W8rad3hSzv0vlmDZ.OAsnAaxS7pkq6HPLTF4SZVznf8m1iLi</t>
-  </si>
-  <si>
-    <t>$2a$10$6o7gSXBQLyrVNs.LlW0FZ.GOnOtNIUSKLBPzSRyrb9Z7ePeuD1G52</t>
-  </si>
-  <si>
-    <t>$2a$10$aBAfcc1eh8p63Y0rZjTTEObTIWHskTr58aWMQolsbW5RfuOYS8tFm</t>
-  </si>
-  <si>
-    <t>$2a$10$fSp6e8RpJ1RAggg3NDyY6uWWDDPEg0cX/9dM1RYjrayuiwyIHYWbi</t>
-  </si>
-  <si>
-    <t>$2a$10$QLFlARHoMkFaTIULSZXxi.UN2TCZO1e6d4mp904jtYnL60z/Gu9Eq</t>
-  </si>
-  <si>
-    <t>$2a$10$MskBOxoVDD/VbOFh.Catyuhz6ykScpwTAy3WbFkQxnXxHeWIOnaXC</t>
-  </si>
-  <si>
-    <t>$2a$10$cNPFy/TnsWNHwwZpiCP3v.RqLbOLarnwWLZ5n3uAt1nZ.Lt7rUqQK</t>
-  </si>
-  <si>
-    <t>$2a$10$mKHyofdqsfM0BeKDkKzwgecuXoq0w/Bcxv2zSyDsn6KmI2qkxdLwi</t>
-  </si>
-  <si>
-    <t>$2a$10$oXNXP6QJEhoWf4M8yr/rOuApg5whRoGxOlzniVJKpcIjnTYLFLbM.</t>
-  </si>
-  <si>
-    <t>$2a$10$LV6c7V/MPmgRd.v2xohRwOrdo8h.dXsluTFEGhJ/bD.YKu3L7mXM2</t>
-  </si>
-  <si>
-    <t>$2a$10$C6rF27jgKeEDNhO4pqZMnuhQldU2pAbbmfRLqMfy1fiXa6IXTfojO</t>
-  </si>
-  <si>
-    <t>$2a$10$.6Bew.mbYclgwT/MNq.aaecD9Se7nQ3KHP/FHjtfZnzhzTVEhsSg6</t>
-  </si>
-  <si>
-    <t>$2a$10$sizLj8PQOc5ddXKFAZoRcu55gLp.uN/QXYk7T2Ut6X5w3ncS9leea</t>
-  </si>
-  <si>
-    <t>$2a$10$Fj1CYQPUNI73HbgOaMMvIe3JLg9SLQaSL5E9PvsfkMAvkL6EqQvyO</t>
-  </si>
-  <si>
-    <t>$2a$10$lBVFVjkxQsHMuGJKYfsIzeSwwf6jZNkQSQ5W0ehGEVr1BAMocb.Ja</t>
-  </si>
-  <si>
-    <t>$2a$10$OoK3THkUPkxLnTZdlA/Lz.g6gzlZex8ZgDqfeJJneIdG.R0SWvoIu</t>
-  </si>
-  <si>
-    <t>$2a$10$68HVM3aluhB/cO6CSJHLu.B8d8YnSf6WzFRc6o/xFvngkBghDzz2W</t>
-  </si>
-  <si>
-    <t>$2a$10$iLPDL.jEi5zWr4yt/YQAvuEWPG2XL6sACmKmrzycHxrKVDoigV7sq</t>
-  </si>
-  <si>
-    <t>$2a$10$cL37z84M0yFNijFbxvSsZukp9hcBN0KoLmm1cMeS9kx0DRLHaQCXG</t>
-  </si>
-  <si>
-    <t>$2a$10$1atDKS7jUiFGhySFBxFRluz62w8iXDkEdIqVPYTaKF6wihgIyDc0S</t>
-  </si>
-  <si>
-    <t>$2a$10$MHxTL.uK3fOu1W/XlC6czOYXuX6SYItgrlsTbgx44fH49my1TeAga</t>
-  </si>
-  <si>
-    <t>$2a$10$0GlqfKBu3v4rsHTcM74VTujkpXemtfHpf0uoO4jP0dKiIbNKNnVhK</t>
-  </si>
-  <si>
-    <t>$2a$10$qF6DF71YY/J8a0bjpaS1wOV3lAPDiDJ.R2Zm08rv1N4PxpXxoiPYq</t>
-  </si>
-  <si>
-    <t>$2a$10$l6XnP4s5DBUPw8F3FBKFDefjMrY6k74MfdA8y7BI.OMdAEzkxWjCu</t>
-  </si>
-  <si>
-    <t>$2a$10$vx8s.wv0XphsROwKKSN84OSioW8TiLIFirhak6C3PftMY1wsGmFne</t>
-  </si>
-  <si>
-    <t>$2a$10$GOhHdshgTlOIoINpVUoVX.lyPv5njNsWVinCLBV9AA28Op3nCiboi</t>
-  </si>
-  <si>
-    <t>$2a$10$P8OR15RTdj3m72g3rz1hV.zXB0AccjnUYSNazndRxoZ8WIjqbpQ/e</t>
-  </si>
-  <si>
-    <t>$2a$10$Y9.6bi7LgMEP5wKQBbjrQOC/XLuQBkJDWglIzZ0IKiYBAMYzbggje</t>
-  </si>
-  <si>
-    <t>$2a$10$C.TjsEPIw8Tu8K52Qt2nXeTUNQT1BfLUirzvlv34LQcbAxkGBz5wa</t>
-  </si>
-  <si>
-    <t>$2a$10$tBgvTKQvEtnnBEsdQcaI/eKM6eMURPbIq69f8C4eevZDXW51lWNIG</t>
-  </si>
-  <si>
-    <t>$2a$10$R5zPUqHy/zXPD2WpB6zVpuIomBQ1p2I1U./TIjMkAAjOxOYp1qOyq</t>
-  </si>
-  <si>
-    <t>$2a$10$g0pwxxcWLq2rlOIfDNIa8u/bIpNhZTvBM7R7aOvYXO2/u8DvZACN2</t>
-  </si>
-  <si>
-    <t>$2a$10$6q.75cFOuzYGW174A1aqK.XSrb11h5euKDEKqLCZ8dciy6qawPtdG</t>
-  </si>
-  <si>
-    <t>$2a$10$j0J03DqZGgGR.FkJrfsfv.aBYWRLHDgINbGmxeJM3ytpQJ54PLUK.</t>
-  </si>
-  <si>
-    <t>$2a$10$eaw8wkgirENN5wCmbZKfxOylfrlLfUDleVQrtUCFkNSZ2g1/7UVe2</t>
-  </si>
-  <si>
-    <t>$2a$10$f7OwM4R0dyRPSHxn7HundeNPGf0Y6dSLFCgpC4AB.hThBdcOzvDG2</t>
-  </si>
-  <si>
-    <t>$2a$10$3pJdMpubIHcq4Ejcddj8juG5JNRoUyyiVf3F9N63XJJMJ8BLedYSC</t>
-  </si>
-  <si>
-    <t>$2a$10$ddiwGhJf/hn4YdrN0QmXZOXzAlIug2JKZ1NpsKCblcIe/iXlKMG9S</t>
-  </si>
-  <si>
-    <t>$2a$10$GMDLQg6/zfu00lYzUaoEC.0LpfxbpW/ncpChBAg9BKaNEjf3OS7iK</t>
-  </si>
-  <si>
-    <t>$2a$10$y5B/5Q6ylVe1vj9P/ak6seTFkwqyBT0cKu7NwgpEgivlNjezIM6Gq</t>
-  </si>
-  <si>
-    <t>$2a$10$bzRnBwVWSww6w0IBRSnqyO93UrtahOMY/APl3WpyJAyNF.0Kv6aZK</t>
-  </si>
-  <si>
-    <t>$2a$10$Q4bie6Vm0iwff1MrPYEx8OpmQEvlRxl5zQHFFmb/BwoMJp5Wc.voi</t>
-  </si>
-  <si>
-    <t>$2a$10$XU2W10T.Eor8HERSLJF/sun0Kdq/xc.Q2yQhZv1ZBycj/X8zU1aoC</t>
-  </si>
-  <si>
-    <t>$2a$10$cO1txW.h8Woz6ggMRV.PvegGPWuQP1WBAz5aOeRbdz02pzUoOUagG</t>
-  </si>
-  <si>
-    <t>$2a$10$kDGR0g.QM7vG8Tyuhxu8AuXn0HbghyLCLr7U54FF.VBFBl7W5GiXW</t>
-  </si>
-  <si>
-    <t>$2a$10$NgCM8jSBazN1otoc/N7SVebM0AhsJdaTyLsZjtWoo64jnKQNfMUha</t>
-  </si>
-  <si>
-    <t>$2a$10$DVj9H0YsEmdwGSWlKdanBODEZQkYKYeGels3i2/1JMqP5jCaUZsZ6</t>
-  </si>
-  <si>
-    <t>$2a$10$YafheCrsas6o1zkyiFzGdO0C3SkOh3Ah7q/94w4MofheDULqL1XOi</t>
-  </si>
-  <si>
-    <t>$2a$10$qs7TX3ZC2rMy58FAjvoILunMVf3XfDexV9IamhLRVOuXXdbptGc1q</t>
-  </si>
-  <si>
-    <t>$2a$10$Tb7Dgc7uzC3Jp0V56vmErOPyZ0awgiSdyDUmAb./QXvckgs3iq.06</t>
-  </si>
-  <si>
-    <t>$2a$10$lk/c3pMXBPW3WQ3pc4RdpOAlsVmj1uv/iXP1ECYmhnK2EhIvyl4oK</t>
-  </si>
-  <si>
-    <t>$2a$10$DagzljNiOOxG/TBbBGaPU.Zu5iOs5i5v7hra5/dbGQYqVEqrSiZku</t>
-  </si>
-  <si>
-    <t>$2a$10$9Gs.q0d1sZ4e5FsQfW40PO3F2fDNEMIqcKWVNQWRAH6VFonSfGu7e</t>
-  </si>
-  <si>
-    <t>$2a$10$Nu5kOrEkVJOBEO7RPA0IiOlubd0QPK/lZc2n13xTTtkeu4YNddsL6</t>
-  </si>
-  <si>
-    <t>$2a$10$v6ED1NavWH0pD7TrCbrJ8uVXMbSkkGBundYzlD9r6BoFvtehB4Nky</t>
-  </si>
-  <si>
-    <t>$2a$10$xWBDQV/NDwVYg0kfYqo2p.1jnAoMfeHXE7ITySPqGBPTM0Irrhxl6</t>
-  </si>
-  <si>
-    <t>$2a$10$q0NJKWDG5t04P6xqElaU1evi2.8Nz20eZC1hPGutzf..zGzmYVzxW</t>
-  </si>
-  <si>
-    <t>$2a$10$kLxoAp846jSYXX2awilfiO2juzU4SSHKXqylAnQ7aO5A448JeG45W</t>
-  </si>
-  <si>
-    <t>$2a$10$pT3DmtZOUsKYALcdLKZ2Re3p217v7D/QkJ50CXl55Gj0dT1maOoMu</t>
-  </si>
-  <si>
-    <t>$2a$10$e3TzGpBFfr.9kkWDS91c6OYgY0GXRKtjVxZfreJKf86uV0M.p.QUq</t>
-  </si>
-  <si>
-    <t>$2a$10$UVd2iSjOpMWMCFHXGSXeH.ZCa4iUVbrg2uPdcsqVLHvKHapqifvyO</t>
-  </si>
-  <si>
-    <t>$2a$10$HqrwmnC.nAF6hFYSbmM6d.tBxKVegN2sEylESqWYTJEuQvwFcpRiC</t>
-  </si>
-  <si>
-    <t>$2a$10$aEv5HwCIN3uNCX/Ks8Et0OaTVU198NFlje3.Srk7BM4LqDaNoPHVm</t>
-  </si>
-  <si>
-    <t>$2a$10$biTzPDyug4Q52Zc0QGfH/OO66ONYzCfIwzOZQm/QGIx18gOOV02Ta</t>
-  </si>
-  <si>
-    <t>$2a$10$s/iTXWYDVGkjmfL7GO9UlulU4BaqomH8N0lsnBPbisMaOQssLuKAu</t>
-  </si>
-  <si>
-    <t>$2a$10$fNT9Rk0NOgNx8MKwSWOeLO5vFThAB/YOIFiUVDfaHOoQTGwdWdrAW</t>
-  </si>
-  <si>
-    <t>$2a$10$Hnur68h483la60241gO99u8HQePA6jaL4qv3KV4T/9zyIOqNQPNly</t>
-  </si>
-  <si>
-    <t>$2a$10$li19BHum04QRD/N4mxLJXubizHHBRej2IaRvZJS90O6M1yhfGG4wS</t>
-  </si>
-  <si>
-    <t>$2a$10$ERgKIqF1WxNNmHCUE3lJbORIHRSKdBEFYcGXRngN9nPzTI9gQLYSW</t>
-  </si>
-  <si>
-    <t>$2a$10$rIJ1wwQFmtIPOgeDWIbMfeiK03Y9mVwZtBtxqDC3mXsGys7HdXN0q</t>
-  </si>
-  <si>
-    <t>$2a$10$idCgBkY5/DqUaX/Sf3BUqO4W6Ru4rhHEdZecQe5P2busfxoQRFYnO</t>
-  </si>
-  <si>
-    <t>$2a$10$.oA15scu8jah2tS595ySeeM7q1fLNp07jjopD96YwTxYo2FtmzOeq</t>
-  </si>
-  <si>
-    <t>$2a$10$OMQ8rc.azUgGU3Zd8/zTgu9mWhYPUVp65lPqTgDK7GVz1Rn9U6R5a</t>
-  </si>
-  <si>
-    <t>$2a$10$emTuAulqY5E95bmI1UYqNOIQCIC6L7DDAynGqz30vmKpb95h5qDaK</t>
-  </si>
-  <si>
-    <t>$2a$10$gfEazTEjih75sMhHEmHY1eeU3RGhK.kma6TrtJRHKu2wPLHJLtuUS</t>
-  </si>
-  <si>
-    <t>$2a$10$6z3TneR/wldc4fGdz5sgAesaKEjduLbYcoGho9omAtBFDoTKdra/K</t>
-  </si>
-  <si>
-    <t>$2a$10$tiyWoWsQ7o0fHDoAl04rz.0R6bx34uM5ppP8N0gYk8ZsszxG9E62a</t>
-  </si>
-  <si>
-    <t>$2a$10$fqP7./1MsWhyNYV4vBeJXuHoW7t7ExPTaWt6XP0m0B5fZ/5FFUNdS</t>
-  </si>
-  <si>
-    <t>$2a$10$A5HZyNfAwRWzl3btwTh6MunctU.iXYMDFlB8PBksS7KYFrOP3Pl5.</t>
-  </si>
-  <si>
-    <t>$2a$10$82t.KnCLhqbegfYuSg.kW.eUhu1UcjeDlULdjeLHQ04Rb7VGMmleW</t>
-  </si>
-  <si>
-    <t>$2a$10$gX43Lu7RydQLGk9H.Q3uT.kKHz77ZZ1NZWmrB4AdOq5ALlpVDEv2a</t>
-  </si>
-  <si>
-    <t>$2a$10$2WO5tXN4b1GZdccBUHQWmOURxAaY3shZ8aakm5Es94cIaFqsdWy7K</t>
-  </si>
-  <si>
-    <t>$2a$10$FND.cT8uScFi1lNKw0cHP.hugxtcqiBOooNvm2d9ApoZCiQ3egm0e</t>
-  </si>
-  <si>
-    <t>$2a$10$lJKBnKVFY0pGpe9BOyUuquyF7pXQtA4n6xHhgFb6wswcXaioyTGaC</t>
-  </si>
-  <si>
-    <t>$2a$10$vAiq40KTP8aDDJu8aJPgnOmn63gRS6jOYMk2Fcu8mqZmabyNMSe.2</t>
-  </si>
-  <si>
-    <t>$2a$10$xupFgPDr/JcGYkWmT2BiQuchR.XQEojGG6xbtN9aWb4Z/Jq0ghpFa</t>
-  </si>
-  <si>
-    <t>$2a$10$/5anDmWVGljeioMHBlFIXexPGm7RV9Pgmc9ec4f8K7NFPLijXw3P6</t>
+    <t>$2a$10$b0O/RAC1ezLuSMfxILd0eu6JmlmLJETikQh/kBtHn.FcjZdfrWQ1q</t>
+  </si>
+  <si>
+    <t>$2a$10$Dp4/spaAo4h90mwe8knDW.C2mBVniz1tLHcIx4VWVc3IFUNHhrrn.</t>
+  </si>
+  <si>
+    <t>$2a$10$U35WZ2Sujq5d/XKnD84id.FyttXmaKqRz6P92QOwjBj.KS/EAwsHe</t>
+  </si>
+  <si>
+    <t>$2a$10$EUJQbtnFg2hauLxRWNDq3epx0xPRbjo161aaiVngZyNzuatwpeY6a</t>
+  </si>
+  <si>
+    <t>$2a$10$8d.uBJPeS0pJ5uJnYoYkMuzfSEAD2t6Kd46GcswdcWj8uXng1nR4G</t>
+  </si>
+  <si>
+    <t>$2a$10$j0LmfrPN98BUQ3gSz2pg.OVJBwh0xglUymu4zwKBHbyK4JJMLlDc6</t>
+  </si>
+  <si>
+    <t>$2a$10$1xRrcOPVp9RoOtZhuO9SOedb8wFki5AYaG56sltps6nJQj1FmQl3q</t>
+  </si>
+  <si>
+    <t>$2a$10$34g2lL3N55N9dHSsZrfnC.zr8t1xGeSHetmtG9sr27U0oq79JuVIW</t>
+  </si>
+  <si>
+    <t>$2a$10$NQ7Oah1xfDnEqUuwUpw4NuIBr1GJ/Q3wD.ndnkEB7HriMBrnPQ1Ki</t>
+  </si>
+  <si>
+    <t>$2a$10$NK/ExfZ/MvemnLY3/aJpBuFI.5./My29VsnD.RlA4yN3pb0mI9dL2</t>
+  </si>
+  <si>
+    <t>$2a$10$8Cxd2oQQjmOvQhLfr3UGfOgO6auf3k3aOqGst7yDvFI2050Js4utO</t>
+  </si>
+  <si>
+    <t>$2a$10$BpF1VpDBCWWJUHydByYMWOo0wWvDaqyoGQKnHbFlY8YqmFLcqtUd2</t>
+  </si>
+  <si>
+    <t>$2a$10$/H3ADI5iX.u55UpohFE8Ku2yDZY048nvZOTkJnCWRyR0VSD83IlVK</t>
+  </si>
+  <si>
+    <t>$2a$10$2KDp1H.WpRvjy91jCJNmYuZMIv6PocJwlpm55gyjBr29XVqKGk5TS</t>
+  </si>
+  <si>
+    <t>$2a$10$9Efoo6cVEX8u22wuWRp9jeKj9Hk8UGaSXQtE6pWqhVAfH5LexkMOG</t>
+  </si>
+  <si>
+    <t>$2a$10$cwj3.zJKLRxtFfnwKpukM.YTOoBdQGWuGUzjYcqmb9XYS44ADZ23C</t>
+  </si>
+  <si>
+    <t>$2a$10$r8/yyskyHCOKMT3iMilt7O84WKGAE0J6QSCQwhNoOlBUozdLgGzai</t>
+  </si>
+  <si>
+    <t>$2a$10$V94/d3BGs3jw5RAK/WXwae1472OLI00jC8q4lsaLn.JQ/dj/q6Dnq</t>
+  </si>
+  <si>
+    <t>$2a$10$Ip4zIs1xSCG77x8fU.hMbOJrcZ7a2odaM213DkLaqoE/8gCO95wfi</t>
+  </si>
+  <si>
+    <t>$2a$10$szoq4uSprB2htVvoc95/Z.6RIcDoq/hQUIKVGVrroOv8G5J2pKxWW</t>
+  </si>
+  <si>
+    <t>$2a$10$2ZG3Foe84fxi2wEMpAJefucpn9l/zI1UwxLrtAXR7M4SQfBTSC4/e</t>
+  </si>
+  <si>
+    <t>$2a$10$EY7eflROBAmTlH/6JK3rxOMA9JdlV1OIPz8FaHiPS.m9Lqto.KcWS</t>
+  </si>
+  <si>
+    <t>$2a$10$v8nnRzAyMHwTCWAYe0yC3ejGMYnv8a6twh4.XZkD8cFZD.0pbv3YC</t>
+  </si>
+  <si>
+    <t>$2a$10$mFoODq6MWKq0k.Wb2kScRu9DlpCVzkkclIXx7f4eUmzmj5hSWzYhC</t>
+  </si>
+  <si>
+    <t>$2a$10$nWTwhajrxbPIcMaWWX91geh.oHmxXkt78otIZf3WnemPRt3x4thb6</t>
+  </si>
+  <si>
+    <t>$2a$10$2.5tKn9LGcerPJ0irQYC6OsTRngwDHVjTRaDX/aBuZUUYqpgz239W</t>
+  </si>
+  <si>
+    <t>$2a$10$ydVIqGiJugttB4AdNJjsWuJhTCB4PTqCSJGcdGcggtV6IoAjZASAe</t>
+  </si>
+  <si>
+    <t>$2a$10$qaKLfM/Nd4M1UONl0URjXOcsU4SjtgQb3H27tq5bROZca0f9y.xJi</t>
+  </si>
+  <si>
+    <t>$2a$10$KkuSVHOyf3ee837s5EfcderrAYJMGTsejfeMkfTvjfJouYjz4bM0C</t>
+  </si>
+  <si>
+    <t>$2a$10$DDgK5yGqUDcPjD2Nq9dXUOa/8XzgWn6upCf9iw2PADli6rCNmD..G</t>
+  </si>
+  <si>
+    <t>$2a$10$RExjL588QcHh9wtmkPRZdOuRjTpBrZsNW.FLniGhtnsCNIonT4Jra</t>
+  </si>
+  <si>
+    <t>$2a$10$c.fD2PxyRvDekJLgXp1KHOHxjb2IQD3B8CQhkepQtd3UM0DOtNt2C</t>
+  </si>
+  <si>
+    <t>$2a$10$l4EDXqHltaZVnjBs4IGoeu3BS.ZiDQa68dO1e7BNqv3ywHAfDMzSK</t>
+  </si>
+  <si>
+    <t>$2a$10$yE6kFp787WOOkVTKq89XjOfCuLyfSb69XAR5fUP0TysuTSNHrz6jS</t>
+  </si>
+  <si>
+    <t>$2a$10$OmPAnl9LKe14tJGGmhdkYeJt89vqc9YojtIX1Xqgq3kBI57VlovGG</t>
+  </si>
+  <si>
+    <t>$2a$10$7b0jUm83xnasE2hSvuJ/VOLzEWPHaR651LxJTNQuQBfPC1dIyKB0a</t>
+  </si>
+  <si>
+    <t>$2a$10$3u0WamUbKnZOiz0FbMQiL.iH2RNGJCsT7M5t7oDvtcSVIKz2J0Y6u</t>
+  </si>
+  <si>
+    <t>$2a$10$EZIWzVhldPaFeBuQgso0C.rOaEH41WsHdy5o42m3jP6ibqO4y/lK.</t>
+  </si>
+  <si>
+    <t>$2a$10$RwY4Db13y9txEKm3FoM.qu80ecct57xDRzZTCBSM.vQKXb5JexW9e</t>
+  </si>
+  <si>
+    <t>$2a$10$VKFoJob0Y46wdjdVC6mrUO6WXRJPfidJcSRY3faC7bNrlCmy7oqKm</t>
+  </si>
+  <si>
+    <t>$2a$10$tWyv.ILdJgin66qT0gpYgOqadrRLNeA2FM/2mWhyUDOia8JaVBhR6</t>
+  </si>
+  <si>
+    <t>$2a$10$6/rcyx9eZNa2G2VbfcmeCudhpQw7v7ZO6CXUUa6ZixOl5ljhyThZC</t>
+  </si>
+  <si>
+    <t>$2a$10$t7CXBRwDSH4be.3.tV//KuzPS2mUeisMpoZZVgRSp6fK51SR3fCtK</t>
+  </si>
+  <si>
+    <t>$2a$10$23hRk/RiKWgztyXOlWwwsOYXBTOa8gi4tMXEadiOO4DDM3stFaD9e</t>
+  </si>
+  <si>
+    <t>$2a$10$ncsgsaMTevWjo3imkXnON.60J6WzNGlcgZQEdONiP2nBE8cA56gie</t>
+  </si>
+  <si>
+    <t>$2a$10$s12j8QB4XTkBxLkaoSmPPeMlnWmsdXmyqDe5QfknSJLbkxU4ClJ2K</t>
+  </si>
+  <si>
+    <t>$2a$10$OBunXNKJYcY6k8h76A4Ry.TAlYPbkG7ZTpVc4fgvAnrKBqh.dfRD6</t>
+  </si>
+  <si>
+    <t>$2a$10$9J5vB9PbYRGXcYO/GPZYyOZJ2SABgYgfp.P3GIsycAnD4bal8Wn0C</t>
+  </si>
+  <si>
+    <t>$2a$10$.z2TFNLK5/uc5B.58.1CCO6ajhRvzKPKiKTlzOFTcJjh63mt4vtiK</t>
+  </si>
+  <si>
+    <t>$2a$10$Otz2qRUrHzCp7WBCOX2YzO8mcSG7zED7f6508W6yuFa0qfKi2xU/a</t>
+  </si>
+  <si>
+    <t>$2a$10$THazRlChcpUshQ8ma0ARKOJL7yr8i01yLreX6wI75h4M/j57XFNVC</t>
+  </si>
+  <si>
+    <t>$2a$10$YEeFSm1.hIydOAR0BjnSlOOBRIVqAX1exbexAIdsIQ9cLB5b.q1Fy</t>
+  </si>
+  <si>
+    <t>$2a$10$5TX8.bYFE7HE9YRugoGZcu6qt2Wl4RNInQDJ6sjnMf/l1qbjBjO1u</t>
+  </si>
+  <si>
+    <t>$2a$10$2uM.klYgtgm2UaMzipbqv.OlFYHlmxRMR2ajGLeD.WT4u5jzK1zwK</t>
+  </si>
+  <si>
+    <t>$2a$10$09oTp9JBWlFgXdiLIN2i7OLodKh2X/fCIZSX7DEfhFnp/Kn9j6uxK</t>
+  </si>
+  <si>
+    <t>$2a$10$LOq3ioNOZ5JN9EQQ7ikCE.fsLFaCpPH6I6lJFBEZT0loTOJAVAINu</t>
+  </si>
+  <si>
+    <t>$2a$10$NPsh5wl137lV3qs6FU3oSuX9CWL3GMJFPCco4m6n//vy6EJtfr72O</t>
+  </si>
+  <si>
+    <t>$2a$10$y84bFYqP4AnO2rdFdtKLtOKCQ0FbZtkGPrJJkai3iiQhZUOpERNDO</t>
+  </si>
+  <si>
+    <t>$2a$10$UpB5CPhUNXbRMn.Q9rlf6.ftBCGA.ZFYxoeRPvdwdjzYPQ4gKwJmy</t>
+  </si>
+  <si>
+    <t>$2a$10$rj2zUp.JeViSDlQ3893z9eq/jEo47VSkklfllNgYbOP1oXMffU0AO</t>
+  </si>
+  <si>
+    <t>$2a$10$w4Q2dH/KJnzka0DRv72CAOTACOBS1414SikPflAlXek7tGwGifccC</t>
+  </si>
+  <si>
+    <t>$2a$10$QNLb1cR6dXjTm0NYZbtECe5OrwlzixcREbmaNIpHFBweFmsU4e61a</t>
+  </si>
+  <si>
+    <t>$2a$10$2ky2w5l84mrliOnMOkaTd.j7MtNXFCAXArQ/4G301zlJMykrZAlSW</t>
+  </si>
+  <si>
+    <t>$2a$10$hWhOXRj9FU8hkICPaUu3P.u1GJI7d5.EDUcQamscy/UBhEgUtq7By</t>
+  </si>
+  <si>
+    <t>$2a$10$b8CqdWo6SlIPd1uuUmx.4.bgPNn8DKCYXgMlhN82ah0QiRkwLcfZ.</t>
+  </si>
+  <si>
+    <t>$2a$10$VpDKWEPByhEjPgnFhWyl4e7OoyMF7U95Fj2xtov8VHP2Mug1dV0Wm</t>
+  </si>
+  <si>
+    <t>$2a$10$Tn4Qvq7Fyv9BECj2Xhw/rO/IBr7.6fMR8HJchq0koMysHjhhuUMaO</t>
+  </si>
+  <si>
+    <t>$2a$10$zjXpGF6DfTqJNRZ1sC/OQOAMt2iZSV3QuXpBAiQnwXdcLShV7f1sK</t>
+  </si>
+  <si>
+    <t>$2a$10$rZSLBZSu2aGUhDiwszeFAOY/2MCIBX6kZJqd8qzzwp9ddZ2NaN1uC</t>
+  </si>
+  <si>
+    <t>$2a$10$Xjb8SOhd5LOYukByVUWW0u1SYMX3wO03CZqu4MM6Gud1m.uZkHHCO</t>
+  </si>
+  <si>
+    <t>$2a$10$dJrgCoBlgr/WjCLM/Lb89.Z.dbdagp/yCvBgx7WGeX/IEMeru0bWC</t>
+  </si>
+  <si>
+    <t>$2a$10$nK88vaZPjOYdPty3O/XXx.YRgXo1nKpKskKHiVyrdwpveR0VHEcA6</t>
+  </si>
+  <si>
+    <t>$2a$10$rnyxB0dkmKIN8qiu.pzVx.7mTIPW3GrfNpuheUY6Oy97eWG6RFjkC</t>
+  </si>
+  <si>
+    <t>$2a$10$greTamL0uHJTtrqIcCBt6uvKnvYUKQeEMWqNZuKLBd3NgayxUEhYG</t>
+  </si>
+  <si>
+    <t>$2a$10$bRfdKrzUi8zjmcxiXQKlge4apQEPVeSUiSyailkt3GoxARBprtv8W</t>
+  </si>
+  <si>
+    <t>$2a$10$L9552qnyKQD.mi9Of4hsT.Lkr3LOt/qhv1srLy.y7CuKcB/WyatLW</t>
+  </si>
+  <si>
+    <t>$2a$10$MveALTM/JHZa3MtVAfclm.v8Ta4Ro4CUBQgbz70ooaRDVJJM2r3Q6</t>
+  </si>
+  <si>
+    <t>$2a$10$48Q0uqsWliYjqZrGu/XKIe54SWImPIQy1x5fjPfheqsNLZJzbV8pW</t>
+  </si>
+  <si>
+    <t>$2a$10$NhHM3klZweXT4dYn0QT/feQaNVzXfahC3f3t9VswMrEEcduB8P56C</t>
+  </si>
+  <si>
+    <t>$2a$10$/F8a6nnWF2KID0QoedrLzOAvBkp9lhyCW78oTAZbwCT1Iy.r3DWfa</t>
+  </si>
+  <si>
+    <t>$2a$10$xhGEFRsAfgW4ds2/v34FseDGyvHdY3hTrWJyTYA2SpWr.nwUx5gda</t>
+  </si>
+  <si>
+    <t>$2a$10$PyHNwuOMF.s4PH8wvkPb2ukIef0qIahnyqoeHySlZqDMbzFzAURx2</t>
+  </si>
+  <si>
+    <t>$2a$10$jxODqNvXodnCE3G5YTMit.0kUMZ4k6aXtMr4CUUPCiuoacOmcq8ee</t>
+  </si>
+  <si>
+    <t>$2a$10$CCYGQ1B.Ak3mL1VwtIQIdu5.KarPGEXZ4hOO89doEEJ/iwY46vlDa</t>
+  </si>
+  <si>
+    <t>$2a$10$nr5c.xhPZkweOGJkBeK2gOzVpGxzUabhfl1f17c/uoXHCCTuy0BHK</t>
+  </si>
+  <si>
+    <t>$2a$10$/b8Vvuz.XGTFINize.QCo.OUv6u.q.EmkNoTEjAYHprEhwIsLrgr6</t>
+  </si>
+  <si>
+    <t>$2a$10$DXnW5acUwvAk/IP8b9L1/.DIJtJ1LW9kk68R061V9emKST1qLwHMi</t>
+  </si>
+  <si>
+    <t>$2a$10$F5ty.2cWrxjGOOSUD.dOAO.BRIk7nwYqaBQiwCjEy1yDGtg8gfa66</t>
+  </si>
+  <si>
+    <t>$2a$10$mHh19GU7Tso.y1s2c/hPVuIcLu5xL5Qb6.zVqHdmJEehiYrnIAa1K</t>
+  </si>
+  <si>
+    <t>$2a$10$vPMwxWFp/NmohvcTIJKLf.HawfxRVuu85dWxmZGO4ymAVQ4Ke/che</t>
+  </si>
+  <si>
+    <t>$2a$10$rPVOHH7GdwNE.MN49beuD.WgUlvx1gAGaCrzNuhcRxckXN4jxkcTK</t>
+  </si>
+  <si>
+    <t>$2a$10$csmgieajiDwSVwC9YG4HguCgjjPieYOsd4vP/nyGj/lI1sN1FPzQO</t>
+  </si>
+  <si>
+    <t>$2a$10$aMcWxYYJRFNbrROlQFvLDeSUainMYKnA0YAbv35BKF24hfVnkFxku</t>
+  </si>
+  <si>
+    <t>$2a$10$lSwHaKfw586CkYpb7xLDUeGZo9Tl6rPeWMvcPTeI.G4VWfyTaPz.2</t>
+  </si>
+  <si>
+    <t>$2a$10$dM3FdsLWVNgEphy34.yJUOBD0/DGU0n6KFWSIob1XXLhQyk9bKCpG</t>
+  </si>
+  <si>
+    <t>$2a$10$uri4PneHk8JAnmkYwuRzEeSg6tr.eKzRJHOZiBgSTnJQ4thiBL6EG</t>
+  </si>
+  <si>
+    <t>$2a$10$1WsAH0LY71BoIOW9rGMlVeWfO9BbsnvCpefQoulYQhsDLjwBkdZp6</t>
+  </si>
+  <si>
+    <t>$2a$10$L1tXIAY0aW0QrzCkneIuwunQDaaFDbFa8G7yapyPUaqORUUHjveke</t>
+  </si>
+  <si>
+    <t>$2a$10$.dAtsyO6vutm3X6oknnCg..U/tWI1xIKedjy31t6VXBfzvsmB2YWW</t>
+  </si>
+  <si>
+    <t>$2a$10$NO17UW6EW7wPOKRMXCnIY.CJv1gQcz0C4nswySwXYOeBjOj38fxZG</t>
+  </si>
+  <si>
+    <t>$2a$10$9fwxq/MfuPY6d9A2J4yt1eILWtcY7OGyEVb/SaUCjXwBQsMRvey5.</t>
+  </si>
+  <si>
+    <t>$2a$10$dWHI/rdXYgMt64uci139YuYaM.0jfjC.IUjNm84lXobcMLYyOrBou</t>
+  </si>
+  <si>
+    <t>$2a$10$dDm9GBiESI4X7bYATDAzn.TKakOPb7z26mg6xyCY1K2ry3L.huWOK</t>
+  </si>
+  <si>
+    <t>$2a$10$sk0J7rZj2vkOQKUggUUQWOaZtnk/ksaej60e6.qR2uQU/jqdblS0e</t>
+  </si>
+  <si>
+    <t>$2a$10$PwyGh2e5Rfb6I/FlCBneJORzOYEB3g9dmpoK42e4VxSy6YbTBPhae</t>
+  </si>
+  <si>
+    <t>$2a$10$8pOy63uECrCcwJiODKyXUu2CP7YZ0P6oIDEJsHNQ9u.NaUNpYVl7.</t>
+  </si>
+  <si>
+    <t>$2a$10$0Q5wr1Ge7YZZBItR7A0Yyux2IUk8papeIYQBxVg3JkaZgYWbqAX4C</t>
+  </si>
+  <si>
+    <t>$2a$10$hqbXBo0DkB16Gu7673OO9uHMcWl2Z0FcAS8rhsRaSD8EcfKrWwvNq</t>
+  </si>
+  <si>
+    <t>$2a$10$655q0zTv4Rd1/eJAeXonhuENtuLv.kqiZcnXYmUIto/l0BX5h7l1.</t>
+  </si>
+  <si>
+    <t>$2a$10$VH9WH2GenVRQ7kfdPXoreeWDdSzhse.dYCjTyg5mKluLZEyuTnYx6</t>
+  </si>
+  <si>
+    <t>$2a$10$C9ZdH46RPzm6wzUjly02bued1jqYU2f8UcWLGuXSAHVtuVj7zEOBy</t>
+  </si>
+  <si>
+    <t>$2a$10$ZuqZfJOb6f93pCPq2ke6W.JbsiLYqOqK.bW7khAc74ZfztO2l4Ui6</t>
+  </si>
+  <si>
+    <t>$2a$10$zoS9Pq1aYEfrQ3UyP8JT/uBU3VkxcFhDQP8rNz5vxVVXxfSqTKfEK</t>
+  </si>
+  <si>
+    <t>$2a$10$byr1U.zmKo7KLdxjR5INPOaGy2vD0dAx33QnJlTVFTmfnPg562y4.</t>
+  </si>
+  <si>
+    <t>$2a$10$qI3jUOgxPIeECS9o6uFYcexzA./7kt5baK3PnVNFg/rSfGGo1sdEq</t>
+  </si>
+  <si>
+    <t>$2a$10$CDhOdVAGtEFAQeUupKsG6OC5Mw.t6NjxFLRpPsJceIk1I94BhYffm</t>
+  </si>
+  <si>
+    <t>$2a$10$4i8RNcwqpR6/SJK9x7IxV.w/scyWs5wL3wjJp5vRdvQtfIc0PufyK</t>
+  </si>
+  <si>
+    <t>$2a$10$fj1kPkL8IcBtONhmlM34COd7NamtMS9diPV8G3EvUntQLmjxuDn6i</t>
+  </si>
+  <si>
+    <t>$2a$10$fI5GtVPid3SteAjMmMQH5u4klyIFrDDmv2Ji225c2ugdMN7sl9dqS</t>
+  </si>
+  <si>
+    <t>$2a$10$5/DUIz1MIIPcL.JiusF1z.Tg8qIROI6Z8qv3p/TOag5fHqxMt99au</t>
+  </si>
+  <si>
+    <t>$2a$10$/mW.QsMXXaj5t6viwtsO9uKzUskU/K5VQ0WkwSNSw7tpP/1aGWelO</t>
+  </si>
+  <si>
+    <t>$2a$10$DxRvU9kJeKnoyweQpmtOOOUMwX3QufcnFz2qlYl7IGF/5CspnB.jO</t>
+  </si>
+  <si>
+    <t>$2a$10$Zu3vCixCuT5SqaTZBNzR..sOwmpeQQHX07Z4Sc8.zys0qmjI7vKgG</t>
+  </si>
+  <si>
+    <t>$2a$10$RbOLh6bDVCsaz3C8j4Q9iuSZI5X4.daxY1arzLuyEcf5nU8zq7/vC</t>
+  </si>
+  <si>
+    <t>$2a$10$CGMWIj8CnHVC7NWRmXZUWOnGV4S/YmllLMFYnTSHTC2JPHoBIGxVS</t>
+  </si>
+  <si>
+    <t>$2a$10$V5ievMxPPdGhb1TNed6Xqurkh.A/8DLzcgABFlrcbLhZQGvqa7p7i</t>
+  </si>
+  <si>
+    <t>$2a$10$5PCV0bn0GHk4wUzzte6OweLuXAqCICS6j2Py3DR2WdDTWT6m88unO</t>
+  </si>
+  <si>
+    <t>$2a$10$a0KhBqe34spT4dKFOdglleJzk.am0rF.u09XjMmL3rOsjzrU40Of.</t>
+  </si>
+  <si>
+    <t>$2a$10$wmtzdN27dWO3imKRQ5/rReihJ/fP0hrb2jhLrxLcPTXXeAMx2GGEu</t>
+  </si>
+  <si>
+    <t>$2a$10$s4R92BC9Ii5hcmAE3.jYKup4xbmWuGzn5BfDMFZoLnTgPlzyUgSlu</t>
+  </si>
+  <si>
+    <t>$2a$10$hnE1sX0KJ.PnWTSZNc00aepSo5P/uBbNdQFJyAJKkAszIRuGu9RAq</t>
+  </si>
+  <si>
+    <t>$2a$10$2R4b8l08qHj6FQyAGjLoIO4WIfnIjiJhyj1lSKDcuVbSgSykF9BrO</t>
+  </si>
+  <si>
+    <t>$2a$10$Wmh9Pyr18CtdhrM4DwhC2OM66qDEiXTRheASkIl7KzIihV8ff6Ag2</t>
+  </si>
+  <si>
+    <t>$2a$10$Sa.QQlPQb8h.ydPUEFcEg.7NgsEjZoox8kIL50Un/yv2tWsv7tRh2</t>
+  </si>
+  <si>
+    <t>$2a$10$ke3pz2/IDUDdF9z7Rern1OX35elP4GM9120k3wqTgqEKc57EpGHoy</t>
+  </si>
+  <si>
+    <t>$2a$10$fXHJwbXC0kpVFVYVlkTPp.br7TfDNOaa2bSDx/fp0pAcPh0yyTBj6</t>
+  </si>
+  <si>
+    <t>$2a$10$JxlajMMG1GotPtEKZeMps.IzjtUQEvjFRYfdj1QriLkKf7wLHXHv6</t>
+  </si>
+  <si>
+    <t>$2a$10$fU5F432d1gmwzQQ2E0wFpujcZQwtCa1VLDIoWpj.Atgi2GEg39OdS</t>
+  </si>
+  <si>
+    <t>$2a$10$3kzxTf8KTjaIRNJmIcUcyOvX0Hu.l2iPR24QQn5TKXlzU3k9j2N9C</t>
+  </si>
+  <si>
+    <t>$2a$10$TOiGVsC6lfyRv4upA1RK7OFXo35YN5SqhMHLufCpdHSqa/zVrJKqW</t>
+  </si>
+  <si>
+    <t>$2a$10$OzMNx7suZIgHu7PyoaiZZeA9KbqJ4ogQHq7r0FscetxnpUogQAXoe</t>
+  </si>
+  <si>
+    <t>$2a$10$XakQjFsLo.jtLtMvdTA55ut0YQtjE5JHcjlOc6QgDpAASXDb.GWRO</t>
+  </si>
+  <si>
+    <t>$2a$10$j13k1nk/YVS/QgvkTws.1.UpoXTZYF6AtpM0psLTAcVqv/vL7zsry</t>
+  </si>
+  <si>
+    <t>$2a$10$CLPtWmWrpH8seIep.G7ZoOO1H6q/zCcOKOQkGIYzC7411XsB9gQEq</t>
+  </si>
+  <si>
+    <t>$2a$10$F2taUDIQOI/J0GB59t2eXeEpIPNsTv6/qri6Qw3QRNgcy3VxY/0Nq</t>
+  </si>
+  <si>
+    <t>$2a$10$/y4G5HdvkmRcmhoY5vknTeZqyd75f9lHMAFw1amoG/PiP/cHJI.yC</t>
+  </si>
+  <si>
+    <t>$2a$10$WOuba49fvFD3btTcRvgEK.ss/oPtkik8Vuho5mxmH.UU3Bjrpk2Gq</t>
+  </si>
+  <si>
+    <t>$2a$10$ZHFS96riewjgiLDa1ia0ruAhemYLoREFnFkejQyRBbRCC03Jzcubi</t>
+  </si>
+  <si>
+    <t>$2a$10$cQknZdHIB0XnrmTyV2zxxuURuVhUe4I6XC/EuszioduOt.FO.k1.K</t>
+  </si>
+  <si>
+    <t>$2a$10$DBm5FYiUJeafj7am4RZv3O1EuvOH0wliKqJ9ljGtNXDXOIFS5pkiW</t>
+  </si>
+  <si>
+    <t>$2a$10$94u.dDnxwn1VqRM2qEb/V.fYjKr1tiXN.4w35JT9v0gvf83PtyvCO</t>
+  </si>
+  <si>
+    <t>$2a$10$TFd95dpq.rARkBK7vhO1i.o3QrupR5L1iDeOLHjk9XvUAunb6bLka</t>
+  </si>
+  <si>
+    <t>$2a$10$40jenqszM9iactFofJDbKOg91DxH.py/KWy5zA44ZmBMLyKfXRrl2</t>
+  </si>
+  <si>
+    <t>$2a$10$J064GkJBQFIgJPmQ.k72A.YiuTNRMKGlFppAsbvRuXUHlWE9ynYFW</t>
+  </si>
+  <si>
+    <t>$2a$10$hveyQRjapSEEBqlJJP8zj.RxlApCb1PmjmEr9tjjQrzNoJurhCrXC</t>
+  </si>
+  <si>
+    <t>$2a$10$7DQBNbV8lhzeBQshqYDSletmseIo0fxrdw45hy4E49a2y7MTZqbeK</t>
+  </si>
+  <si>
+    <t>$2a$10$lkKgUveXf45D2IMzEJ/HJOtO1SitF/aBJMH95tw8h0tSIxZs2zxCW</t>
+  </si>
+  <si>
+    <t>$2a$10$zQUjQYBCvuRkrOyY6qIUa.GYHLPyLPVG8.T2HXCOWBlOVtF4tk3aK</t>
+  </si>
+  <si>
+    <t>$2a$10$wZJG5qOfi7y5xtOJWqoTe.z6feiLY8ZOXxTVDlvRrJBiQsG89VnKO</t>
+  </si>
+  <si>
+    <t>$2a$10$52rlX2mvxq0rKGskzAbVC..DOXGvggeUCOjhxr0z/UCL91cMGD3dW</t>
+  </si>
+  <si>
+    <t>$2a$10$ihKv0petVPB71lNk8NUNIuXlfjkBSG3Ks70KK/ZiwgzdlAVlU86E.</t>
+  </si>
+  <si>
+    <t>$2a$10$g3zRtorqeToEBzzNjECwtOgCtrF4KuS3Ef7xTZHovJeIWxShKl.1m</t>
+  </si>
+  <si>
+    <t>$2a$10$oJz2vY4F6M0JuwQdQOMrjuRIPJ.Nb567ww1FiQTI4Y2EvPFgsmSaG</t>
+  </si>
+  <si>
+    <t>$2a$10$NZeYDkY/NnaBqSv8riBIh.0LANPaSBYNFtpkX91vT/gIdlOO1/O2a</t>
+  </si>
+  <si>
+    <t>$2a$10$uZhfhjS6MHA1kZEOmYGAMuKAhObtQVyfR7abLmgShSCR3qsDZuhEa</t>
+  </si>
+  <si>
+    <t>$2a$10$mStKoOmqeTblb2z28FdeuuZ3CYvCqygfbgFiLKC32eTZaT385H4c.</t>
+  </si>
+  <si>
+    <t>$2a$10$4zrtbTidhbQJTJCjKWSQ1u0bNxw5YYY0oyYMl6kh82zwAA0EZ5s2S</t>
+  </si>
+  <si>
+    <t>$2a$10$8N1fsm1mvjQc.Kzq4DnReOV0Lpjyz1XpvXkpvz3kLf83cJHkCYGyO</t>
+  </si>
+  <si>
+    <t>$2a$10$5g15s9DWzpV/gthox7X.N.rhKEM5lRGHv9gBAqBD5Kt0fCYamb/pK</t>
+  </si>
+  <si>
+    <t>$2a$10$PXXCKDCKfGBatE.543ovnuPLZLlM6bBq5CevIwAA3RweFGK/j3VM2</t>
+  </si>
+  <si>
+    <t>$2a$10$WG3IOE9EnqN7wk4GY9gSdeAvdQTjSBlREEQ2Tl8cUo8m1IdyQEM3W</t>
+  </si>
+  <si>
+    <t>$2a$10$YtrSx2SRDhs0WNy2T2EPRuTyhhGHvcn0T4zu6Iz3B1I3HIAC0T0o.</t>
+  </si>
+  <si>
+    <t>$2a$10$aEycVynfn9XHCq3h3wO.buIWHYT5Et73XkA/szRlU67UI62lKxxy.</t>
+  </si>
+  <si>
+    <t>$2a$10$Cdo7T3tlQ1cJaqqAQ/xq.ex5pYB3rifZHiOBjnCyzTEhv/L.5KqOu</t>
+  </si>
+  <si>
+    <t>$2a$10$zg1W0429lANeLxSQan/0rOk/EHB96wxSTugUhQsWD/VP8i0QUxUUS</t>
+  </si>
+  <si>
+    <t>$2a$10$SOT2iCmX9srhIG.bKJ6/1eSdN2X8D0Fo3xQA0QqcT4XcWMociDZWm</t>
+  </si>
+  <si>
+    <t>$2a$10$XbR0TnmNCwXjYTu7avQKXOXA75Kz0RnZZybKpp.mHui1IKAuVn21S</t>
+  </si>
+  <si>
+    <t>$2a$10$QDhxLNK8fEdtNXWfNVph4O1c62BzVMztAzp8jqtg6WHdImb3XzSi.</t>
+  </si>
+  <si>
+    <t>$2a$10$ftzkKwpjuYXcZHupKlHTz.qvgWVfy1hAEE2RQJeB6lr/j7VBtY97K</t>
+  </si>
+  <si>
+    <t>$2a$10$jLGfqIrwTE535W2CZcwQwuJb68el/RjYMjtJFDIcDTaePnYQl5COa</t>
+  </si>
+  <si>
+    <t>$2a$10$9MdOV94d9auWHCYuPGGyZuwTfDOneqDzR29l39GVRp.qAWg0Pwvc2</t>
+  </si>
+  <si>
+    <t>$2a$10$T7jqrABc0SpnYrEaA8Qq6uxFe2m/BswVnPYZrikd/9EcB1os6iGme</t>
+  </si>
+  <si>
+    <t>$2a$10$o8FmRUsuJgd76OCQ5ZCeH.vCPkA0qFlyMOOWyu7661FVsIciubQSW</t>
+  </si>
+  <si>
+    <t>$2a$10$/zja/c037iWHA8c4KJcbb.SQ2hpkxF84T0VgfJZagV2LCUzoKY2p6</t>
+  </si>
+  <si>
+    <t>$2a$10$5pO1s0vRZSIkroyLG8wxn.5z/so7bqwvMwZ/j9q2VyaVb0jDpQ5Wi</t>
+  </si>
+  <si>
+    <t>$2a$10$bM7LEChuLq4E6dfQcwPAzO55UFgEfzC424Wo9rI6BZoKnijqJEup.</t>
+  </si>
+  <si>
+    <t>$2a$10$NIgd.uDSr6R.KTCw9YauIeR4wWgAkNdPSwyPtUadms08LZt297gFq</t>
+  </si>
+  <si>
+    <t>$2a$10$Gt20tym8unHElxSBl5c6YeIYXnKB6v3jpy3/oGF39E6zj3dawof9m</t>
+  </si>
+  <si>
+    <t>$2a$10$NLxQsRiFh5jDyDI2kZ41xunbVCpt6tf9V25t43ScSTIAsiII182TC</t>
+  </si>
+  <si>
+    <t>$2a$10$Ot1erUocGn0vnU792j6vduHzUIecHy/3LPSgPBdU2OLhO0q/S3xsS</t>
+  </si>
+  <si>
+    <t>$2a$10$QRD4GoXmEFhfSqLxaEdBtOknAEVMUn13l.TnjE2KcT4U.9NIZpw0K</t>
+  </si>
+  <si>
+    <t>$2a$10$mrQZwQZJRnpO1mDWLW9EjOLCP4csLesaRD5WAfKP18cegxufOOZK6</t>
+  </si>
+  <si>
+    <t>$2a$10$4Do2QwT4LbqbFSk2UAlkQOhWqkexdv/jZvFllatNaAu9P.SMWrSRC</t>
+  </si>
+  <si>
+    <t>$2a$10$Dq77mComG/BDWyBe76iEq.ZcPK6E2zemfgBDfMn5i/TPbeBlx7uWO</t>
+  </si>
+  <si>
+    <t>$2a$10$TiGJAifqhNGEwh43qK84y.7Fbv8y0PYTo1NxK9uExOJzBQc6933Oa</t>
+  </si>
+  <si>
+    <t>$2a$10$TOHG69VhAuDZVVJZD7hGA.vDYr6Jmnmm3wioaVFv2Sjzm0YwzBqca</t>
+  </si>
+  <si>
+    <t>$2a$10$YNzhM7NUjs/ZxGg9bTi88e6Os7EB9GZTC7yz5oAAPHl7vcUvF9MbK</t>
+  </si>
+  <si>
+    <t>$2a$10$p61gOa1syuNwLsFExxG.MO/Se21yrEauJOCvW0HdJiipPIAG1CijC</t>
+  </si>
+  <si>
+    <t>$2a$10$6vPwCSQdz9I7fr9VQdjaO.Tcb2BEaEbNhsOqrQ0my5vJ7l8QkeO6K</t>
+  </si>
+  <si>
+    <t>$2a$10$VLC8x26h5QyIKhLomRvvXOgxCGTP5eEM57EYiJxeeVDgfeNDzGNqa</t>
+  </si>
+  <si>
+    <t>$2a$10$1jvN0qxcg6ZVPkeCwGdW5ebOHKx5ivoUkUqjOTxP50zjqouN0bnDe</t>
+  </si>
+  <si>
+    <t>$2a$10$kCjdk4et/JUOytPeBxEU2u5v/5TPOST5Mg5y4fd7Dg.bQ4dPEwb4a</t>
+  </si>
+  <si>
+    <t>$2a$10$YQFoaM.CTUiKfmnObUQaIevMPmd9Sy5iIfYb5ZPKDR1Q7g68tljUe</t>
+  </si>
+  <si>
+    <t>$2a$10$JRadRUZBk31H3mhco3tsk.NV4sgmBjNgUCR7BoLVikLGWgjd8sEIm</t>
+  </si>
+  <si>
+    <t>$2a$10$9dlWvWkqIRRny6wTavJKJOW24ZpTfZ2PJKcrljRTJlOIkZ6cicztq</t>
+  </si>
+  <si>
+    <t>$2a$10$mixXrL0gk2HHVHMiMtVou.e8Q7192e..owMmd88pVIWAHv8DrPXCi</t>
+  </si>
+  <si>
+    <t>$2a$10$RRINxwH90AqQ.htIJGZ6g.s.EAkXpGFyhmA4woh3heoxOYGoKpYJ6</t>
+  </si>
+  <si>
+    <t>$2a$10$mbzw9KxY8x9NVO/fXoWgqevGUHc.413u7/HYMr4aXCVZrWBeiJkUm</t>
+  </si>
+  <si>
+    <t>$2a$10$oR3KsiV8LkVsj1dmIk/B3un6GgKmA833IgLgo2JnR2SViQIpPG2Tm</t>
+  </si>
+  <si>
+    <t>$2a$10$WWiW5iV23NpwhCz8fF3HauiTlk9O47Nh.zVaXIaRAUccE9hmqAD0.</t>
+  </si>
+  <si>
+    <t>$2a$10$aRYaLgGS3WqQAvoPN6KYyeutD6ykuzkU83G6HD.pIO/LqJzhsv5oK</t>
+  </si>
+  <si>
+    <t>$2a$10$Qz1ZfiQjujoZpDFK4f3/nOZXB4AKucF.5ewROljrxWSFWY8eFCDMO</t>
+  </si>
+  <si>
+    <t>$2a$10$4pe.oNJ9qRbBI5iHdD4Lae89fojQhDHYTpHeb1l6T68cPWAq9RWpK</t>
+  </si>
+  <si>
+    <t>$2a$10$MW6pVoFcEwaHyBUaEam7R.Ug1lHx/BuU8qwxz8pwGjyws.6oQ9Op6</t>
+  </si>
+  <si>
+    <t>$2a$10$SInKU/yu6RH.euVcOiWlRuHL/f47prLqxd2ZMfHM0gK7AimlvAfW6</t>
+  </si>
+  <si>
+    <t>$2a$10$UlS5xaQFauWPIdH4tD.JMuI12PwdbE/VhVKu8KNnDlHFL4mmYO91S</t>
+  </si>
+  <si>
+    <t>$2a$10$AAyTnEvBw0AOcnjoMyTmkOmcLqi/HvukD8FVAFXun7JnX0gYKNaeO</t>
+  </si>
+  <si>
+    <t>$2a$10$2Odz25/mNR.SnCkCgB1UsejInkHoB.jJRjGs4C0astaMhehAk7Uh6</t>
+  </si>
+  <si>
+    <t>$2a$10$SVV8yLIIzyw8mSrgIabiWObJmyTOpPuAccScOuaeBtN0bLOXs0bai</t>
+  </si>
+  <si>
+    <t>$2a$10$xaaECVE0JDjPNpqAtD3/jepsvFQKoun2Vku1R9PvwztfdyRIzona2</t>
+  </si>
+  <si>
+    <t>$2a$10$zIOIuRiT7rBWUBveDzfW8OjgSYurkLNW9BMyrTfZAe/Cyng4Sns3q</t>
+  </si>
+  <si>
+    <t>$2a$10$XoPrXxXcmnlBOr.leYXWZ.WzXPgUrVAKd1ZEy4dgbaC438gIUL5Ae</t>
+  </si>
+  <si>
+    <t>$2a$10$l702toxWd8TAvtvTABWwD.jhXzqz8kPYsQYv9DGXtFv3JWrGvtnFy</t>
+  </si>
+  <si>
+    <t>$2a$10$GDP2q4ORlO.oOWJOXsuQQ.PlzUxvM1NRX/MytOJlKGYRlc/t7.Aby</t>
+  </si>
+  <si>
+    <t>$2a$10$d39aRNasUtuZD3DCAqFsGu7utCaU4aDxfEcPk6IKv7XNLs73hCwRi</t>
+  </si>
+  <si>
+    <t>$2a$10$DuUbPmCEVwWie9/DN37kOOojWYGosSSezdzWvpLwzS86o2Ac41JPi</t>
+  </si>
+  <si>
+    <t>$2a$10$WEwxTiM6CdVn.TYGOwrDqeJVxgxU2OnbEcb38CWUCiBqfsyhx5t8y</t>
+  </si>
+  <si>
+    <t>$2a$10$Mk9zrO7zNnAI8j.3DeOtO.DV4eHWZNHj.XhVAeqTJhmYKTNjbEibu</t>
+  </si>
+  <si>
+    <t>$2a$10$iyxtVBT8ysolBaObheEAauJqVfTuRSy/IpfQE5XJVwEXRrLxs9Ueq</t>
+  </si>
+  <si>
+    <t>$2a$10$f4TyBYxfBb84AiIQ/G1kouv.KHE9V4uwJpBEJJhM30hTiS6Cccmsy</t>
+  </si>
+  <si>
+    <t>$2a$10$cCdtaxTB9AjV.nD1HpmTp.x8Di7J4ctiCYvWcvbxM4EOM1vgHXnba</t>
+  </si>
+  <si>
+    <t>$2a$10$mM0.Z5on2YVWVbeIftPOP.eKSOcUs9DMAqnpmrsxI2GVeJdhuM3hG</t>
+  </si>
+  <si>
+    <t>$2a$10$TuXo2juyfKoUVQivdomgwepYCYFaY1fdVbqfZiQ69vxqgFeBnyzLa</t>
+  </si>
+  <si>
+    <t>$2a$10$eENCIXPMU1pUYbAhB420oOZu4MqTmIkBiDDiUXX86wrx3hFlkYaRm</t>
+  </si>
+  <si>
+    <t>$2a$10$ol3Gu6ux0PckYipdFI8xBecKL71DiCWnZJTcx/Vvdv6r0m/o/bKd.</t>
+  </si>
+  <si>
+    <t>$2a$10$7k2paIeReCL5ALxW.6YdyOGM8lQGUwNiGkZfGypo.gK9SllDB2u3i</t>
+  </si>
+  <si>
+    <t>$2a$10$oAPO5oQmhG74759zo2OcReFgQTvXtwVveCdMQ4.j7Z8m1z1vRBHVu</t>
+  </si>
+  <si>
+    <t>$2a$10$OMF.ZsRtSqAuEK9cfcfg4.lXwAdlrq2JHcoDm9OULrkmOMZoWzC9W</t>
+  </si>
+  <si>
+    <t>$2a$10$9bSK9eZphNBzxybSK8ItA.ZDl2QMxyddiZjqdZlNXQCuOovr9GefS</t>
+  </si>
+  <si>
+    <t>$2a$10$9UxfgIUdl3E1oXX3Ppyx1uQlP7n/B8dfHRXp7aCmBVSNzB0KNBWkG</t>
+  </si>
+  <si>
+    <t>$2a$10$J.Vvcqz7lC4htlAndjq5EeWn/9IIsQ1cx7nOknYFp88J9MrkMV3gC</t>
+  </si>
+  <si>
+    <t>$2a$10$hM8fvHU6mCV3cBLpuS0Dz.qG2iz6lBZEDxXwIafCJQV81fdEdmcO2</t>
+  </si>
+  <si>
+    <t>$2a$10$m7R0CoTCkju77MhFCKgtbOuKA166BEOmSpfc60Xm09DEIrKrB8VzK</t>
+  </si>
+  <si>
+    <t>$2a$10$jfB6ezBMe244VKen7LAUWOgJ.x4470lPYwnt6rm0VELxbu1El5z3S</t>
+  </si>
+  <si>
+    <t>$2a$10$Wvd1GdwLnwkWK3LejKXqhuE4ce9bfLGr9DGbF38cD.6jPAoD2zy7u</t>
+  </si>
+  <si>
+    <t>$2a$10$r3TKAU8.USJA42bm3wAJPucYXRgwR0x3Nf1HChufsmarv1PKE/iIO</t>
+  </si>
+  <si>
+    <t>$2a$10$40Vlt19u9AmRsHCiF/uJ1uaXNPqVJGaN5zHQTIikgnQ4O3gThtc22</t>
+  </si>
+  <si>
+    <t>$2a$10$hWjgJQHeNoKTuKlk0YXx9.Y.y3M4rOC.9JMTnLgq4qcjgJ90jbCNa</t>
+  </si>
+  <si>
+    <t>$2a$10$STbP79ZQsb9EhkeGujDo2O/IzAMaFKy25HE79Cvh/swwEJ8XyQ9YS</t>
+  </si>
+  <si>
+    <t>$2a$10$AWVNQcglB9uJTB4KHw87G.rq7d2TdHCx1bawYAQMa4GY9uLdwNcxq</t>
+  </si>
+  <si>
+    <t>$2a$10$tReJ0npImjHmVl6urmM/wuE6aM.1LAXwRZOBUzI93LAt3deywd1pO</t>
+  </si>
+  <si>
+    <t>$2a$10$zaAUpg3Te08SaNWQncMfjuLSeQrDyai1L90CwOtTvVsCv9sZLsjOi</t>
+  </si>
+  <si>
+    <t>$2a$10$fJFmeerQhgJeXjW4PyZBru2TLfxNQCtte9a9MX79hmWWgaCqTDr3O</t>
+  </si>
+  <si>
+    <t>$2a$10$/9Y.bsqioWCi23OtSU7sheFawW9Cxu/YywWoENxJoyAsymNMzoCf6</t>
+  </si>
+  <si>
+    <t>$2a$10$935qRlpKTEqLXSTEhM35eOkv7AhTRe0vHfMvVuMmXCP8IUoHGXsU6</t>
+  </si>
+  <si>
+    <t>$2a$10$M9bbMPUkqEGnb/oZIA4O.uK.bzVI6X2GdLTp1LnWX1M9e97B2G0d6</t>
+  </si>
+  <si>
+    <t>$2a$10$vdJL/mjEeGr8xx4SKIRH8eNvh95IIgumAyG0wG1x2H0BjyG.bpFNq</t>
+  </si>
+  <si>
+    <t>$2a$10$fOOthS4Bn1it8KsCcI9Gb.WhFnT0J7ysWYgZKZ0yn8hnVb0Hkh236</t>
+  </si>
+  <si>
+    <t>$2a$10$ampk597.jv8AzkitGk8ZVOuWyHzreqPRq.Sy3pmXawsuQon96SAwm</t>
+  </si>
+  <si>
+    <t>$2a$10$xKKFq9CV/gaGUVNBtKqCfeL2OQjddwczWDuC2WtBzGNAnI7SAA3Wa</t>
+  </si>
+  <si>
+    <t>$2a$10$gXrwB75TXsR/QiwX.r3dBeGnWz/NVMXZGZjCsaJTNtk.U/pANtq/q</t>
+  </si>
+  <si>
+    <t>$2a$10$.MZcl32LhLgyqx3DVXjKy.0zlhWp3/NuS2AlEzh7fD0k1ZVxqff9e</t>
+  </si>
+  <si>
+    <t>$2a$10$P4fdC1f2kFxQ7FdGdeD4d.J/bmTP1ICn3KAL.JPhD8dQu0F31cl4i</t>
+  </si>
+  <si>
+    <t>$2a$10$yDfdFuJLlgc9FJDEEHuVMe6YcCHXJiZyLHQxbBtHCp4dqi3TGPjOq</t>
+  </si>
+  <si>
+    <t>$2a$10$jSTFp7nQapnsWF8c3ti.ReMBRJloBJXfhywJyScUoGmXO7Dskk00u</t>
+  </si>
+  <si>
+    <t>$2a$10$GQCefhGWRpt6i.4cl2kRWeLswyEOzDFxdn8m3qCIzJ9NOfiAd9nD6</t>
+  </si>
+  <si>
+    <t>$2a$10$X5vR/pAom9/wx74EoVZtaetUoqM5ihjpGNFFNAyOcysFOdqNpCGdi</t>
+  </si>
+  <si>
+    <t>$2a$10$Q7SYBvRHFpVcmzRj3Izm8.GhQffyh4tg9eTLmvrP3QLTLrKFTh.Fu</t>
+  </si>
+  <si>
+    <t>$2a$10$78292OhoiiE.9C3hUFIt/.TF2srUAtDqpfVhbprLu4DAxAMRNrGEu</t>
+  </si>
+  <si>
+    <t>$2a$10$BLsYHUl/vwOl8qRCRPlPauohvOY/IdEXTm1fWKvBbfWYWtuUdSSR.</t>
+  </si>
+  <si>
+    <t>$2a$10$dLdNm/R9zthFLLYTZP2UXeiUNW0aNdKYz4wIJNHmPzqy6ts.nlLx.</t>
+  </si>
+  <si>
+    <t>$2a$10$d1bA0xJPV7EPafbQic8CgeYqksPP6ky/IDjiYOx9kEGlQOz6rVEQK</t>
+  </si>
+  <si>
+    <t>$2a$10$Sb3Py/8Ftj2kW2iMjKznuOxCfQTK/kU46ziY4FXxx7ziOPjc1KDVG</t>
+  </si>
+  <si>
+    <t>$2a$10$urzueSVxUkh09PqNYpp8L.cmBx.Ri9unP0TbTouQNIkNADrkr9sv2</t>
+  </si>
+  <si>
+    <t>$2a$10$P/hRxokfO3OoZ3VvU/avr.NwPcRaIub3jITuXLmxWnxceL9E5JYSG</t>
+  </si>
+  <si>
+    <t>$2a$10$qU0kPJXsOrpTK/AZXmo2oOTVk23QP8UN6u4TfIhkRaPqPZgNoN4tO</t>
+  </si>
+  <si>
+    <t>$2a$10$9FKpznVc7IHnz4gvtddLNuTssK/zPPGDoMsfnbAzhdt4E8nkA2zO6</t>
+  </si>
+  <si>
+    <t>$2a$10$7m0t6/WbZlbr.q4CaWqzOe05/MOLWeYE1nPKVp1mqVRd794qwHvk2</t>
+  </si>
+  <si>
+    <t>$2a$10$Wo.RaWJ7cVdXLS.FZsck3.3AE0xwKPRZ57mECZQU3FDL5mZ1IDTTC</t>
+  </si>
+  <si>
+    <t>$2a$10$6lZeKjhdH6WUzBpiLBPI3u3nlegW3BpBGkQmDH4WOEW00XLhJxqvC</t>
+  </si>
+  <si>
+    <t>$2a$10$Bo8t2zod72clyO/RueDJdeqWvI9mQj4eoN6KmgrIUI7tlqZKrtKoC</t>
+  </si>
+  <si>
+    <t>$2a$10$xMW69ClR/OsioQyx9PsYAunsryCai3HqVc0Aw97j8Som7STL9mzyS</t>
+  </si>
+  <si>
+    <t>$2a$10$hvmFEvseLJ3xodszRNm05uyQPiqMIRug3cmGdhq2NkRo4Y9eJxgPe</t>
+  </si>
+  <si>
+    <t>$2a$10$urljofw6TycY3u1yTdo8/uDpvNB6fMHAKZc2SXF6JyOYK9wHZMTvi</t>
+  </si>
+  <si>
+    <t>$2a$10$493vRLKcde5Of2xBbC7A9uHqcwrGO51sIYVBu0gTkW0UGxXqKMA22</t>
+  </si>
+  <si>
+    <t>$2a$10$EYEo2z5.RT1YkjDVBMYQfu3kpsUmdpePWCVFvCOt3CagX2zb9dm26</t>
+  </si>
+  <si>
+    <t>$2a$10$LKX4fMPjQg6fp1VnSD/DbuFHou.rHkHyylPQ.f/ntifN.TuimqVu.</t>
+  </si>
+  <si>
+    <t>$2a$10$V.64uab7EUAliP/jwG8Ylu3mVi9tcqqHyF8NJfPtKN3DQXxsz.Ppe</t>
+  </si>
+  <si>
+    <t>$2a$10$KMqY60iUBXE0qsM325Y8iuDYEfsMfj/6FHLXC9txDgFp1NShaUs5y</t>
+  </si>
+  <si>
+    <t>$2a$10$PDzYs6pfPlWnb6F7nsud1OsSel2EBh1burd8JpXUb3scfgrn5RvZm</t>
+  </si>
+  <si>
+    <t>$2a$10$h8OD0B9GVNvtoF39W35zruW7YCK74XY5ACNnR5BIy85w1JPZuNlTS</t>
+  </si>
+  <si>
+    <t>$2a$10$fav657k3QzMkdId454gXEueIYhyh7IRxsu1BKCN5noculaOV.vc8y</t>
+  </si>
+  <si>
+    <t>$2a$10$RoeSrL0qytR9Vm5GlQaeM.zdPWNkehwpWYJvXgQfnABVBBi3NGl8S</t>
+  </si>
+  <si>
+    <t>$2a$10$Vk7SIOYZug/JSuc/Ty4couPKycTfKEv8oUu779ZlGyVK/i5mHOJ4i</t>
+  </si>
+  <si>
+    <t>$2a$10$cbj2U0jFoAyWDh99j1FuseQwIuavOu0N6GBqPMjZUIbuOeR1/Wau2</t>
+  </si>
+  <si>
+    <t>$2a$10$ZjCxVUmWJs9dBQY7Cn2LK.DE/7bLf2BCBpkECY9ICmePNLTpme2/m</t>
+  </si>
+  <si>
+    <t>$2a$10$Q66u.Roe8HRjswFpqHPf/eAE2mhf.AzWN/.hxEdB6freuMx4UdnAW</t>
+  </si>
+  <si>
+    <t>$2a$10$6XHVG5REnitbBg7XdVVJq.bw1QG5o5LP8Y2LFw7/aJa.m3AJeNCGK</t>
+  </si>
+  <si>
+    <t>$2a$10$gmFl2pg.a3c1vTU2YgR/1u5evUJ0gQSs4ONN8DpY4XTItybNegGsK</t>
+  </si>
+  <si>
+    <t>$2a$10$i8dSIxR/kbsb2FefYsuJ.OKYk2SELAEJjaX0tubgrYq7lT4JfmW6K</t>
+  </si>
+  <si>
+    <t>$2a$10$hU6cUUFP5YVl/5vHYgGjXOTW6J1fN0g5KdxwC7cM4KMXiwKsuCk9a</t>
+  </si>
+  <si>
+    <t>$2a$10$59wxP0gNIXWJ40JjH2rIJ.lBT9ewsWebSj3f8tLhe3NxP7JFHKj72</t>
+  </si>
+  <si>
+    <t>$2a$10$Iv6QDKwAfxEL9ondVTR20eVihwhc/9dbVpvY4UB.ZWw1XzcHrZSRi</t>
+  </si>
+  <si>
+    <t>$2a$10$5Ohjz9EXl3PZrv4NFBWjiexxHzuJd73AJp5mI/u73BiExsjxlnVaS</t>
+  </si>
+  <si>
+    <t>$2a$10$GIWBjM9jkg0f6CYok8tbJeXzT2gYOx6lr7fpCS9NBUDFQMj0RZ9mO</t>
+  </si>
+  <si>
+    <t>$2a$10$GhQjDB0fvEcnw9/vzo6X5.UGTtzi7kv9dYoTklLu3q0.PzOmJkyG.</t>
+  </si>
+  <si>
+    <t>$2a$10$tbM38jtZryck5h51akD8fO2hDhErCIPSjmuZsGTQzPhgRLYggsTGW</t>
+  </si>
+  <si>
+    <t>$2a$10$AF61QVKTxuDtp79Rc6qxfe.8xi6gM7PTBiPzl5/aaVGszuL7NNt26</t>
+  </si>
+  <si>
+    <t>$2a$10$lhgX10XOG0A7gAWRWJAbVuvvR4O3OJ4TpUuhvXRrHQ.fmDp98SW/y</t>
+  </si>
+  <si>
+    <t>$2a$10$SqbGVCLb3xf3jhs/B12/1.T1GVbiuLCNSc58Osu9LpR3STnVT1tdG</t>
+  </si>
+  <si>
+    <t>$2a$10$Aun1ommvLS93LpAa0JSXFubNmXEwcLNpUYQ5t9.wxJkDrp/VVOlpy</t>
+  </si>
+  <si>
+    <t>$2a$10$i.cafDaH5oFEt64tUmuwHuz8gbC8Z1rGdn2DPAOkyjSztJLcogSzm</t>
+  </si>
+  <si>
+    <t>$2a$10$Y2lg/S.R7Ajy1tGyQukqOuf5kkV20rs/t5z6m6WEHw03HYsjx4mJ6</t>
+  </si>
+  <si>
+    <t>$2a$10$qbH/kGPaRMy.b6lN18DghOESXi9ymGRWomL8rBuP/UzDKwdoJPJMa</t>
+  </si>
+  <si>
+    <t>$2a$10$K7k8nlCwZb4HZO.FlP/rZOK40W1aiMVmey9zCjegvaCrrekfZLyd.</t>
+  </si>
+  <si>
+    <t>$2a$10$2o2GcIswGWbheiDxeSk7huQYmFQKzL.w0kNtHR4BzeCvP3MQCukUi</t>
+  </si>
+  <si>
+    <t>$2a$10$Y0QaCD5tkfD5NyAAxgsYFerTfN.5J96TfTwnH0oVbP1khWp29LYoa</t>
+  </si>
+  <si>
+    <t>$2a$10$8q8Kr7rRnVZKJUEf1QRjLOTVIQ8h6qAHlOaOgej7xOUPfKkvB/mxS</t>
+  </si>
+  <si>
+    <t>$2a$10$U/wQusJn5Y6GsJoVYlBXx.g4uTXHlsr7P77ZIBCHNTZCsGj95/ix.</t>
+  </si>
+  <si>
+    <t>$2a$10$x7RIp4ZCIJwvSAobAuBAGeSdEqiI9c/SyjSwzz.Wzs.DdsOXKegxy</t>
+  </si>
+  <si>
+    <t>$2a$10$HuQl5DE/aJ2jrGePE/UbOeqWSPW02nQw33mVU2/3KlYhS8tt3wHie</t>
+  </si>
+  <si>
+    <t>$2a$10$64JpdsPPOZ/QLXwRjRaU7ernzaOJdlM6yDr1Ffz7/EvJBUpu87G1S</t>
+  </si>
+  <si>
+    <t>$2a$10$Z2IGd17xZTsyJldUTrTivepS5SLhoK28jaMo8Du8o3kR4h5NFFvuS</t>
+  </si>
+  <si>
+    <t>$2a$10$CmP3kDdanOR5oeY4okVUeOKpa1BSgQiQ7pBas4PdeH6hurXTNtfhG</t>
+  </si>
+  <si>
+    <t>$2a$10$NYwATrJzD4J3yrJFzoH1rOlkFIKXCzMrKV6SPUK9hr5PMfej9vLKS</t>
+  </si>
+  <si>
+    <t>$2a$10$S3kkYAGfySrIdJ6xK9KzNecI/A.zs.dHrt8HoQBKgSn5XHWDjaQti</t>
+  </si>
+  <si>
+    <t>$2a$10$81.01JSmny3.XD79YzZ9uutC/fkQsVTE329JWGhQwE/faeNr3dXqm</t>
+  </si>
+  <si>
+    <t>$2a$10$2ev6L0S1HiJ/H0/JTeFfEeMR53yTTPQd/d8AdvXY6yFRYBG2poxYa</t>
+  </si>
+  <si>
+    <t>$2a$10$S4Ttt38c4TjTidXogn3/LOoSS9lZ9CrW2BvfBsxk3uHE6W/mhizLy</t>
+  </si>
+  <si>
+    <t>$2a$10$YAV0vvotF8WYhKpsg9b.7eIRJjTx/XRChvqzpS1GBptFMcUsDx7.S</t>
+  </si>
+  <si>
+    <t>$2a$10$BKjLWZA.RXnLTJC5aYDl7.7qnBdvdTgqBu3UqfM39ZEZl.8kT5LAS</t>
+  </si>
+  <si>
+    <t>$2a$10$.y4lPj7FJlXfV1ZR1VtaM.eX7EuPPWzwinQ4txOwHo1TZJvPFwA62</t>
+  </si>
+  <si>
+    <t>$2a$10$AzqxgbggbaN/fIA4fSTHKOrV4Ek.e3Kuk/RZLSRzrDFtJrk5w3ZOa</t>
+  </si>
+  <si>
+    <t>$2a$10$7qmasgGuOWX8.q5JshgY7OnLSCqIQ9fVABB2fc5RsiWqE5Ul6HsQq</t>
+  </si>
+  <si>
+    <t>$2a$10$DsRbuzsL8WYSo3vhxZr1oOFrhGuE4KFGH2snCqImqoIYQRhLVLqNK</t>
+  </si>
+  <si>
+    <t>$2a$10$OM4sbPnqL.R2fThnZk364ekhGFAk3/7MVXxp8T.v6g35chgt0aRZy</t>
+  </si>
+  <si>
+    <t>$2a$10$7jLt1Nxi2YlyAOA.bpOBLOtWSrpxgUg/kVfQFoEN5YxYhFhTvsILS</t>
+  </si>
+  <si>
+    <t>$2a$10$t5QNodECDqSJudBJ1jV5vOqLlUIRCH2BnEk4v3GmojyUEiyn1gIB6</t>
+  </si>
+  <si>
+    <t>$2a$10$2vF.befJJDKLo2EPewkLdOYwQSYiQxQD99F4zMxwX83T8nfSnunuW</t>
+  </si>
+  <si>
+    <t>$2a$10$JVW.gMV8OltA2FPgLCwjZ.GPAgisKZ.1tjAh0EUy4g8YXka4LY.BS</t>
+  </si>
+  <si>
+    <t>$2a$10$KUSowTzsUe3WoGqUpeCqDeD/lM75hEo9NFY2H0Z5SAU4KyvZ1maVa</t>
+  </si>
+  <si>
+    <t>$2a$10$ey1aNjwpCTfRu3YwELIMQ.1nHYHWnCa8JGoz9x/sKllLeo5SX3rRe</t>
+  </si>
+  <si>
+    <t>$2a$10$WEpqGawInhhx0Pyw2Q2SKOh5G4SxagFzPd3WtmLRel/iqIkCXoTT.</t>
+  </si>
+  <si>
+    <t>$2a$10$bFJ9IJXcxYtGE.YjoRRwtOVHhgR/Z50pVixCpSPAQJ/jtuPV2DVya</t>
+  </si>
+  <si>
+    <t>$2a$10$7.mJm8K7Yj.W5LWc3O532ezracZHB113iDcNpGwp7eolSEui7oRVO</t>
+  </si>
+  <si>
+    <t>$2a$10$hjhMQb79P.t2WZ3diyjT3e1vP2GtrcaOVi8oT9v5hs8tEyZ94U732</t>
+  </si>
+  <si>
+    <t>$2a$10$sh4aoWVEkDdaeDr0HSwiHOsvMXu2Gna77Q6OkK5CpqOFurENa5TqO</t>
+  </si>
+  <si>
+    <t>$2a$10$xZKwfq5UNj58t4gipHjKh.wyaSmkeu0OZOwmQF/ZDFkN5nO23pSyG</t>
+  </si>
+  <si>
+    <t>$2a$10$aTD73wkDpY2kppoD/iO9me1gKfXRsCXvzkJlouEOoADFQibmnh88G</t>
+  </si>
+  <si>
+    <t>$2a$10$ZDm78DPIWftHSYNtl3YurOPFtUFlPER93dKIVfznhMHRz1cgf9T1u</t>
+  </si>
+  <si>
+    <t>$2a$10$v8PpVM/PLNiihkBdCl9KZO1CwnWJpBQuotBVnhmvNCx74B03RDI1y</t>
+  </si>
+  <si>
+    <t>$2a$10$Nilj/tqDq6Ol9.d/BKby7uS/Cye/6Ma4DtktpIp0anxXRTEf6OY6W</t>
+  </si>
+  <si>
+    <t>$2a$10$Jqhlsy0ZYayaTir.NGl8f.sKqPoBHIIHjUaodguTbhYn948UL71Hq</t>
+  </si>
+  <si>
+    <t>$2a$10$WA.azyNFZYcdmK4U8drMt.eCDkA8/9sB3cAj7h1fc75.5BWlWwCWq</t>
+  </si>
+  <si>
+    <t>$2a$10$31K9/3q0V1uj.pe5hfl4a.fRMJoBSH3mXMVzhGaGOOeAsPYl7wyVu</t>
+  </si>
+  <si>
+    <t>$2a$10$pCJg.zXalXExn0bAoZYhcuV8hC.s7XzT47mkzdxTBXr3rth6D2v1m</t>
+  </si>
+  <si>
+    <t>$2a$10$GagIYctUJsB4b8sOWWdLnOZ1xmqp7sTCqa7ndNUMoD1LOWlgd21oO</t>
+  </si>
+  <si>
+    <t>$2a$10$EKP1yq295PjlwNb.KJ0qVupbL9TYimCQnNaFyYqyWYstT1vNZTUrC</t>
+  </si>
+  <si>
+    <t>$2a$10$65QHE679Z1HkCds5xRvewOltyEcP0HGUb.pqUOn/lj9Rc/8tjIIg.</t>
+  </si>
+  <si>
+    <t>$2a$10$Cx5JwM3MxXpRrdKt7gzHo.5.FCIhJUy534UelIqxs4d3x53cwfsHS</t>
+  </si>
+  <si>
+    <t>$2a$10$SSUz7jA0mQhbI0zezZjAdeEcO31uMdzhsBOwI0fwkJQgvJ4D31VpO</t>
+  </si>
+  <si>
+    <t>$2a$10$yTVZU4xSs16sj6kMy8ThOeC1zfoF8dyZxMk75U3XORFKukNxvB.4u</t>
+  </si>
+  <si>
+    <t>$2a$10$GwCKB6XQ9jUTeDMZerDWqel99mb5Quij1H2KXVpqlZvBNPB7zSTpW</t>
+  </si>
+  <si>
+    <t>$2a$10$Kq8VjyB3KxB21ys5N7H3PuCcpkjemTKEoWvzrCehxvhSEmbJ2OlwK</t>
+  </si>
+  <si>
+    <t>$2a$10$tLFUZQGmPIbe/FhYBFl/Jep0tS4WhtqqSXgRvw.P8nW6Ek0UnF54S</t>
+  </si>
+  <si>
+    <t>$2a$10$HwI4cBrlkTPDxmhEsUSaAehvSFDO7cYzA2FiT6cjZzRa3SfYWFdhS</t>
+  </si>
+  <si>
+    <t>$2a$10$ItDlme5u91lgJxnXdg5XvOTBUR8.IzlBK3qNBGOFmffsQxYEy8Ce6</t>
+  </si>
+  <si>
+    <t>$2a$10$qTKrMshZNNps/V5kyIHqNeJKkv1YBTtMyjnwu9ioS2CWUrxfcO6pW</t>
+  </si>
+  <si>
+    <t>$2a$10$ApX0XIRc/lCl/DkRpleiJuPplz8sk36yPGH5qRjDN/Cx.qqcqjRPe</t>
+  </si>
+  <si>
+    <t>$2a$10$Z1q5ZuOFJTvirMRUO18lKeOBwQHmYMdmeBbVG7nbJbcLlR75lwWbq</t>
+  </si>
+  <si>
+    <t>$2a$10$1Q/LSQsBe992Ij8K2tdh6OzN1rpoyMuijeB0cILuXUZTmuQPINO4m</t>
+  </si>
+  <si>
+    <t>$2a$10$A.59UWek6dDRJBH00vSyHuBWRHOwrNJIOBr8eJa37I3qayjTY8T7O</t>
+  </si>
+  <si>
+    <t>$2a$10$jDg5i87PzOAFt9Lze.ZwsuI9PVMcgDG7jlNyl9/c8zX90R5erFcsS</t>
+  </si>
+  <si>
+    <t>$2a$10$Jk40R7wX.LQPjmixGJLgpugbKP4cxKtcSSAK5YmPNwaXFzZiYz93y</t>
+  </si>
+  <si>
+    <t>$2a$10$gVOKZEbmL940T8d1U2gWdOVPFQ/jocdxtCTJCBZr3FwwelUpkqb4u</t>
+  </si>
+  <si>
+    <t>$2a$10$ogbFseZUgdapjyiXQmyz9.qSIYS.KNZhLLzQ/jv3XIEqnHgM0iA/C</t>
+  </si>
+  <si>
+    <t>$2a$10$U9SPgZuTS/5ZlCGC9M6GS.katGZ3843BGSJ3eS36hCzD7s25c/Jca</t>
+  </si>
+  <si>
+    <t>$2a$10$/JYvC0OI0BJ5XW3DNZUCU.9mC/eR.JCvyq50jyBVKcjAcQegVlEj.</t>
+  </si>
+  <si>
+    <t>$2a$10$1QeLkpxQm1uLonsQXQz/WuQM8w0TdDjaXDmBSMkdfauPxo1yevlVi</t>
+  </si>
+  <si>
+    <t>$2a$10$l35gviqIVrzpdvOUqeYQ/.vsDqD1Kp39hPSEgAyfMpdI8/RshBgSW</t>
+  </si>
+  <si>
+    <t>$2a$10$lv7yd/FPix.vHOLDMAp7re8TD7lLORYbRduie1jPyvVptuuljqKhW</t>
+  </si>
+  <si>
+    <t>$2a$10$QInfw1Uy9LjohFDwJWgzkeGQ0S0yz4mBdPAsIZb6XncYuMMwhUV82</t>
+  </si>
+  <si>
+    <t>$2a$10$HncaRG8uEJyTiV9sPzrOqerL5vqYKmwt6gnf6Vkm2XzyyAYRky6Au</t>
+  </si>
+  <si>
+    <t>$2a$10$K0QATrs1JjyRRtEjek9rj.JxQcqLk3wst2RfOKJtLfQI8whJxV0Z2</t>
+  </si>
+  <si>
+    <t>$2a$10$6aK6/zzSnJ2cbiqFVmNdKuZchx8vzorGhHWZhxW9mw1a9qbi838Hq</t>
+  </si>
+  <si>
+    <t>$2a$10$DkCYiqeLqBlCX5XMnUFf.OcXm1pzKr1fKURdUSvoJ7TE25ttLeCla</t>
+  </si>
+  <si>
+    <t>$2a$10$wvPy6zOy3ThqFLGRnF81f.lViaQ6K.BQPE1FCYD1DHMtc90hhf/CW</t>
+  </si>
+  <si>
+    <t>$2a$10$rKO1nSuWscmp6qN9qroKSeyufO7P4ClvgNcisIEYsJfLdnR2Tj.fq</t>
+  </si>
+  <si>
+    <t>$2a$10$RmLm7gHVs63.vJkNjc6PFeu1mn2JpYz3sUU8c5EKTzpVRtIwGoH0.</t>
+  </si>
+  <si>
+    <t>$2a$10$EZIH4AegbCpTupoMIPzrmOAney/89YsxCAxKlyxjOMEziTsV/UrYe</t>
+  </si>
+  <si>
+    <t>$2a$10$rp/lN7Nd3egktWCu3HAYa.dkpsz7c9j1vgCeB6hCaGgJtgL9M67vC</t>
+  </si>
+  <si>
+    <t>$2a$10$DJGFEb9xTgVhbrobgM89neBuR0lKdGoqMqTCOKrca5RnM5Go1gL22</t>
+  </si>
+  <si>
+    <t>$2a$10$Ki10AYFF2xEMi8vGXPOg2.Z/MTDrAojgbmPoNkfqhIW0nCrWc/7Bm</t>
+  </si>
+  <si>
+    <t>$2a$10$.KJIubN5LW/Fn9KeyHc4JONdi4VeeO7ErXhDrE7gl9oTi22lpOFoS</t>
+  </si>
+  <si>
+    <t>$2a$10$mv62s1GNFf/N32hdXPNLZOa43zIDTr1aQlNkl3hLU6cR/wA9boRbO</t>
+  </si>
+  <si>
+    <t>$2a$10$gswyGaYPBLfaRu.3JLDYYePIEV.eE77OfxlcFIaHWRzRQbMeZVidW</t>
+  </si>
+  <si>
+    <t>$2a$10$fNPJzmaDbv3upJ7EM7rhe.c5Wn.LGbe9QSUAhSsy4WRMDv56dHlHG</t>
+  </si>
+  <si>
+    <t>$2a$10$52ct.8A2JBR8PqVaUD1ZjeuzZ33zLq.wNalOQT7mfNQbLmsbgCRVO</t>
+  </si>
+  <si>
+    <t>$2a$10$uursd8ZgrxmKvMyGrcf0gu.bOCwMFh3FXg.kID7Lf4K0X7V9GEY0W</t>
+  </si>
+  <si>
+    <t>$2a$10$hjtVfP80rvmVE3BkkzdSwuIkv7S..iTxOIukUClnd3aDKuX3A2agO</t>
+  </si>
+  <si>
+    <t>$2a$10$8XP/ySrzTE8EuDBr7YKX5OVBSDoM71v/N4FRiMhLEi4yBk2Nd5hY2</t>
+  </si>
+  <si>
+    <t>$2a$10$T6KCTWEC54WWUaCeoHs9RuGidInTqyH.8mXpFY5if3j4ok.RQ3h2W</t>
+  </si>
+  <si>
+    <t>$2a$10$n/BjZUycVqZsTh1fA0.XSeYU5KMOBbuTDKBh6z19LFWRRQ0Su4AO.</t>
+  </si>
+  <si>
+    <t>$2a$10$68XiEXXn4gnQnIXJtZnGduK52ryshIBl2ikUFk2uSZzOwVfa4HLk6</t>
+  </si>
+  <si>
+    <t>$2a$10$5IyIQaMM.7iKb48DeaJzsOkFJDpnYrmtZcRw3h8eDEAqdRW1O8Akm</t>
+  </si>
+  <si>
+    <t>$2a$10$eshsiJLHIdptzbDQsv99q.wbRxEXBAL2jjednvcAl3E476Wpf5u5m</t>
+  </si>
+  <si>
+    <t>$2a$10$UUYRZMn2Y6CLs5KoDSnwbepTioNB5sPNCnfxCGPWw7/NhYH0ED7mC</t>
+  </si>
+  <si>
+    <t>$2a$10$uDuByc.DYzwriQdVvkdluu2BPPzKrbuKyz.p9o5Ycc5tFGZ31EY/2</t>
+  </si>
+  <si>
+    <t>$2a$10$01DXQes5.hw7DcSsSyYkZ.pQo7l1knMTd31VGwbU4elDD6edV7zMy</t>
+  </si>
+  <si>
+    <t>$2a$10$ZeST9K.aaAbX8qdKCO9Exu0tndGWFiArMgGyrd/0pwhpyVUCvMQpG</t>
+  </si>
+  <si>
+    <t>$2a$10$cS3MuE4wgWAkeCzhzwFdzeq2PPOtOSUgITu9ficXfPwfdA9aPaLMu</t>
+  </si>
+  <si>
+    <t>$2a$10$9gCOgPv2uoPKbIOBIyJ.te/py.U56D5Fvk5BUMW99LfH.KSBQ.L.C</t>
+  </si>
+  <si>
+    <t>$2a$10$YnbTBDXhliQulHhhdKz9N.ghWEVjSQweNpMqC.ETn9qCVyVCFcSue</t>
+  </si>
+  <si>
+    <t>$2a$10$9csYuHS.vYEn968ACsds6e7pU2pHKqAz3S/TkjF0/hb.kxTAriurK</t>
+  </si>
+  <si>
+    <t>$2a$10$Ji8sfgCwTPjEpoXsCDKBuOlo.0KZsE7GXlT3UqhYRk7Qgg8FoX6di</t>
+  </si>
+  <si>
+    <t>$2a$10$z3ZMbzhtX924hy1LO4nvqOW579aDuEJmn1rcFaLFhtV.Gn4JFvNt.</t>
+  </si>
+  <si>
+    <t>$2a$10$rdktAo6iBq/eKRvU/4/Zt.oCa1b/jsVMY2.edvv8cLpYYRFICSLqO</t>
+  </si>
+  <si>
+    <t>$2a$10$MVNOGRR1M0N6SMIkZfxCi.4v395yPxeO880dZBvguzd6dybaP5v9G</t>
+  </si>
+  <si>
+    <t>$2a$10$y7OiBOV1VCce8cbk3WgmHusD5WGDNYr5Yvw9goWpkC3TMOL9y23fe</t>
+  </si>
+  <si>
+    <t>$2a$10$jjvI9W5jpv3vKjpREdZgWOPdCF2gqyd5687sNjUAn9PmcbLHOT64.</t>
+  </si>
+  <si>
+    <t>$2a$10$0IImAhSpeDd2pwM0.rwzZeQtqP9SZZd2wXAIVWaa6bdReNuu6SL46</t>
+  </si>
+  <si>
+    <t>$2a$10$x.tjhodz1/2T6nJYBrcBbOk/OlkxvdHMVdHIYe/sm9DgO/mR5vzMK</t>
+  </si>
+  <si>
+    <t>$2a$10$1w.Rrvs30AUUbP2bFtZ6leGwJVn4SKq6FJoy5JMLTin0/bhd/Mvv.</t>
+  </si>
+  <si>
+    <t>$2a$10$2vyyuVi.q4BLvGdNPOmFqOopAgLqz866l/JPW9EVxgvHrQH36HKAW</t>
+  </si>
+  <si>
+    <t>$2a$10$nDl4DiJfMU9ziL/Byuo/MOijqqiIXjQwrp.2yDO/WYU.I0uwUTJPi</t>
+  </si>
+  <si>
+    <t>$2a$10$MCfgteZOu2irOk/XOwwLHOub6BPbZ20WhKiqMXFUz92waIW3NZQ3W</t>
+  </si>
+  <si>
+    <t>$2a$10$oiVkISj3gtmDsIDyUgzxueX1TLkqkDThFJrUetMnPcihoyKna/cQ.</t>
+  </si>
+  <si>
+    <t>$2a$10$ZVxi39HGR/OHX3SR0472wucZ2dE.5FVDn8k02bqN6tgHxCh/gmcZy</t>
+  </si>
+  <si>
+    <t>$2a$10$hfSWr30M3kIxil0/C3UxqO0zUVh4DZ3w5RmMlk0d7DBgCP6s.XNNO</t>
+  </si>
+  <si>
+    <t>$2a$10$lfdB7KRFnfwfv8pyiVzPbOYAEoEhT0ofGKYDA9pvEMng/PeDeT0ga</t>
+  </si>
+  <si>
+    <t>$2a$10$7fESHwJxfOCwuOXCeOYJ0OU2cw65y0sMfmndVivy33Iehth.8gcAC</t>
+  </si>
+  <si>
+    <t>$2a$10$TwAcwlpl6.pzLVDKCZWdsOhhdA6fSnepm8MQB33rGcmsYfFCy1rVu</t>
+  </si>
+  <si>
+    <t>$2a$10$20puN.9YRjWxcWIwn68l2OnWSeZOdzmin7wGOa9LnG79oLo6vU7Qq</t>
+  </si>
+  <si>
+    <t>$2a$10$LHtmkyIExKA3q.p4WsdyGuZnvZX.bcpeQwqDjV5vQUgs.zSj67XvO</t>
+  </si>
+  <si>
+    <t>$2a$10$qLBpndksVarpBp06X6PrNOlpXxykOkFISnLPkkS6CDUcDct162Xsi</t>
+  </si>
+  <si>
+    <t>$2a$10$qIkjYehnbGel3I7OwmObX.YkWoENax7ejk.9hp9eUjGhiVsa9cmAK</t>
+  </si>
+  <si>
+    <t>$2a$10$MQ7FtR8sFFjoAu1cLwD4LOXQ0yNd0/6DfxfIluOS5EeH/bAuCu2zi</t>
+  </si>
+  <si>
+    <t>$2a$10$RsoEIahHw1FBuyGfijAheOg8p9BUmp/wL2OLzw3S7PvqPT4/6S1u.</t>
+  </si>
+  <si>
+    <t>$2a$10$gKDoGejC1SCOhavS/rv9duSIYfPYp9YY04KI2CYmNwrkHWnPkXirS</t>
+  </si>
+  <si>
+    <t>$2a$10$WEPz2zeYlaQVscrAH0bhS.Go.JFRx.rjqk9f5LKKH7M3PAopIrdyW</t>
+  </si>
+  <si>
+    <t>$2a$10$EFkkJsDZD6J/U7Fzv1gnhO2KX3JxMbrJt331eQiZL4xz/86Pvh2ya</t>
+  </si>
+  <si>
+    <t>$2a$10$DqgNC4R4dlBndPLCEn3CfuoPxvhzF9CLkPq8iFa3EQBc7WWUxGMO6</t>
+  </si>
+  <si>
+    <t>$2a$10$Lz8IObxwctA0LzQBKc2At.li8Ui9gKqJEH9zt4dS2vp08.fCJopVm</t>
+  </si>
+  <si>
+    <t>$2a$10$L4NlCofVipK/kS5IxTKQiu6RVwv7P8PurDc2W6J6kEOnCAwig9E/.</t>
+  </si>
+  <si>
+    <t>$2a$10$JqIF3Nhy7r42hJnHj9LyMerjrmf6LfOrAQhvYT7tGHuQb7QVbnLU2</t>
+  </si>
+  <si>
+    <t>$2a$10$N94/wSVypiNPlWDdGo5se.nU4wjYqtYSAHl0Hm.zUccKvWKbGzDR2</t>
+  </si>
+  <si>
+    <t>$2a$10$re8F47E/rsvxR2/sezcxCuwX89U6rs1fe8EcuCaEcWH2INMv5tHbW</t>
+  </si>
+  <si>
+    <t>$2a$10$SB22ZENuPJISjarG1APPKOlCv4yJ9EbeHu1PI9FQUF/ajBD/gn0BO</t>
+  </si>
+  <si>
+    <t>$2a$10$cfdgQMF6BQPY0jOuYnyCmeZCGcyJA.IZBaGmJqTnPOnH14e/z5sC.</t>
+  </si>
+  <si>
+    <t>$2a$10$VPf10tttEysEY3iF5AiIpO81RetX4VRmgdouUwxmvQn1slQBHBeU.</t>
+  </si>
+  <si>
+    <t>$2a$10$jH/01.RjlWcdLjS8.j2hO.Ct8VBAlqA9/IQtNI6U0k0QTbG3rHNOW</t>
+  </si>
+  <si>
+    <t>$2a$10$91Pi/aXav8x5U1.vP36F/O88ArTWsIgh2ciJfwxpWWd8y7GxFqJB2</t>
+  </si>
+  <si>
+    <t>$2a$10$iIAgol0wUlxkAo4a4w1yauWfIpIhqD5PHwui8Et7wJ6O8wTcs1dP6</t>
+  </si>
+  <si>
+    <t>$2a$10$v7QRq.MLTTgMiMStpuYFmuoxYjraQ3DyUnQriB0WvLpZ3vXZ6oPFO</t>
+  </si>
+  <si>
+    <t>$2a$10$gRO/ruIad2BGRAKp0YZHlOLdzC8LrOLDPSbAYxwNyX9.GDc72aAzy</t>
+  </si>
+  <si>
+    <t>$2a$10$Ip6NVj0oGtQ5GEVnhZ1siOJxwoo6VC/yGjR6e6d/Tpmp1f2.WIV42</t>
+  </si>
+  <si>
+    <t>$2a$10$NPC5Um86JzXfxejts3fF.ecFyKrV4zVwCNrL/wYPri4c65EJTxgKq</t>
+  </si>
+  <si>
+    <t>$2a$10$QRnQvk/Kltu8pdrEV.KgHOVRbOfm5BnlTn50OKp8I5.FOvMwlaHLe</t>
+  </si>
+  <si>
+    <t>$2a$10$MBI9j2EkN0v/nt/jq75PcOq3UvAvx1v3UyvxYMxysBHya1ujDiQfO</t>
+  </si>
+  <si>
+    <t>$2a$10$Ggp8ZwR3A1nPaUO6UlxybuVlQwU5tK8cWN7CwaUQKimZdXqWnF1Wi</t>
+  </si>
+  <si>
+    <t>$2a$10$mchBYcon7ulPcy7BH.QerezRODDJ3va.FvpxikWTggnN7MGXOjCYC</t>
+  </si>
+  <si>
+    <t>$2a$10$KirSJN3d54sXeyyuBylvHOEOHgOKzp9Qt1WQA9TM01X7UXbYTNzS.</t>
+  </si>
+  <si>
+    <t>$2a$10$xWTQLJzzoZFiGFR3A9jike7pksq47vvtsAp62hDeyte.ZukdnLNke</t>
+  </si>
+  <si>
+    <t>$2a$10$7arypGq5GTNQ4G8V7ma6iOcIkyoVK66YDVD2W69iErkCe8yMKUvBK</t>
+  </si>
+  <si>
+    <t>$2a$10$bbpQIaXA.sqrCLPCLN1APesG4bajMWhqM4o14Xq17oI7jmbRsVuGO</t>
+  </si>
+  <si>
+    <t>$2a$10$uYVCH/QRV.fNMUJSov5.2.5CFiiTHawQ9f.rekpvUJSfU7ZzkEdEK</t>
+  </si>
+  <si>
+    <t>$2a$10$x.YBZesruHDIiw03lPmsO.alt654XT7J8gCIsQkY3PwtTB9TLaV9a</t>
+  </si>
+  <si>
+    <t>$2a$10$3Q/xN8qX7srp1hOXsKBUI.6htnpn5wm1MPTXUV6uD33mHk/W6zHvK</t>
+  </si>
+  <si>
+    <t>$2a$10$5/4/gMlG.QUYzKAV9iZAt.K01Tlai9A8tqCGivqxp8ySpJC6I4FAq</t>
+  </si>
+  <si>
+    <t>$2a$10$B7HQtw/pMca5lXePM1f9gub36zt4c/cBEIoXDDBVtm5bk7Vh9alS.</t>
+  </si>
+  <si>
+    <t>$2a$10$6PsFqhDjKdvazgKC7Bk2b.hfxFoBuzpTv70wz9tILr0zVdGIWn1Km</t>
+  </si>
+  <si>
+    <t>$2a$10$2Omb6oLfTdhPk8iW9KweKuqjI.toPMsMCbMRamD7rplyPcMhWVluC</t>
+  </si>
+  <si>
+    <t>$2a$10$/LTDW31VQ.YJTN0h57r.juh2yhIANnPuVDGOOtFrwliFMl6/mfSIm</t>
+  </si>
+  <si>
+    <t>$2a$10$pV7vQsyAmhvKNlkMHPdvHebFLLgqKZvfuo5DjCB11lBLBuXXvVgNG</t>
+  </si>
+  <si>
+    <t>$2a$10$jDeENpMP3fCNWUANHFNlEumtf9VueNIE0C3HKyliLG12Z9.4bS5kS</t>
+  </si>
+  <si>
+    <t>$2a$10$V/sjyQz4/bW6zxJCZAsDxOArCqWFsx/L2urb9gIYE9r6RwlTEVDVW</t>
+  </si>
+  <si>
+    <t>$2a$10$/mWFIEUkEAzQgo51.3W0dugBz5iUYQBxIDL5CAjzpT2ZJZleg5EeG</t>
+  </si>
+  <si>
+    <t>$2a$10$Lef./SEFtZYCX77yrw.Mlu7VzN3peoWlQA7D2MBhX4e24hTFl5eU.</t>
+  </si>
+  <si>
+    <t>$2a$10$ulNgu.ecPyThyDi9BwQoDuRc3f3lrRbvJ.tIOdoLlvcnRlKO8Syn.</t>
+  </si>
+  <si>
+    <t>$2a$10$soEN6Ii9akTA.BC/5Z1zu.J1Gt6f5IwbE2JldJLS8Um7lShMArIy.</t>
+  </si>
+  <si>
+    <t>$2a$10$6dOvfL5lR4X.uGHTjoPDOOtuDV14Kz9y0N/uG7ZlArKmLoYqVu1BC</t>
+  </si>
+  <si>
+    <t>$2a$10$uCNWyJMgyjA7P51w2y/J2.QpHLnQAKKXeFS1BSnP3Nr6YeZ.ckk1e</t>
+  </si>
+  <si>
+    <t>$2a$10$Glt8EGloRvX/oMxou2HtzuD.MPPcSzqtCWP.ifcOjTK56GvbeMy0G</t>
+  </si>
+  <si>
+    <t>$2a$10$PZ4EKPz0cveNihE13wN4..i.hcRDwNJoLkDUbwsZ7Za5IVpu/TXuK</t>
+  </si>
+  <si>
+    <t>$2a$10$2q2coogfdnQJdnrwoVpPIe1PpfbGYed60OUT0eY3DViXz3CzOvsim</t>
+  </si>
+  <si>
+    <t>$2a$10$b.4ImnPo3Ey9tCb8zpvtSOqgkvFf7N6qsrEl5n../nKZnUAA7VXWO</t>
+  </si>
+  <si>
+    <t>$2a$10$/fExKcVdH4hvQm9dmrtrtOvoKw7CZsX/QElHCXbXDXYzYzWFcPH5G</t>
+  </si>
+  <si>
+    <t>$2a$10$F2.yyeTUcf.zSVmZN3wIFe4JKTG12qyUluA04FF8CkpFnhehYAI6G</t>
+  </si>
+  <si>
+    <t>$2a$10$1MJw0zZwCSzOugQXAUxJJe9fQaAJLEU0thJJWk7tV1.fVJ/C3O4P2</t>
+  </si>
+  <si>
+    <t>$2a$10$Kj3oG/WNuFyEolnSmKChg.naL70yGStkGyR.Zg1W8/B/YtADqEK.K</t>
+  </si>
+  <si>
+    <t>$2a$10$qnF/dR1/e3LOYWk2OBttxeBXNKvRA3FOhbD4iSWM9g5JhwC6.5sr2</t>
+  </si>
+  <si>
+    <t>$2a$10$9Gr6V27f9ud9hyiScNIv9eu6jhaXD6vNHUmiKC27AkpdQLGORYI3m</t>
+  </si>
+  <si>
+    <t>$2a$10$KnKuNy0L233G.ZSlze0V3Ou8mZOXEEN3VbayVzzZt6cX6XVjY3PXS</t>
+  </si>
+  <si>
+    <t>$2a$10$riHSIWeb3jzK78VfbeRwVedhYHCC1Qdy10hl1hcGhqL22r4aRFmGO</t>
+  </si>
+  <si>
+    <t>$2a$10$a17zXJEJpcCs9YMWQ49y8eU/hBcBVBvsDuKeqt2TB2m8tWyTBADf6</t>
+  </si>
+  <si>
+    <t>$2a$10$hYS5s7eo0OGx/5WawQkyoe2oojpu4d0wsWQW7HhfAUP3e0.eb.UJK</t>
+  </si>
+  <si>
+    <t>$2a$10$0vrdbsBqysRvaapruwbi9OCTknshNtirV79GJJ/icoFbrUp2MGafG</t>
+  </si>
+  <si>
+    <t>$2a$10$KNAQp67kF8.aZOftem2Fi.1DQx7WV.J9Pj4Y.nYVXuhTNyW9vqxO2</t>
+  </si>
+  <si>
+    <t>$2a$10$KZESRWxiQpaLbAYcNFNzEezhD2zxn8AXURercKc01cY.oknXADNk.</t>
+  </si>
+  <si>
+    <t>$2a$10$LyK1nL.i6o8GRwC2JeoXR.xyamBgGKzHICuUkNl2uC7hnTPYb3pou</t>
   </si>
 </sst>
 </file>
